--- a/correlation/input_data/best_val_acc.xlsx
+++ b/correlation/input_data/best_val_acc.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Index</t>
   </si>
@@ -65,7 +65,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +85,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -556,28 +549,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,126 +582,120 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -714,6 +704,9 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1080,8 +1073,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.1481481481481" style="1" customWidth="1"/>
-    <col min="2" max="8" width="14.1481481481481" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1481481481481" style="4" customWidth="1"/>
+    <col min="2" max="8" width="14.1481481481481" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:8">
@@ -2317,4721 +2310,4177 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H172" sqref="H172"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.1481481481481" style="1" customWidth="1"/>
-    <col min="2" max="8" width="14.1481481481481" style="2" customWidth="1"/>
+    <col min="1" max="7" width="14.1481481481481" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:8">
+    <row r="2" ht="19.5" customHeight="1" spans="1:7">
       <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
         <v>0.6417</v>
       </c>
-      <c r="C2" s="4">
+      <c r="B2" s="3">
         <v>0.5097</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
         <v>0.8816</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D2" s="3">
         <v>0.8894</v>
       </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3">
         <v>0.8893</v>
       </c>
-      <c r="G2" s="4">
+      <c r="F2" s="3">
         <v>0.8912</v>
       </c>
-      <c r="H2" s="4">
+      <c r="G2" s="3">
         <v>0.8954</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:8">
+    <row r="3" ht="19.5" customHeight="1" spans="1:7">
       <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
         <v>0.6574</v>
       </c>
-      <c r="C3" s="4">
+      <c r="B3" s="3">
         <v>0.5642</v>
       </c>
-      <c r="D3" s="4">
+      <c r="C3" s="3">
         <v>0.8747</v>
       </c>
-      <c r="E3" s="4">
+      <c r="D3" s="3">
         <v>0.8867</v>
       </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3">
         <v>0.8888</v>
       </c>
-      <c r="G3" s="4">
+      <c r="F3" s="3">
         <v>0.8884</v>
       </c>
-      <c r="H3" s="4">
+      <c r="G3" s="3">
         <v>0.8917</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:8">
+    <row r="4" ht="19.5" customHeight="1" spans="1:7">
       <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
         <v>0.6618</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
         <v>0.5593</v>
       </c>
-      <c r="D4" s="4">
+      <c r="C4" s="3">
         <v>0.8788</v>
       </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
         <v>0.8917</v>
       </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
         <v>0.8941</v>
       </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
         <v>0.8942</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="3">
         <v>0.8968</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:8">
+    <row r="5" ht="19.5" customHeight="1" spans="1:7">
       <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
         <v>0.6384</v>
       </c>
-      <c r="C5" s="4">
+      <c r="B5" s="3">
         <v>0.577</v>
       </c>
-      <c r="D5" s="4">
+      <c r="C5" s="3">
         <v>0.8798</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
         <v>0.8943</v>
       </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3">
         <v>0.8945</v>
       </c>
-      <c r="G5" s="4">
+      <c r="F5" s="3">
         <v>0.8991</v>
       </c>
-      <c r="H5" s="4">
+      <c r="G5" s="3">
         <v>0.9005</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:8">
+    <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
         <v>0.6662</v>
       </c>
-      <c r="C6" s="4">
+      <c r="B6" s="3">
         <v>0.574</v>
       </c>
-      <c r="D6" s="4">
+      <c r="C6" s="3">
         <v>0.8854</v>
       </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3">
         <v>0.8926</v>
       </c>
-      <c r="F6" s="4">
+      <c r="E6" s="3">
         <v>0.8947</v>
       </c>
-      <c r="G6" s="4">
+      <c r="F6" s="3">
         <v>0.9056</v>
       </c>
-      <c r="H6" s="4">
+      <c r="G6" s="3">
         <v>0.9033</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:8">
+    <row r="7" ht="19.5" customHeight="1" spans="1:7">
       <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
         <v>0.6701</v>
       </c>
-      <c r="C7" s="4">
+      <c r="B7" s="3">
         <v>0.5755</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C7" s="3">
         <v>0.8912</v>
       </c>
-      <c r="E7" s="4">
+      <c r="D7" s="3">
         <v>0.9021</v>
       </c>
-      <c r="F7" s="4">
+      <c r="E7" s="3">
         <v>0.9002</v>
       </c>
-      <c r="G7" s="4">
+      <c r="F7" s="3">
         <v>0.9061</v>
       </c>
-      <c r="H7" s="4">
+      <c r="G7" s="3">
         <v>0.9034</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:8">
+    <row r="8" ht="19.5" customHeight="1" spans="1:7">
       <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
         <v>0.7052</v>
       </c>
-      <c r="C8" s="4">
+      <c r="B8" s="3">
         <v>0.5806</v>
       </c>
-      <c r="D8" s="4">
+      <c r="C8" s="3">
         <v>0.8927</v>
       </c>
-      <c r="E8" s="4">
+      <c r="D8" s="3">
         <v>0.9061</v>
       </c>
-      <c r="F8" s="4">
+      <c r="E8" s="3">
         <v>0.9077</v>
       </c>
-      <c r="G8" s="4">
+      <c r="F8" s="3">
         <v>0.9107</v>
       </c>
-      <c r="H8" s="4">
+      <c r="G8" s="3">
         <v>0.9115</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:8">
+    <row r="9" ht="19.5" customHeight="1" spans="1:7">
       <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
         <v>0.6978</v>
       </c>
-      <c r="C9" s="4">
+      <c r="B9" s="3">
         <v>0.5719</v>
       </c>
-      <c r="D9" s="4">
+      <c r="C9" s="3">
         <v>0.896</v>
       </c>
-      <c r="E9" s="4">
+      <c r="D9" s="3">
         <v>0.9045</v>
       </c>
-      <c r="F9" s="4">
+      <c r="E9" s="3">
         <v>0.9038</v>
       </c>
-      <c r="G9" s="4">
+      <c r="F9" s="3">
         <v>0.9082</v>
       </c>
-      <c r="H9" s="4">
+      <c r="G9" s="3">
         <v>0.9076</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:8">
+    <row r="10" ht="19.5" customHeight="1" spans="1:7">
       <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
         <v>0.6517</v>
       </c>
-      <c r="C10" s="4">
+      <c r="B10" s="3">
         <v>0.5804</v>
       </c>
-      <c r="D10" s="4">
+      <c r="C10" s="3">
         <v>0.897</v>
       </c>
-      <c r="E10" s="4">
+      <c r="D10" s="3">
         <v>0.9027</v>
       </c>
-      <c r="F10" s="4">
+      <c r="E10" s="3">
         <v>0.9013</v>
       </c>
-      <c r="G10" s="4">
+      <c r="F10" s="3">
         <v>0.9072</v>
       </c>
-      <c r="H10" s="4">
+      <c r="G10" s="3">
         <v>0.9076</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:8">
+    <row r="11" ht="19.5" customHeight="1" spans="1:7">
       <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
         <v>0.7044</v>
       </c>
-      <c r="C11" s="4">
+      <c r="B11" s="3">
         <v>0.5825</v>
       </c>
-      <c r="D11" s="4">
+      <c r="C11" s="3">
         <v>0.896</v>
       </c>
-      <c r="E11" s="4">
+      <c r="D11" s="3">
         <v>0.9089</v>
       </c>
-      <c r="F11" s="4">
+      <c r="E11" s="3">
         <v>0.9033</v>
       </c>
-      <c r="G11" s="4">
+      <c r="F11" s="3">
         <v>0.9095</v>
       </c>
-      <c r="H11" s="4">
+      <c r="G11" s="3">
         <v>0.9146</v>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1" spans="1:8">
+    <row r="12" ht="19.5" customHeight="1" spans="1:7">
       <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
         <v>0.6907</v>
       </c>
-      <c r="C12" s="4">
+      <c r="B12" s="3">
         <v>0.5867</v>
       </c>
-      <c r="D12" s="4">
+      <c r="C12" s="3">
         <v>0.899</v>
       </c>
-      <c r="E12" s="4">
+      <c r="D12" s="3">
         <v>0.9101</v>
       </c>
-      <c r="F12" s="4">
+      <c r="E12" s="3">
         <v>0.9083</v>
       </c>
-      <c r="G12" s="4">
+      <c r="F12" s="3">
         <v>0.9117</v>
       </c>
-      <c r="H12" s="4">
+      <c r="G12" s="3">
         <v>0.9128</v>
       </c>
     </row>
-    <row r="13" ht="19.5" customHeight="1" spans="1:8">
+    <row r="13" ht="19.5" customHeight="1" spans="1:7">
       <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
         <v>0.7036</v>
       </c>
-      <c r="C13" s="4">
+      <c r="B13" s="3">
         <v>0.5771</v>
       </c>
-      <c r="D13" s="4">
+      <c r="C13" s="3">
         <v>0.9004</v>
       </c>
-      <c r="E13" s="4">
+      <c r="D13" s="3">
         <v>0.9089</v>
       </c>
-      <c r="F13" s="4">
+      <c r="E13" s="3">
         <v>0.9057</v>
       </c>
-      <c r="G13" s="4">
+      <c r="F13" s="3">
         <v>0.9119</v>
       </c>
-      <c r="H13" s="4">
+      <c r="G13" s="3">
         <v>0.9107</v>
       </c>
     </row>
-    <row r="14" ht="19.5" customHeight="1" spans="1:8">
+    <row r="14" ht="19.5" customHeight="1" spans="1:7">
       <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
         <v>0.7139</v>
       </c>
-      <c r="C14" s="4">
+      <c r="B14" s="3">
         <v>0.585</v>
       </c>
-      <c r="D14" s="4">
+      <c r="C14" s="3">
         <v>0.903</v>
       </c>
-      <c r="E14" s="4">
+      <c r="D14" s="3">
         <v>0.9081</v>
       </c>
-      <c r="F14" s="4">
+      <c r="E14" s="3">
         <v>0.9099</v>
       </c>
-      <c r="G14" s="4">
+      <c r="F14" s="3">
         <v>0.9119</v>
       </c>
-      <c r="H14" s="4">
+      <c r="G14" s="3">
         <v>0.9144</v>
       </c>
     </row>
-    <row r="15" ht="19.5" customHeight="1" spans="1:8">
+    <row r="15" ht="19.5" customHeight="1" spans="1:7">
       <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
         <v>0.7082</v>
       </c>
-      <c r="C15" s="4">
+      <c r="B15" s="3">
         <v>0.5786</v>
       </c>
-      <c r="D15" s="4">
+      <c r="C15" s="3">
         <v>0.9018</v>
       </c>
-      <c r="E15" s="4">
+      <c r="D15" s="3">
         <v>0.9082</v>
       </c>
-      <c r="F15" s="4">
+      <c r="E15" s="3">
         <v>0.9093</v>
       </c>
-      <c r="G15" s="4">
+      <c r="F15" s="3">
         <v>0.9122</v>
       </c>
-      <c r="H15" s="4">
+      <c r="G15" s="3">
         <v>0.9135</v>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1" spans="1:8">
+    <row r="16" ht="19.5" customHeight="1" spans="1:7">
       <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
         <v>0.6958</v>
       </c>
-      <c r="C16" s="4">
+      <c r="B16" s="3">
         <v>0.5916</v>
       </c>
-      <c r="D16" s="4">
+      <c r="C16" s="3">
         <v>0.9063</v>
       </c>
-      <c r="E16" s="4">
+      <c r="D16" s="3">
         <v>0.9101</v>
       </c>
-      <c r="F16" s="4">
+      <c r="E16" s="3">
         <v>0.9105</v>
       </c>
-      <c r="G16" s="4">
+      <c r="F16" s="3">
         <v>0.914</v>
       </c>
-      <c r="H16" s="4">
+      <c r="G16" s="3">
         <v>0.9143</v>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1" spans="1:8">
+    <row r="17" ht="19.5" customHeight="1" spans="1:7">
       <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
         <v>0.7031</v>
       </c>
-      <c r="C17" s="4">
+      <c r="B17" s="3">
         <v>0.5845</v>
       </c>
-      <c r="D17" s="4">
+      <c r="C17" s="3">
         <v>0.9057</v>
       </c>
-      <c r="E17" s="4">
+      <c r="D17" s="3">
         <v>0.9087</v>
       </c>
-      <c r="F17" s="4">
+      <c r="E17" s="3">
         <v>0.9085</v>
       </c>
-      <c r="G17" s="4">
+      <c r="F17" s="3">
         <v>0.9146</v>
       </c>
-      <c r="H17" s="4">
+      <c r="G17" s="3">
         <v>0.9159</v>
       </c>
     </row>
-    <row r="18" ht="19.5" customHeight="1" spans="1:8">
+    <row r="18" ht="19.5" customHeight="1" spans="1:7">
       <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
         <v>0.7212</v>
       </c>
-      <c r="C18" s="4">
+      <c r="B18" s="3">
         <v>0.5836</v>
       </c>
-      <c r="D18" s="4">
+      <c r="C18" s="3">
         <v>0.8997</v>
       </c>
-      <c r="E18" s="4">
+      <c r="D18" s="3">
         <v>0.9071</v>
       </c>
-      <c r="F18" s="4">
+      <c r="E18" s="3">
         <v>0.9076</v>
       </c>
-      <c r="G18" s="4">
+      <c r="F18" s="3">
         <v>0.9116</v>
       </c>
-      <c r="H18" s="4">
+      <c r="G18" s="3">
         <v>0.9151</v>
       </c>
     </row>
-    <row r="19" ht="19.5" customHeight="1" spans="1:8">
+    <row r="19" ht="19.5" customHeight="1" spans="1:7">
       <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
         <v>0.696</v>
       </c>
-      <c r="C19" s="4">
+      <c r="B19" s="3">
         <v>0.5874</v>
       </c>
-      <c r="D19" s="4">
+      <c r="C19" s="3">
         <v>0.8996</v>
       </c>
-      <c r="E19" s="4">
+      <c r="D19" s="3">
         <v>0.9098</v>
       </c>
-      <c r="F19" s="4">
+      <c r="E19" s="3">
         <v>0.9086</v>
       </c>
-      <c r="G19" s="4">
+      <c r="F19" s="3">
         <v>0.9124</v>
       </c>
-      <c r="H19" s="4">
+      <c r="G19" s="3">
         <v>0.9127</v>
       </c>
     </row>
-    <row r="20" ht="19.5" customHeight="1" spans="1:8">
+    <row r="20" ht="19.5" customHeight="1" spans="1:7">
       <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
         <v>0.7076</v>
       </c>
-      <c r="C20" s="4">
+      <c r="B20" s="3">
         <v>0.5892</v>
       </c>
-      <c r="D20" s="4">
+      <c r="C20" s="3">
         <v>0.902</v>
       </c>
-      <c r="E20" s="4">
+      <c r="D20" s="3">
         <v>0.9058</v>
       </c>
-      <c r="F20" s="4">
+      <c r="E20" s="3">
         <v>0.9078</v>
       </c>
-      <c r="G20" s="4">
+      <c r="F20" s="3">
         <v>0.9141</v>
       </c>
-      <c r="H20" s="4">
+      <c r="G20" s="3">
         <v>0.9079</v>
       </c>
     </row>
-    <row r="21" ht="19.5" customHeight="1" spans="1:8">
+    <row r="21" ht="19.5" customHeight="1" spans="1:7">
       <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4">
         <v>0.7025</v>
       </c>
-      <c r="C21" s="4">
+      <c r="B21" s="3">
         <v>0.5924</v>
       </c>
-      <c r="D21" s="4">
+      <c r="C21" s="3">
         <v>0.902</v>
       </c>
-      <c r="E21" s="4">
+      <c r="D21" s="3">
         <v>0.908</v>
       </c>
-      <c r="F21" s="4">
+      <c r="E21" s="3">
         <v>0.9091</v>
       </c>
-      <c r="G21" s="4">
+      <c r="F21" s="3">
         <v>0.9129</v>
       </c>
-      <c r="H21" s="4">
+      <c r="G21" s="3">
         <v>0.9116</v>
       </c>
     </row>
-    <row r="22" ht="19.5" customHeight="1" spans="1:8">
+    <row r="22" ht="19.5" customHeight="1" spans="1:7">
       <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4">
         <v>0.707</v>
       </c>
-      <c r="C22" s="4">
+      <c r="B22" s="3">
         <v>0.5913</v>
       </c>
-      <c r="D22" s="4">
+      <c r="C22" s="3">
         <v>0.8975</v>
       </c>
-      <c r="E22" s="4">
+      <c r="D22" s="3">
         <v>0.9079</v>
       </c>
-      <c r="F22" s="4">
+      <c r="E22" s="3">
         <v>0.9096</v>
       </c>
-      <c r="G22" s="4">
+      <c r="F22" s="3">
         <v>0.9098</v>
       </c>
-      <c r="H22" s="4">
+      <c r="G22" s="3">
         <v>0.9137</v>
       </c>
     </row>
-    <row r="23" ht="19.5" customHeight="1" spans="1:8">
+    <row r="23" ht="19.5" customHeight="1" spans="1:7">
       <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4">
         <v>0.7003</v>
       </c>
-      <c r="C23" s="4">
+      <c r="B23" s="3">
         <v>0.5862</v>
       </c>
-      <c r="D23" s="4">
+      <c r="C23" s="3">
         <v>0.899</v>
       </c>
-      <c r="E23" s="4">
+      <c r="D23" s="3">
         <v>0.9062</v>
       </c>
-      <c r="F23" s="4">
+      <c r="E23" s="3">
         <v>0.9116</v>
       </c>
-      <c r="G23" s="4">
+      <c r="F23" s="3">
         <v>0.9133</v>
       </c>
-      <c r="H23" s="4">
+      <c r="G23" s="3">
         <v>0.9114</v>
       </c>
     </row>
-    <row r="24" ht="19.5" customHeight="1" spans="1:8">
+    <row r="24" ht="19.5" customHeight="1" spans="1:7">
       <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4">
         <v>0.7105</v>
       </c>
-      <c r="C24" s="4">
+      <c r="B24" s="3">
         <v>0.5801</v>
       </c>
-      <c r="D24" s="4">
+      <c r="C24" s="3">
         <v>0.8998</v>
       </c>
-      <c r="E24" s="4">
+      <c r="D24" s="3">
         <v>0.9086</v>
       </c>
-      <c r="F24" s="4">
+      <c r="E24" s="3">
         <v>0.9098</v>
       </c>
-      <c r="G24" s="4">
+      <c r="F24" s="3">
         <v>0.9116</v>
       </c>
-      <c r="H24" s="4">
+      <c r="G24" s="3">
         <v>0.9135</v>
       </c>
     </row>
-    <row r="25" ht="19.5" customHeight="1" spans="1:8">
+    <row r="25" ht="19.5" customHeight="1" spans="1:7">
       <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4">
         <v>0.7127</v>
       </c>
-      <c r="C25" s="4">
+      <c r="B25" s="3">
         <v>0.5782</v>
       </c>
-      <c r="D25" s="4">
+      <c r="C25" s="3">
         <v>0.9025</v>
       </c>
-      <c r="E25" s="4">
+      <c r="D25" s="3">
         <v>0.9101</v>
       </c>
-      <c r="F25" s="4">
+      <c r="E25" s="3">
         <v>0.9083</v>
       </c>
-      <c r="G25" s="4">
+      <c r="F25" s="3">
         <v>0.9103</v>
       </c>
-      <c r="H25" s="4">
+      <c r="G25" s="3">
         <v>0.9099</v>
       </c>
     </row>
-    <row r="26" ht="19.5" customHeight="1" spans="1:8">
+    <row r="26" ht="19.5" customHeight="1" spans="1:7">
       <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4">
         <v>0.6976</v>
       </c>
-      <c r="C26" s="4">
+      <c r="B26" s="3">
         <v>0.5907</v>
       </c>
-      <c r="D26" s="4">
+      <c r="C26" s="3">
         <v>0.9008</v>
       </c>
-      <c r="E26" s="4">
+      <c r="D26" s="3">
         <v>0.9095</v>
       </c>
-      <c r="F26" s="4">
+      <c r="E26" s="3">
         <v>0.9089</v>
       </c>
-      <c r="G26" s="4">
+      <c r="F26" s="3">
         <v>0.9109</v>
       </c>
-      <c r="H26" s="4">
+      <c r="G26" s="3">
         <v>0.9175</v>
       </c>
     </row>
-    <row r="27" ht="19.5" customHeight="1" spans="1:8">
+    <row r="27" ht="19.5" customHeight="1" spans="1:7">
       <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4">
         <v>0.7062</v>
       </c>
-      <c r="C27" s="4">
+      <c r="B27" s="3">
         <v>0.5924</v>
       </c>
-      <c r="D27" s="4">
+      <c r="C27" s="3">
         <v>0.9021</v>
       </c>
-      <c r="E27" s="4">
+      <c r="D27" s="3">
         <v>0.9086</v>
       </c>
-      <c r="F27" s="4">
+      <c r="E27" s="3">
         <v>0.9064</v>
       </c>
-      <c r="G27" s="4">
+      <c r="F27" s="3">
         <v>0.9098</v>
       </c>
-      <c r="H27" s="4">
+      <c r="G27" s="3">
         <v>0.9124</v>
       </c>
     </row>
-    <row r="28" ht="19.5" customHeight="1" spans="1:8">
+    <row r="28" ht="19.5" customHeight="1" spans="1:7">
       <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4">
         <v>0.7002</v>
       </c>
-      <c r="C28" s="4">
+      <c r="B28" s="3">
         <v>0.5901</v>
       </c>
-      <c r="D28" s="4">
+      <c r="C28" s="3">
         <v>0.9065</v>
       </c>
-      <c r="E28" s="4">
+      <c r="D28" s="3">
         <v>0.9077</v>
       </c>
-      <c r="F28" s="4">
+      <c r="E28" s="3">
         <v>0.9095</v>
       </c>
-      <c r="G28" s="4">
+      <c r="F28" s="3">
         <v>0.9131</v>
       </c>
-      <c r="H28" s="4">
+      <c r="G28" s="3">
         <v>0.9129</v>
       </c>
     </row>
-    <row r="29" ht="19.5" customHeight="1" spans="1:8">
+    <row r="29" ht="19.5" customHeight="1" spans="1:7">
       <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4">
         <v>0.6938</v>
       </c>
-      <c r="C29" s="4">
+      <c r="B29" s="3">
         <v>0.5922</v>
       </c>
-      <c r="D29" s="4">
+      <c r="C29" s="3">
         <v>0.8986</v>
       </c>
-      <c r="E29" s="4">
+      <c r="D29" s="3">
         <v>0.9092</v>
       </c>
-      <c r="F29" s="4">
+      <c r="E29" s="3">
         <v>0.9095</v>
       </c>
-      <c r="G29" s="4">
+      <c r="F29" s="3">
         <v>0.9101</v>
       </c>
-      <c r="H29" s="4">
+      <c r="G29" s="3">
         <v>0.9079</v>
       </c>
     </row>
-    <row r="30" ht="19.5" customHeight="1" spans="1:8">
+    <row r="30" ht="19.5" customHeight="1" spans="1:7">
       <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4">
         <v>0.7053</v>
       </c>
-      <c r="C30" s="4">
+      <c r="B30" s="3">
         <v>0.5901</v>
       </c>
-      <c r="D30" s="4">
+      <c r="C30" s="3">
         <v>0.8987</v>
       </c>
-      <c r="E30" s="4">
+      <c r="D30" s="3">
         <v>0.9111</v>
       </c>
-      <c r="F30" s="4">
+      <c r="E30" s="3">
         <v>0.9095</v>
       </c>
-      <c r="G30" s="4">
+      <c r="F30" s="3">
         <v>0.9141</v>
       </c>
-      <c r="H30" s="4">
+      <c r="G30" s="3">
         <v>0.9082</v>
       </c>
     </row>
-    <row r="31" ht="19.5" customHeight="1" spans="1:8">
+    <row r="31" ht="19.5" customHeight="1" spans="1:7">
       <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4">
         <v>0.7062</v>
       </c>
-      <c r="C31" s="4">
+      <c r="B31" s="3">
         <v>0.5902</v>
       </c>
-      <c r="D31" s="4">
+      <c r="C31" s="3">
         <v>0.9014</v>
       </c>
-      <c r="E31" s="4">
+      <c r="D31" s="3">
         <v>0.9067</v>
       </c>
-      <c r="F31" s="4">
+      <c r="E31" s="3">
         <v>0.9092</v>
       </c>
-      <c r="G31" s="4">
+      <c r="F31" s="3">
         <v>0.9107</v>
       </c>
-      <c r="H31" s="4">
+      <c r="G31" s="3">
         <v>0.909</v>
       </c>
     </row>
-    <row r="32" ht="19.5" customHeight="1" spans="1:8">
+    <row r="32" ht="19.5" customHeight="1" spans="1:7">
       <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4">
         <v>0.709</v>
       </c>
-      <c r="C32" s="4">
+      <c r="B32" s="3">
         <v>0.5829</v>
       </c>
-      <c r="D32" s="4">
+      <c r="C32" s="3">
         <v>0.9007</v>
       </c>
-      <c r="E32" s="4">
+      <c r="D32" s="3">
         <v>0.91</v>
       </c>
-      <c r="F32" s="4">
+      <c r="E32" s="3">
         <v>0.9012</v>
       </c>
-      <c r="G32" s="4">
+      <c r="F32" s="3">
         <v>0.9154</v>
       </c>
-      <c r="H32" s="4">
+      <c r="G32" s="3">
         <v>0.9166</v>
       </c>
     </row>
-    <row r="33" ht="19.5" customHeight="1" spans="1:8">
+    <row r="33" ht="19.5" customHeight="1" spans="1:7">
       <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4">
         <v>0.6894</v>
       </c>
-      <c r="C33" s="4">
+      <c r="B33" s="3">
         <v>0.5861</v>
       </c>
-      <c r="D33" s="4">
+      <c r="C33" s="3">
         <v>0.8938</v>
       </c>
-      <c r="E33" s="4">
+      <c r="D33" s="3">
         <v>0.9027</v>
       </c>
-      <c r="F33" s="4">
+      <c r="E33" s="3">
         <v>0.9016</v>
       </c>
-      <c r="G33" s="4">
+      <c r="F33" s="3">
         <v>0.9147</v>
       </c>
-      <c r="H33" s="4">
+      <c r="G33" s="3">
         <v>0.9117</v>
       </c>
     </row>
-    <row r="34" ht="19.5" customHeight="1" spans="1:8">
+    <row r="34" ht="19.5" customHeight="1" spans="1:7">
       <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4">
         <v>0.6964</v>
       </c>
-      <c r="C34" s="4">
+      <c r="B34" s="3">
         <v>0.594</v>
       </c>
-      <c r="D34" s="4">
+      <c r="C34" s="3">
         <v>0.8948</v>
       </c>
-      <c r="E34" s="4">
+      <c r="D34" s="3">
         <v>0.9039</v>
       </c>
-      <c r="F34" s="4">
+      <c r="E34" s="3">
         <v>0.902</v>
       </c>
-      <c r="G34" s="4">
+      <c r="F34" s="3">
         <v>0.9063</v>
       </c>
-      <c r="H34" s="4">
+      <c r="G34" s="3">
         <v>0.9068</v>
       </c>
     </row>
-    <row r="35" ht="19.5" customHeight="1" spans="1:8">
+    <row r="35" ht="19.5" customHeight="1" spans="1:7">
       <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4">
         <v>0.7043</v>
       </c>
-      <c r="C35" s="4">
+      <c r="B35" s="3">
         <v>0.5923</v>
       </c>
-      <c r="D35" s="4">
+      <c r="C35" s="3">
         <v>0.8952</v>
       </c>
-      <c r="E35" s="4">
+      <c r="D35" s="3">
         <v>0.9025</v>
       </c>
-      <c r="F35" s="4">
+      <c r="E35" s="3">
         <v>0.8997</v>
       </c>
-      <c r="G35" s="4">
+      <c r="F35" s="3">
         <v>0.9061</v>
       </c>
-      <c r="H35" s="4">
+      <c r="G35" s="3">
         <v>0.9073</v>
       </c>
     </row>
-    <row r="36" ht="19.5" customHeight="1" spans="1:8">
+    <row r="36" ht="19.5" customHeight="1" spans="1:7">
       <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4">
         <v>0.7077</v>
       </c>
-      <c r="C36" s="4">
+      <c r="B36" s="3">
         <v>0.5935</v>
       </c>
-      <c r="D36" s="4">
+      <c r="C36" s="3">
         <v>0.8941</v>
       </c>
-      <c r="E36" s="4">
+      <c r="D36" s="3">
         <v>0.9023</v>
       </c>
-      <c r="F36" s="4">
+      <c r="E36" s="3">
         <v>0.9013</v>
       </c>
-      <c r="G36" s="4">
+      <c r="F36" s="3">
         <v>0.9052</v>
       </c>
-      <c r="H36" s="4">
+      <c r="G36" s="3">
         <v>0.9141</v>
       </c>
     </row>
-    <row r="37" ht="19.5" customHeight="1" spans="1:8">
+    <row r="37" ht="19.5" customHeight="1" spans="1:7">
       <c r="A37" s="3">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4">
         <v>0.7108</v>
       </c>
-      <c r="C37" s="4">
+      <c r="B37" s="3">
         <v>0.5925</v>
       </c>
-      <c r="D37" s="4">
+      <c r="C37" s="3">
         <v>0.8931</v>
       </c>
-      <c r="E37" s="4">
+      <c r="D37" s="3">
         <v>0.9037</v>
       </c>
-      <c r="F37" s="4">
+      <c r="E37" s="3">
         <v>0.9066</v>
       </c>
-      <c r="G37" s="4">
+      <c r="F37" s="3">
         <v>0.9053</v>
       </c>
-      <c r="H37" s="4">
+      <c r="G37" s="3">
         <v>0.9103</v>
       </c>
     </row>
-    <row r="38" ht="19.5" customHeight="1" spans="1:8">
+    <row r="38" ht="19.5" customHeight="1" spans="1:7">
       <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4">
         <v>0.7029</v>
       </c>
-      <c r="C38" s="4">
+      <c r="B38" s="3">
         <v>0.5752</v>
       </c>
-      <c r="D38" s="4">
+      <c r="C38" s="3">
         <v>0.9009</v>
       </c>
-      <c r="E38" s="4">
+      <c r="D38" s="3">
         <v>0.9097</v>
       </c>
-      <c r="F38" s="4">
+      <c r="E38" s="3">
         <v>0.9076</v>
       </c>
-      <c r="G38" s="4">
+      <c r="F38" s="3">
         <v>0.9043</v>
       </c>
-      <c r="H38" s="4">
+      <c r="G38" s="3">
         <v>0.9046</v>
       </c>
     </row>
-    <row r="39" ht="19.5" customHeight="1" spans="1:8">
+    <row r="39" ht="19.5" customHeight="1" spans="1:7">
       <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4">
         <v>0.6958</v>
       </c>
-      <c r="C39" s="4">
+      <c r="B39" s="3">
         <v>0.5787</v>
       </c>
-      <c r="D39" s="4">
+      <c r="C39" s="3">
         <v>0.9013</v>
       </c>
-      <c r="E39" s="4">
+      <c r="D39" s="3">
         <v>0.9055</v>
       </c>
-      <c r="F39" s="4">
+      <c r="E39" s="3">
         <v>0.9069</v>
       </c>
-      <c r="G39" s="4">
+      <c r="F39" s="3">
         <v>0.9105</v>
       </c>
-      <c r="H39" s="4">
+      <c r="G39" s="3">
         <v>0.9141</v>
       </c>
     </row>
-    <row r="40" ht="19.5" customHeight="1" spans="1:8">
+    <row r="40" ht="19.5" customHeight="1" spans="1:7">
       <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4">
         <v>0.695</v>
       </c>
-      <c r="C40" s="4">
+      <c r="B40" s="3">
         <v>0.5743</v>
       </c>
-      <c r="D40" s="4">
+      <c r="C40" s="3">
         <v>0.9016</v>
       </c>
-      <c r="E40" s="4">
+      <c r="D40" s="3">
         <v>0.9092</v>
       </c>
-      <c r="F40" s="4">
+      <c r="E40" s="3">
         <v>0.9017</v>
       </c>
-      <c r="G40" s="4">
+      <c r="F40" s="3">
         <v>0.9112</v>
       </c>
-      <c r="H40" s="4">
+      <c r="G40" s="3">
         <v>0.9081</v>
       </c>
     </row>
-    <row r="41" ht="19.5" customHeight="1" spans="1:8">
+    <row r="41" ht="19.5" customHeight="1" spans="1:7">
       <c r="A41" s="3">
-        <v>39</v>
-      </c>
-      <c r="B41" s="4">
         <v>0.7044</v>
       </c>
-      <c r="C41" s="4">
+      <c r="B41" s="3">
         <v>0.574</v>
       </c>
-      <c r="D41" s="4">
+      <c r="C41" s="3">
         <v>0.8985</v>
       </c>
-      <c r="E41" s="4">
+      <c r="D41" s="3">
         <v>0.902</v>
       </c>
-      <c r="F41" s="4">
+      <c r="E41" s="3">
         <v>0.9088</v>
       </c>
-      <c r="G41" s="4">
+      <c r="F41" s="3">
         <v>0.9099</v>
       </c>
-      <c r="H41" s="4">
+      <c r="G41" s="3">
         <v>0.9135</v>
       </c>
     </row>
-    <row r="42" ht="19.5" customHeight="1" spans="1:8">
+    <row r="42" ht="19.5" customHeight="1" spans="1:7">
       <c r="A42" s="3">
-        <v>40</v>
-      </c>
-      <c r="B42" s="4">
         <v>0.6999</v>
       </c>
-      <c r="C42" s="4">
+      <c r="B42" s="3">
         <v>0.5763</v>
       </c>
-      <c r="D42" s="4">
+      <c r="C42" s="3">
         <v>0.8983</v>
       </c>
-      <c r="E42" s="4">
+      <c r="D42" s="3">
         <v>0.9084</v>
       </c>
-      <c r="F42" s="4">
+      <c r="E42" s="3">
         <v>0.9095</v>
       </c>
-      <c r="G42" s="4">
+      <c r="F42" s="3">
         <v>0.9091</v>
       </c>
-      <c r="H42" s="4">
+      <c r="G42" s="3">
         <v>0.9168</v>
       </c>
     </row>
-    <row r="43" ht="19.5" customHeight="1" spans="1:8">
+    <row r="43" ht="19.5" customHeight="1" spans="1:7">
       <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" s="4">
         <v>0.7001</v>
       </c>
-      <c r="C43" s="4">
+      <c r="B43" s="3">
         <v>0.5921</v>
       </c>
-      <c r="D43" s="4">
+      <c r="C43" s="3">
         <v>0.8974</v>
       </c>
-      <c r="E43" s="4">
+      <c r="D43" s="3">
         <v>0.909</v>
       </c>
-      <c r="F43" s="4">
+      <c r="E43" s="3">
         <v>0.9083</v>
       </c>
-      <c r="G43" s="4">
+      <c r="F43" s="3">
         <v>0.9089</v>
       </c>
-      <c r="H43" s="4">
+      <c r="G43" s="3">
         <v>0.9172</v>
       </c>
     </row>
-    <row r="44" ht="19.5" customHeight="1" spans="1:8">
+    <row r="44" ht="19.5" customHeight="1" spans="1:7">
       <c r="A44" s="3">
-        <v>42</v>
-      </c>
-      <c r="B44" s="4">
         <v>0.6958</v>
       </c>
-      <c r="C44" s="4">
+      <c r="B44" s="3">
         <v>0.5898</v>
       </c>
-      <c r="D44" s="4">
+      <c r="C44" s="3">
         <v>0.8911</v>
       </c>
-      <c r="E44" s="4">
+      <c r="D44" s="3">
         <v>0.9084</v>
       </c>
-      <c r="F44" s="4">
+      <c r="E44" s="3">
         <v>0.9113</v>
       </c>
-      <c r="G44" s="4">
+      <c r="F44" s="3">
         <v>0.9149</v>
       </c>
-      <c r="H44" s="4">
+      <c r="G44" s="3">
         <v>0.9122</v>
       </c>
     </row>
-    <row r="45" ht="19.5" customHeight="1" spans="1:8">
+    <row r="45" ht="19.5" customHeight="1" spans="1:7">
       <c r="A45" s="3">
-        <v>43</v>
-      </c>
-      <c r="B45" s="4">
         <v>0.7005</v>
       </c>
-      <c r="C45" s="4">
+      <c r="B45" s="3">
         <v>0.591</v>
       </c>
-      <c r="D45" s="4">
+      <c r="C45" s="3">
         <v>0.9028</v>
       </c>
-      <c r="E45" s="4">
+      <c r="D45" s="3">
         <v>0.9119</v>
       </c>
-      <c r="F45" s="4">
+      <c r="E45" s="3">
         <v>0.91</v>
       </c>
-      <c r="G45" s="4">
+      <c r="F45" s="3">
         <v>0.9085</v>
       </c>
-      <c r="H45" s="4">
+      <c r="G45" s="3">
         <v>0.9139</v>
       </c>
     </row>
-    <row r="46" ht="19.5" customHeight="1" spans="1:8">
+    <row r="46" ht="19.5" customHeight="1" spans="1:7">
       <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" s="4">
         <v>0.7</v>
       </c>
-      <c r="C46" s="4">
+      <c r="B46" s="3">
         <v>0.5906</v>
       </c>
-      <c r="D46" s="4">
+      <c r="C46" s="3">
         <v>0.8995</v>
       </c>
-      <c r="E46" s="4">
+      <c r="D46" s="3">
         <v>0.91</v>
       </c>
-      <c r="F46" s="4">
+      <c r="E46" s="3">
         <v>0.9077</v>
       </c>
-      <c r="G46" s="4">
+      <c r="F46" s="3">
         <v>0.9131</v>
       </c>
-      <c r="H46" s="4">
+      <c r="G46" s="3">
         <v>0.9144</v>
       </c>
     </row>
-    <row r="47" ht="19.5" customHeight="1" spans="1:8">
+    <row r="47" ht="19.5" customHeight="1" spans="1:7">
       <c r="A47" s="3">
-        <v>45</v>
-      </c>
-      <c r="B47" s="4">
         <v>0.6995</v>
       </c>
-      <c r="C47" s="4">
+      <c r="B47" s="3">
         <v>0.5729</v>
       </c>
-      <c r="D47" s="4">
+      <c r="C47" s="3">
         <v>0.8981</v>
       </c>
-      <c r="E47" s="4">
+      <c r="D47" s="3">
         <v>0.901</v>
       </c>
-      <c r="F47" s="4">
+      <c r="E47" s="3">
         <v>0.9086</v>
       </c>
-      <c r="G47" s="4">
+      <c r="F47" s="3">
         <v>0.9119</v>
       </c>
-      <c r="H47" s="4">
+      <c r="G47" s="3">
         <v>0.9106</v>
       </c>
     </row>
-    <row r="48" ht="19.5" customHeight="1" spans="1:8">
+    <row r="48" ht="19.5" customHeight="1" spans="1:7">
       <c r="A48" s="3">
-        <v>46</v>
-      </c>
-      <c r="B48" s="4">
         <v>0.6927</v>
       </c>
-      <c r="C48" s="4">
+      <c r="B48" s="3">
         <v>0.5866</v>
       </c>
-      <c r="D48" s="4">
+      <c r="C48" s="3">
         <v>0.8983</v>
       </c>
-      <c r="E48" s="4">
+      <c r="D48" s="3">
         <v>0.9076</v>
       </c>
-      <c r="F48" s="4">
+      <c r="E48" s="3">
         <v>0.9078</v>
       </c>
-      <c r="G48" s="4">
+      <c r="F48" s="3">
         <v>0.9123</v>
       </c>
-      <c r="H48" s="4">
+      <c r="G48" s="3">
         <v>0.9124</v>
       </c>
     </row>
-    <row r="49" ht="19.5" customHeight="1" spans="1:8">
+    <row r="49" ht="19.5" customHeight="1" spans="1:7">
       <c r="A49" s="3">
-        <v>47</v>
-      </c>
-      <c r="B49" s="4">
         <v>0.6963</v>
       </c>
-      <c r="C49" s="4">
+      <c r="B49" s="3">
         <v>0.5874</v>
       </c>
-      <c r="D49" s="4">
+      <c r="C49" s="3">
         <v>0.897</v>
       </c>
-      <c r="E49" s="4">
+      <c r="D49" s="3">
         <v>0.9077</v>
       </c>
-      <c r="F49" s="4">
+      <c r="E49" s="3">
         <v>0.9059</v>
       </c>
-      <c r="G49" s="4">
+      <c r="F49" s="3">
         <v>0.9101</v>
       </c>
-      <c r="H49" s="4">
+      <c r="G49" s="3">
         <v>0.9155</v>
       </c>
     </row>
-    <row r="50" ht="19.5" customHeight="1" spans="1:8">
+    <row r="50" ht="19.5" customHeight="1" spans="1:7">
       <c r="A50" s="3">
-        <v>48</v>
-      </c>
-      <c r="B50" s="4">
         <v>0.6981</v>
       </c>
-      <c r="C50" s="4">
+      <c r="B50" s="3">
         <v>0.5799</v>
       </c>
-      <c r="D50" s="4">
+      <c r="C50" s="3">
         <v>0.8999</v>
       </c>
-      <c r="E50" s="4">
+      <c r="D50" s="3">
         <v>0.908</v>
       </c>
-      <c r="F50" s="4">
+      <c r="E50" s="3">
         <v>0.906</v>
       </c>
-      <c r="G50" s="4">
+      <c r="F50" s="3">
         <v>0.9131</v>
       </c>
-      <c r="H50" s="4">
+      <c r="G50" s="3">
         <v>0.9133</v>
       </c>
     </row>
-    <row r="51" ht="19.5" customHeight="1" spans="1:8">
+    <row r="51" ht="19.5" customHeight="1" spans="1:7">
       <c r="A51" s="3">
-        <v>49</v>
-      </c>
-      <c r="B51" s="4">
         <v>0.6888</v>
       </c>
-      <c r="C51" s="4">
+      <c r="B51" s="3">
         <v>0.5781</v>
       </c>
-      <c r="D51" s="4">
+      <c r="C51" s="3">
         <v>0.8993</v>
       </c>
-      <c r="E51" s="4">
+      <c r="D51" s="3">
         <v>0.9064</v>
       </c>
-      <c r="F51" s="4">
+      <c r="E51" s="3">
         <v>0.9052</v>
       </c>
-      <c r="G51" s="4">
+      <c r="F51" s="3">
         <v>0.9096</v>
       </c>
-      <c r="H51" s="4">
+      <c r="G51" s="3">
         <v>0.913</v>
       </c>
     </row>
-    <row r="52" ht="19.5" customHeight="1" spans="1:8">
+    <row r="52" ht="19.5" customHeight="1" spans="1:7">
       <c r="A52" s="3">
-        <v>50</v>
-      </c>
-      <c r="B52" s="4">
         <v>0.6941</v>
       </c>
-      <c r="C52" s="4">
+      <c r="B52" s="3">
         <v>0.5734</v>
       </c>
-      <c r="D52" s="4">
+      <c r="C52" s="3">
         <v>0.8978</v>
       </c>
-      <c r="E52" s="4">
+      <c r="D52" s="3">
         <v>0.9068</v>
       </c>
-      <c r="F52" s="4">
+      <c r="E52" s="3">
         <v>0.9076</v>
       </c>
-      <c r="G52" s="4">
+      <c r="F52" s="3">
         <v>0.9132</v>
       </c>
-      <c r="H52" s="4">
+      <c r="G52" s="3">
         <v>0.9015</v>
       </c>
     </row>
-    <row r="53" ht="19.5" customHeight="1" spans="1:8">
+    <row r="53" ht="19.5" customHeight="1" spans="1:7">
       <c r="A53" s="3">
-        <v>51</v>
-      </c>
-      <c r="B53" s="4">
         <v>0.6917</v>
       </c>
-      <c r="C53" s="4">
+      <c r="B53" s="3">
         <v>0.5767</v>
       </c>
-      <c r="D53" s="4">
+      <c r="C53" s="3">
         <v>0.8964</v>
       </c>
-      <c r="E53" s="4">
+      <c r="D53" s="3">
         <v>0.9051</v>
       </c>
-      <c r="F53" s="4">
+      <c r="E53" s="3">
         <v>0.9051</v>
       </c>
-      <c r="G53" s="4">
+      <c r="F53" s="3">
         <v>0.9109</v>
       </c>
-      <c r="H53" s="4">
+      <c r="G53" s="3">
         <v>0.9123</v>
       </c>
     </row>
-    <row r="54" ht="19.5" customHeight="1" spans="1:8">
+    <row r="54" ht="19.5" customHeight="1" spans="1:7">
       <c r="A54" s="3">
-        <v>52</v>
-      </c>
-      <c r="B54" s="4">
         <v>0.6969</v>
       </c>
-      <c r="C54" s="4">
+      <c r="B54" s="3">
         <v>0.5841</v>
       </c>
-      <c r="D54" s="4">
+      <c r="C54" s="3">
         <v>0.8985</v>
       </c>
-      <c r="E54" s="4">
+      <c r="D54" s="3">
         <v>0.9045</v>
       </c>
-      <c r="F54" s="4">
+      <c r="E54" s="3">
         <v>0.9063</v>
       </c>
-      <c r="G54" s="4">
+      <c r="F54" s="3">
         <v>0.9099</v>
       </c>
-      <c r="H54" s="4">
+      <c r="G54" s="3">
         <v>0.9162</v>
       </c>
     </row>
-    <row r="55" ht="19.5" customHeight="1" spans="1:8">
+    <row r="55" ht="19.5" customHeight="1" spans="1:7">
       <c r="A55" s="3">
-        <v>53</v>
-      </c>
-      <c r="B55" s="4">
         <v>0.6939</v>
       </c>
-      <c r="C55" s="4">
+      <c r="B55" s="3">
         <v>0.5727</v>
       </c>
-      <c r="D55" s="4">
+      <c r="C55" s="3">
         <v>0.8976</v>
       </c>
-      <c r="E55" s="4">
+      <c r="D55" s="3">
         <v>0.9079</v>
       </c>
-      <c r="F55" s="4">
+      <c r="E55" s="3">
         <v>0.9084</v>
       </c>
-      <c r="G55" s="4">
+      <c r="F55" s="3">
         <v>0.9095</v>
       </c>
-      <c r="H55" s="4">
+      <c r="G55" s="3">
         <v>0.9133</v>
       </c>
     </row>
-    <row r="56" ht="19.5" customHeight="1" spans="1:8">
+    <row r="56" ht="19.5" customHeight="1" spans="1:7">
       <c r="A56" s="3">
-        <v>54</v>
-      </c>
-      <c r="B56" s="4">
         <v>0.6874</v>
       </c>
-      <c r="C56" s="4">
+      <c r="B56" s="3">
         <v>0.5634</v>
       </c>
-      <c r="D56" s="4">
+      <c r="C56" s="3">
         <v>0.8973</v>
       </c>
-      <c r="E56" s="4">
+      <c r="D56" s="3">
         <v>0.9043</v>
       </c>
-      <c r="F56" s="4">
+      <c r="E56" s="3">
         <v>0.905</v>
       </c>
-      <c r="G56" s="4">
+      <c r="F56" s="3">
         <v>0.9078</v>
       </c>
-      <c r="H56" s="4">
+      <c r="G56" s="3">
         <v>0.9104</v>
       </c>
     </row>
-    <row r="57" ht="19.5" customHeight="1" spans="1:8">
+    <row r="57" ht="19.5" customHeight="1" spans="1:7">
       <c r="A57" s="3">
-        <v>55</v>
-      </c>
-      <c r="B57" s="4">
         <v>0.6846</v>
       </c>
-      <c r="C57" s="4">
+      <c r="B57" s="3">
         <v>0.5686</v>
       </c>
-      <c r="D57" s="4">
+      <c r="C57" s="3">
         <v>0.896</v>
       </c>
-      <c r="E57" s="4">
+      <c r="D57" s="3">
         <v>0.9041</v>
       </c>
-      <c r="F57" s="4">
+      <c r="E57" s="3">
         <v>0.9049</v>
       </c>
-      <c r="G57" s="4">
+      <c r="F57" s="3">
         <v>0.9071</v>
       </c>
-      <c r="H57" s="4">
+      <c r="G57" s="3">
         <v>0.9131</v>
       </c>
     </row>
-    <row r="58" ht="19.5" customHeight="1" spans="1:8">
+    <row r="58" ht="19.5" customHeight="1" spans="1:7">
       <c r="A58" s="3">
-        <v>56</v>
-      </c>
-      <c r="B58" s="4">
         <v>0.6857</v>
       </c>
-      <c r="C58" s="4">
+      <c r="B58" s="3">
         <v>0.5811</v>
       </c>
-      <c r="D58" s="4">
+      <c r="C58" s="3">
         <v>0.8979</v>
       </c>
-      <c r="E58" s="4">
+      <c r="D58" s="3">
         <v>0.904</v>
       </c>
-      <c r="F58" s="4">
+      <c r="E58" s="3">
         <v>0.9053</v>
       </c>
-      <c r="G58" s="4">
+      <c r="F58" s="3">
         <v>0.9131</v>
       </c>
-      <c r="H58" s="4">
+      <c r="G58" s="3">
         <v>0.9118</v>
       </c>
     </row>
-    <row r="59" ht="19.5" customHeight="1" spans="1:8">
+    <row r="59" ht="19.5" customHeight="1" spans="1:7">
       <c r="A59" s="3">
-        <v>57</v>
-      </c>
-      <c r="B59" s="4">
         <v>0.6831</v>
       </c>
-      <c r="C59" s="4">
+      <c r="B59" s="3">
         <v>0.5801</v>
       </c>
-      <c r="D59" s="4">
+      <c r="C59" s="3">
         <v>0.8984</v>
       </c>
-      <c r="E59" s="4">
+      <c r="D59" s="3">
         <v>0.9034</v>
       </c>
-      <c r="F59" s="4">
+      <c r="E59" s="3">
         <v>0.9061</v>
       </c>
-      <c r="G59" s="4">
+      <c r="F59" s="3">
         <v>0.9079</v>
       </c>
-      <c r="H59" s="4">
+      <c r="G59" s="3">
         <v>0.9107</v>
       </c>
     </row>
-    <row r="60" ht="19.5" customHeight="1" spans="1:8">
+    <row r="60" ht="19.5" customHeight="1" spans="1:7">
       <c r="A60" s="3">
-        <v>58</v>
-      </c>
-      <c r="B60" s="4">
         <v>0.6816</v>
       </c>
-      <c r="C60" s="4">
+      <c r="B60" s="3">
         <v>0.573</v>
       </c>
-      <c r="D60" s="4">
+      <c r="C60" s="3">
         <v>0.8976</v>
       </c>
-      <c r="E60" s="4">
+      <c r="D60" s="3">
         <v>0.9063</v>
       </c>
-      <c r="F60" s="4">
+      <c r="E60" s="3">
         <v>0.906</v>
       </c>
-      <c r="G60" s="4">
+      <c r="F60" s="3">
         <v>0.9078</v>
       </c>
-      <c r="H60" s="4">
+      <c r="G60" s="3">
         <v>0.9117</v>
       </c>
     </row>
-    <row r="61" ht="19.5" customHeight="1" spans="1:8">
+    <row r="61" ht="19.5" customHeight="1" spans="1:7">
       <c r="A61" s="3">
-        <v>59</v>
-      </c>
-      <c r="B61" s="4">
         <v>0.6897</v>
       </c>
-      <c r="C61" s="4">
+      <c r="B61" s="3">
         <v>0.569</v>
       </c>
-      <c r="D61" s="4">
+      <c r="C61" s="3">
         <v>0.8953</v>
       </c>
-      <c r="E61" s="4">
+      <c r="D61" s="3">
         <v>0.9055</v>
       </c>
-      <c r="F61" s="4">
+      <c r="E61" s="3">
         <v>0.9051</v>
       </c>
-      <c r="G61" s="4">
+      <c r="F61" s="3">
         <v>0.9076</v>
       </c>
-      <c r="H61" s="4">
+      <c r="G61" s="3">
         <v>0.9128</v>
       </c>
     </row>
-    <row r="62" ht="19.5" customHeight="1" spans="1:8">
+    <row r="62" ht="19.5" customHeight="1" spans="1:7">
       <c r="A62" s="3">
-        <v>60</v>
-      </c>
-      <c r="B62" s="4">
         <v>0.6829</v>
       </c>
-      <c r="C62" s="4">
+      <c r="B62" s="3">
         <v>0.5712</v>
       </c>
-      <c r="D62" s="4">
+      <c r="C62" s="3">
         <v>0.8958</v>
       </c>
-      <c r="E62" s="4">
+      <c r="D62" s="3">
         <v>0.9057</v>
       </c>
-      <c r="F62" s="4">
+      <c r="E62" s="3">
         <v>0.9044</v>
       </c>
-      <c r="G62" s="4">
+      <c r="F62" s="3">
         <v>0.9112</v>
       </c>
-      <c r="H62" s="4">
+      <c r="G62" s="3">
         <v>0.9118</v>
       </c>
     </row>
-    <row r="63" ht="19.5" customHeight="1" spans="1:8">
+    <row r="63" ht="19.5" customHeight="1" spans="1:7">
       <c r="A63" s="3">
-        <v>61</v>
-      </c>
-      <c r="B63" s="4">
         <v>0.6729</v>
       </c>
-      <c r="C63" s="4">
+      <c r="B63" s="3">
         <v>0.5767</v>
       </c>
-      <c r="D63" s="4">
+      <c r="C63" s="3">
         <v>0.8988</v>
       </c>
-      <c r="E63" s="4">
+      <c r="D63" s="3">
         <v>0.9083</v>
       </c>
-      <c r="F63" s="4">
+      <c r="E63" s="3">
         <v>0.9052</v>
       </c>
-      <c r="G63" s="4">
+      <c r="F63" s="3">
         <v>0.9087</v>
       </c>
-      <c r="H63" s="4">
+      <c r="G63" s="3">
         <v>0.9143</v>
       </c>
     </row>
-    <row r="64" ht="19.5" customHeight="1" spans="1:8">
+    <row r="64" ht="19.5" customHeight="1" spans="1:7">
       <c r="A64" s="3">
-        <v>62</v>
-      </c>
-      <c r="B64" s="4">
         <v>0.6771</v>
       </c>
-      <c r="C64" s="4">
+      <c r="B64" s="3">
         <v>0.5744</v>
       </c>
-      <c r="D64" s="4">
+      <c r="C64" s="3">
         <v>0.8928</v>
       </c>
-      <c r="E64" s="4">
+      <c r="D64" s="3">
         <v>0.908</v>
       </c>
-      <c r="F64" s="4">
+      <c r="E64" s="3">
         <v>0.9068</v>
       </c>
-      <c r="G64" s="4">
+      <c r="F64" s="3">
         <v>0.9087</v>
       </c>
-      <c r="H64" s="4">
+      <c r="G64" s="3">
         <v>0.9081</v>
       </c>
     </row>
-    <row r="65" ht="19.5" customHeight="1" spans="1:8">
+    <row r="65" ht="19.5" customHeight="1" spans="1:7">
       <c r="A65" s="3">
-        <v>63</v>
-      </c>
-      <c r="B65" s="4">
         <v>0.6792</v>
       </c>
-      <c r="C65" s="4">
+      <c r="B65" s="3">
         <v>0.5702</v>
       </c>
-      <c r="D65" s="4">
+      <c r="C65" s="3">
         <v>0.8955</v>
       </c>
-      <c r="E65" s="4">
+      <c r="D65" s="3">
         <v>0.9066</v>
       </c>
-      <c r="F65" s="4">
+      <c r="E65" s="3">
         <v>0.9065</v>
       </c>
-      <c r="G65" s="4">
+      <c r="F65" s="3">
         <v>0.9064</v>
       </c>
-      <c r="H65" s="4">
+      <c r="G65" s="3">
         <v>0.9086</v>
       </c>
     </row>
-    <row r="66" ht="19.5" customHeight="1" spans="1:8">
+    <row r="66" ht="19.5" customHeight="1" spans="1:7">
       <c r="A66" s="3">
-        <v>64</v>
-      </c>
-      <c r="B66" s="4">
         <v>0.676</v>
       </c>
-      <c r="C66" s="4">
+      <c r="B66" s="3">
         <v>0.5745</v>
       </c>
-      <c r="D66" s="4">
+      <c r="C66" s="3">
         <v>0.8959</v>
       </c>
-      <c r="E66" s="4">
+      <c r="D66" s="3">
         <v>0.9053</v>
       </c>
-      <c r="F66" s="4">
+      <c r="E66" s="3">
         <v>0.9038</v>
       </c>
-      <c r="G66" s="4">
+      <c r="F66" s="3">
         <v>0.9104</v>
       </c>
-      <c r="H66" s="4">
+      <c r="G66" s="3">
         <v>0.9112</v>
       </c>
     </row>
-    <row r="67" ht="19.5" customHeight="1" spans="1:8">
+    <row r="67" ht="19.5" customHeight="1" spans="1:7">
       <c r="A67" s="3">
-        <v>65</v>
-      </c>
-      <c r="B67" s="4">
         <v>0.6831</v>
       </c>
-      <c r="C67" s="4">
+      <c r="B67" s="3">
         <v>0.5528</v>
       </c>
-      <c r="D67" s="4">
+      <c r="C67" s="3">
         <v>0.8979</v>
       </c>
-      <c r="E67" s="4">
+      <c r="D67" s="3">
         <v>0.9065</v>
       </c>
-      <c r="F67" s="4">
+      <c r="E67" s="3">
         <v>0.904</v>
       </c>
-      <c r="G67" s="4">
+      <c r="F67" s="3">
         <v>0.9097</v>
       </c>
-      <c r="H67" s="4">
+      <c r="G67" s="3">
         <v>0.9143</v>
       </c>
     </row>
-    <row r="68" ht="19.5" customHeight="1" spans="1:8">
+    <row r="68" ht="19.5" customHeight="1" spans="1:7">
       <c r="A68" s="3">
-        <v>66</v>
-      </c>
-      <c r="B68" s="4">
         <v>0.6723</v>
       </c>
-      <c r="C68" s="4">
+      <c r="B68" s="3">
         <v>0.5763</v>
       </c>
-      <c r="D68" s="4">
+      <c r="C68" s="3">
         <v>0.8976</v>
       </c>
-      <c r="E68" s="4">
+      <c r="D68" s="3">
         <v>0.9031</v>
       </c>
-      <c r="F68" s="4">
+      <c r="E68" s="3">
         <v>0.9055</v>
       </c>
-      <c r="G68" s="4">
+      <c r="F68" s="3">
         <v>0.9104</v>
       </c>
-      <c r="H68" s="4">
+      <c r="G68" s="3">
         <v>0.9123</v>
       </c>
     </row>
-    <row r="69" ht="19.5" customHeight="1" spans="1:8">
+    <row r="69" ht="19.5" customHeight="1" spans="1:7">
       <c r="A69" s="3">
-        <v>67</v>
-      </c>
-      <c r="B69" s="4">
         <v>0.6751</v>
       </c>
-      <c r="C69" s="4">
+      <c r="B69" s="3">
         <v>0.5653</v>
       </c>
-      <c r="D69" s="4">
+      <c r="C69" s="3">
         <v>0.8963</v>
       </c>
-      <c r="E69" s="4">
+      <c r="D69" s="3">
         <v>0.9085</v>
       </c>
-      <c r="F69" s="4">
+      <c r="E69" s="3">
         <v>0.9054</v>
       </c>
-      <c r="G69" s="4">
+      <c r="F69" s="3">
         <v>0.9067</v>
       </c>
-      <c r="H69" s="4">
+      <c r="G69" s="3">
         <v>0.9119</v>
       </c>
     </row>
-    <row r="70" ht="19.5" customHeight="1" spans="1:8">
+    <row r="70" ht="19.5" customHeight="1" spans="1:7">
       <c r="A70" s="3">
-        <v>68</v>
-      </c>
-      <c r="B70" s="4">
         <v>0.6752</v>
       </c>
-      <c r="C70" s="4">
+      <c r="B70" s="3">
         <v>0.5652</v>
       </c>
-      <c r="D70" s="4">
+      <c r="C70" s="3">
         <v>0.8982</v>
       </c>
-      <c r="E70" s="4">
+      <c r="D70" s="3">
         <v>0.9026</v>
       </c>
-      <c r="F70" s="4">
+      <c r="E70" s="3">
         <v>0.9062</v>
       </c>
-      <c r="G70" s="4">
+      <c r="F70" s="3">
         <v>0.9083</v>
       </c>
-      <c r="H70" s="4">
+      <c r="G70" s="3">
         <v>0.9153</v>
       </c>
     </row>
-    <row r="71" ht="19.5" customHeight="1" spans="1:8">
+    <row r="71" ht="19.5" customHeight="1" spans="1:7">
       <c r="A71" s="3">
-        <v>69</v>
-      </c>
-      <c r="B71" s="4">
         <v>0.6764</v>
       </c>
-      <c r="C71" s="4">
+      <c r="B71" s="3">
         <v>0.5715</v>
       </c>
-      <c r="D71" s="4">
+      <c r="C71" s="3">
         <v>0.8995</v>
       </c>
-      <c r="E71" s="4">
+      <c r="D71" s="3">
         <v>0.904</v>
       </c>
-      <c r="F71" s="4">
+      <c r="E71" s="3">
         <v>0.9053</v>
       </c>
-      <c r="G71" s="4">
+      <c r="F71" s="3">
         <v>0.9109</v>
       </c>
-      <c r="H71" s="4">
+      <c r="G71" s="3">
         <v>0.9107</v>
       </c>
     </row>
-    <row r="72" ht="19.5" customHeight="1" spans="1:8">
+    <row r="72" ht="19.5" customHeight="1" spans="1:7">
       <c r="A72" s="3">
-        <v>70</v>
-      </c>
-      <c r="B72" s="4">
         <v>0.6694</v>
       </c>
-      <c r="C72" s="4">
+      <c r="B72" s="3">
         <v>0.5703</v>
       </c>
-      <c r="D72" s="4">
+      <c r="C72" s="3">
         <v>0.8936</v>
       </c>
-      <c r="E72" s="4">
+      <c r="D72" s="3">
         <v>0.906</v>
       </c>
-      <c r="F72" s="4">
+      <c r="E72" s="3">
         <v>0.9073</v>
       </c>
-      <c r="G72" s="4">
+      <c r="F72" s="3">
         <v>0.9157</v>
       </c>
-      <c r="H72" s="4">
+      <c r="G72" s="3">
         <v>0.9069</v>
       </c>
     </row>
-    <row r="73" ht="19.5" customHeight="1" spans="1:8">
+    <row r="73" ht="19.5" customHeight="1" spans="1:7">
       <c r="A73" s="3">
-        <v>71</v>
-      </c>
-      <c r="B73" s="4">
         <v>0.6695</v>
       </c>
-      <c r="C73" s="4">
+      <c r="B73" s="3">
         <v>0.5579</v>
       </c>
-      <c r="D73" s="4">
+      <c r="C73" s="3">
         <v>0.8956</v>
       </c>
-      <c r="E73" s="4">
+      <c r="D73" s="3">
         <v>0.9063</v>
       </c>
-      <c r="F73" s="4">
+      <c r="E73" s="3">
         <v>0.9064</v>
       </c>
-      <c r="G73" s="4">
+      <c r="F73" s="3">
         <v>0.9114</v>
       </c>
-      <c r="H73" s="4">
+      <c r="G73" s="3">
         <v>0.9086</v>
       </c>
     </row>
-    <row r="74" ht="19.5" customHeight="1" spans="1:8">
+    <row r="74" ht="19.5" customHeight="1" spans="1:7">
       <c r="A74" s="3">
-        <v>72</v>
-      </c>
-      <c r="B74" s="4">
         <v>0.6665</v>
       </c>
-      <c r="C74" s="4">
+      <c r="B74" s="3">
         <v>0.5644</v>
       </c>
-      <c r="D74" s="4">
+      <c r="C74" s="3">
         <v>0.8947</v>
       </c>
-      <c r="E74" s="4">
+      <c r="D74" s="3">
         <v>0.9029</v>
       </c>
-      <c r="F74" s="4">
+      <c r="E74" s="3">
         <v>0.9066</v>
       </c>
-      <c r="G74" s="4">
+      <c r="F74" s="3">
         <v>0.9102</v>
       </c>
-      <c r="H74" s="4">
+      <c r="G74" s="3">
         <v>0.9101</v>
       </c>
     </row>
-    <row r="75" ht="19.5" customHeight="1" spans="1:8">
+    <row r="75" ht="19.5" customHeight="1" spans="1:7">
       <c r="A75" s="3">
-        <v>73</v>
-      </c>
-      <c r="B75" s="4">
         <v>0.6704</v>
       </c>
-      <c r="C75" s="4">
+      <c r="B75" s="3">
         <v>0.5719</v>
       </c>
-      <c r="D75" s="4">
+      <c r="C75" s="3">
         <v>0.8967</v>
       </c>
-      <c r="E75" s="4">
+      <c r="D75" s="3">
         <v>0.9024</v>
       </c>
-      <c r="F75" s="4">
+      <c r="E75" s="3">
         <v>0.9065</v>
       </c>
-      <c r="G75" s="4">
+      <c r="F75" s="3">
         <v>0.9093</v>
       </c>
-      <c r="H75" s="4">
+      <c r="G75" s="3">
         <v>0.912</v>
       </c>
     </row>
-    <row r="76" ht="19.5" customHeight="1" spans="1:8">
+    <row r="76" ht="19.5" customHeight="1" spans="1:7">
       <c r="A76" s="3">
-        <v>74</v>
-      </c>
-      <c r="B76" s="4">
         <v>0.6741</v>
       </c>
-      <c r="C76" s="4">
+      <c r="B76" s="3">
         <v>0.5645</v>
       </c>
-      <c r="D76" s="4">
+      <c r="C76" s="3">
         <v>0.8915</v>
       </c>
-      <c r="E76" s="4">
+      <c r="D76" s="3">
         <v>0.904</v>
       </c>
-      <c r="F76" s="4">
+      <c r="E76" s="3">
         <v>0.9052</v>
       </c>
-      <c r="G76" s="4">
+      <c r="F76" s="3">
         <v>0.9064</v>
       </c>
-      <c r="H76" s="4">
+      <c r="G76" s="3">
         <v>0.9127</v>
       </c>
     </row>
-    <row r="77" ht="19.5" customHeight="1" spans="1:8">
+    <row r="77" ht="19.5" customHeight="1" spans="1:7">
       <c r="A77" s="3">
-        <v>75</v>
-      </c>
-      <c r="B77" s="4">
         <v>0.67</v>
       </c>
-      <c r="C77" s="4">
+      <c r="B77" s="3">
         <v>0.5702</v>
       </c>
-      <c r="D77" s="4">
+      <c r="C77" s="3">
         <v>0.8984</v>
       </c>
-      <c r="E77" s="4">
+      <c r="D77" s="3">
         <v>0.9054</v>
       </c>
-      <c r="F77" s="4">
+      <c r="E77" s="3">
         <v>0.9067</v>
       </c>
-      <c r="G77" s="4">
+      <c r="F77" s="3">
         <v>0.9084</v>
       </c>
-      <c r="H77" s="4">
+      <c r="G77" s="3">
         <v>0.9082</v>
       </c>
     </row>
-    <row r="78" ht="19.5" customHeight="1" spans="1:8">
+    <row r="78" ht="19.5" customHeight="1" spans="1:7">
       <c r="A78" s="3">
-        <v>76</v>
-      </c>
-      <c r="B78" s="4">
         <v>0.6705</v>
       </c>
-      <c r="C78" s="4">
+      <c r="B78" s="3">
         <v>0.5621</v>
       </c>
-      <c r="D78" s="4">
+      <c r="C78" s="3">
         <v>0.8946</v>
       </c>
-      <c r="E78" s="4">
+      <c r="D78" s="3">
         <v>0.9058</v>
       </c>
-      <c r="F78" s="4">
+      <c r="E78" s="3">
         <v>0.9048</v>
       </c>
-      <c r="G78" s="4">
+      <c r="F78" s="3">
         <v>0.9049</v>
       </c>
-      <c r="H78" s="4">
+      <c r="G78" s="3">
         <v>0.9147</v>
       </c>
     </row>
-    <row r="79" ht="19.5" customHeight="1" spans="1:8">
+    <row r="79" ht="19.5" customHeight="1" spans="1:7">
       <c r="A79" s="3">
-        <v>77</v>
-      </c>
-      <c r="B79" s="4">
         <v>0.6689</v>
       </c>
-      <c r="C79" s="4">
+      <c r="B79" s="3">
         <v>0.5704</v>
       </c>
-      <c r="D79" s="4">
+      <c r="C79" s="3">
         <v>0.896</v>
       </c>
-      <c r="E79" s="4">
+      <c r="D79" s="3">
         <v>0.9095</v>
       </c>
-      <c r="F79" s="4">
+      <c r="E79" s="3">
         <v>0.9055</v>
       </c>
-      <c r="G79" s="4">
+      <c r="F79" s="3">
         <v>0.9062</v>
       </c>
-      <c r="H79" s="4">
+      <c r="G79" s="3">
         <v>0.9138</v>
       </c>
     </row>
-    <row r="80" ht="19.5" customHeight="1" spans="1:8">
+    <row r="80" ht="19.5" customHeight="1" spans="1:7">
       <c r="A80" s="3">
-        <v>78</v>
-      </c>
-      <c r="B80" s="4">
         <v>0.6655</v>
       </c>
-      <c r="C80" s="4">
+      <c r="B80" s="3">
         <v>0.5643</v>
       </c>
-      <c r="D80" s="4">
+      <c r="C80" s="3">
         <v>0.8939</v>
       </c>
-      <c r="E80" s="4">
+      <c r="D80" s="3">
         <v>0.9053</v>
       </c>
-      <c r="F80" s="4">
+      <c r="E80" s="3">
         <v>0.9038</v>
       </c>
-      <c r="G80" s="4">
+      <c r="F80" s="3">
         <v>0.91</v>
       </c>
-      <c r="H80" s="4">
+      <c r="G80" s="3">
         <v>0.913</v>
       </c>
     </row>
-    <row r="81" ht="19.5" customHeight="1" spans="1:8">
+    <row r="81" ht="19.5" customHeight="1" spans="1:7">
       <c r="A81" s="3">
-        <v>79</v>
-      </c>
-      <c r="B81" s="4">
         <v>0.6665</v>
       </c>
-      <c r="C81" s="4">
+      <c r="B81" s="3">
         <v>0.5638</v>
       </c>
-      <c r="D81" s="4">
+      <c r="C81" s="3">
         <v>0.8947</v>
       </c>
-      <c r="E81" s="4">
+      <c r="D81" s="3">
         <v>0.9067</v>
       </c>
-      <c r="F81" s="4">
+      <c r="E81" s="3">
         <v>0.9093</v>
       </c>
-      <c r="G81" s="4">
+      <c r="F81" s="3">
         <v>0.9111</v>
       </c>
-      <c r="H81" s="4">
+      <c r="G81" s="3">
         <v>0.9137</v>
       </c>
     </row>
-    <row r="82" ht="19.5" customHeight="1" spans="1:8">
+    <row r="82" ht="19.5" customHeight="1" spans="1:7">
       <c r="A82" s="3">
-        <v>80</v>
-      </c>
-      <c r="B82" s="4">
         <v>0.669</v>
       </c>
-      <c r="C82" s="4">
+      <c r="B82" s="3">
         <v>0.5634</v>
       </c>
-      <c r="D82" s="4">
+      <c r="C82" s="3">
         <v>0.8944</v>
       </c>
-      <c r="E82" s="4">
+      <c r="D82" s="3">
         <v>0.9011</v>
       </c>
-      <c r="F82" s="4">
+      <c r="E82" s="3">
         <v>0.9009</v>
       </c>
-      <c r="G82" s="4">
+      <c r="F82" s="3">
         <v>0.9112</v>
       </c>
-      <c r="H82" s="4">
+      <c r="G82" s="3">
         <v>0.9133</v>
       </c>
     </row>
-    <row r="83" ht="19.5" customHeight="1" spans="1:8">
+    <row r="83" ht="19.5" customHeight="1" spans="1:7">
       <c r="A83" s="3">
-        <v>81</v>
-      </c>
-      <c r="B83" s="4">
         <v>0.6675</v>
       </c>
-      <c r="C83" s="4">
+      <c r="B83" s="3">
         <v>0.559</v>
       </c>
-      <c r="D83" s="4">
+      <c r="C83" s="3">
         <v>0.8975</v>
       </c>
-      <c r="E83" s="4">
+      <c r="D83" s="3">
         <v>0.9038</v>
       </c>
-      <c r="F83" s="4">
+      <c r="E83" s="3">
         <v>0.9063</v>
       </c>
-      <c r="G83" s="4">
+      <c r="F83" s="3">
         <v>0.9098</v>
       </c>
-      <c r="H83" s="4">
+      <c r="G83" s="3">
         <v>0.913</v>
       </c>
     </row>
-    <row r="84" ht="19.5" customHeight="1" spans="1:8">
+    <row r="84" ht="19.5" customHeight="1" spans="1:7">
       <c r="A84" s="3">
-        <v>82</v>
-      </c>
-      <c r="B84" s="4">
         <v>0.6651</v>
       </c>
-      <c r="C84" s="4">
+      <c r="B84" s="3">
         <v>0.5505</v>
       </c>
-      <c r="D84" s="4">
+      <c r="C84" s="3">
         <v>0.8966</v>
       </c>
-      <c r="E84" s="4">
+      <c r="D84" s="3">
         <v>0.9056</v>
       </c>
-      <c r="F84" s="4">
+      <c r="E84" s="3">
         <v>0.9041</v>
       </c>
-      <c r="G84" s="4">
+      <c r="F84" s="3">
         <v>0.912</v>
       </c>
-      <c r="H84" s="4">
+      <c r="G84" s="3">
         <v>0.914</v>
       </c>
     </row>
-    <row r="85" ht="19.5" customHeight="1" spans="1:8">
+    <row r="85" ht="19.5" customHeight="1" spans="1:7">
       <c r="A85" s="3">
-        <v>83</v>
-      </c>
-      <c r="B85" s="4">
         <v>0.6656</v>
       </c>
-      <c r="C85" s="4">
+      <c r="B85" s="3">
         <v>0.5593</v>
       </c>
-      <c r="D85" s="4">
+      <c r="C85" s="3">
         <v>0.8982</v>
       </c>
-      <c r="E85" s="4">
+      <c r="D85" s="3">
         <v>0.907</v>
       </c>
-      <c r="F85" s="4">
+      <c r="E85" s="3">
         <v>0.905</v>
       </c>
-      <c r="G85" s="4">
+      <c r="F85" s="3">
         <v>0.9113</v>
       </c>
-      <c r="H85" s="4">
+      <c r="G85" s="3">
         <v>0.9098</v>
       </c>
     </row>
-    <row r="86" ht="19.5" customHeight="1" spans="1:8">
+    <row r="86" ht="19.5" customHeight="1" spans="1:7">
       <c r="A86" s="3">
-        <v>84</v>
-      </c>
-      <c r="B86" s="4">
         <v>0.6594</v>
       </c>
-      <c r="C86" s="4">
+      <c r="B86" s="3">
         <v>0.5554</v>
       </c>
-      <c r="D86" s="4">
+      <c r="C86" s="3">
         <v>0.8993</v>
       </c>
-      <c r="E86" s="4">
+      <c r="D86" s="3">
         <v>0.9081</v>
       </c>
-      <c r="F86" s="4">
+      <c r="E86" s="3">
         <v>0.9014</v>
       </c>
-      <c r="G86" s="4">
+      <c r="F86" s="3">
         <v>0.909</v>
       </c>
-      <c r="H86" s="4">
+      <c r="G86" s="3">
         <v>0.9147</v>
       </c>
     </row>
-    <row r="87" ht="19.5" customHeight="1" spans="1:8">
+    <row r="87" ht="19.5" customHeight="1" spans="1:7">
       <c r="A87" s="3">
-        <v>85</v>
-      </c>
-      <c r="B87" s="4">
         <v>0.6672</v>
       </c>
-      <c r="C87" s="4">
+      <c r="B87" s="3">
         <v>0.5506</v>
       </c>
-      <c r="D87" s="4">
+      <c r="C87" s="3">
         <v>0.8944</v>
       </c>
-      <c r="E87" s="4">
+      <c r="D87" s="3">
         <v>0.904</v>
       </c>
-      <c r="F87" s="4">
+      <c r="E87" s="3">
         <v>0.9081</v>
       </c>
-      <c r="G87" s="4">
+      <c r="F87" s="3">
         <v>0.9073</v>
       </c>
-      <c r="H87" s="4">
+      <c r="G87" s="3">
         <v>0.9102</v>
       </c>
     </row>
-    <row r="88" ht="19.5" customHeight="1" spans="1:8">
+    <row r="88" ht="19.5" customHeight="1" spans="1:7">
       <c r="A88" s="3">
-        <v>86</v>
-      </c>
-      <c r="B88" s="4">
         <v>0.6643</v>
       </c>
-      <c r="C88" s="4">
+      <c r="B88" s="3">
         <v>0.5595</v>
       </c>
-      <c r="D88" s="4">
+      <c r="C88" s="3">
         <v>0.8965</v>
       </c>
-      <c r="E88" s="4">
+      <c r="D88" s="3">
         <v>0.9045</v>
       </c>
-      <c r="F88" s="4">
+      <c r="E88" s="3">
         <v>0.9078</v>
       </c>
-      <c r="G88" s="4">
+      <c r="F88" s="3">
         <v>0.9088</v>
       </c>
-      <c r="H88" s="4">
+      <c r="G88" s="3">
         <v>0.9121</v>
       </c>
     </row>
-    <row r="89" ht="19.5" customHeight="1" spans="1:8">
+    <row r="89" ht="19.5" customHeight="1" spans="1:7">
       <c r="A89" s="3">
-        <v>87</v>
-      </c>
-      <c r="B89" s="4">
         <v>0.665</v>
       </c>
-      <c r="C89" s="4">
+      <c r="B89" s="3">
         <v>0.5614</v>
       </c>
-      <c r="D89" s="4">
+      <c r="C89" s="3">
         <v>0.8997</v>
       </c>
-      <c r="E89" s="4">
+      <c r="D89" s="3">
         <v>0.905</v>
       </c>
-      <c r="F89" s="4">
+      <c r="E89" s="3">
         <v>0.906</v>
       </c>
-      <c r="G89" s="4">
+      <c r="F89" s="3">
         <v>0.9117</v>
       </c>
-      <c r="H89" s="4">
+      <c r="G89" s="3">
         <v>0.9097</v>
       </c>
     </row>
-    <row r="90" ht="19.5" customHeight="1" spans="1:8">
+    <row r="90" ht="19.5" customHeight="1" spans="1:7">
       <c r="A90" s="3">
-        <v>88</v>
-      </c>
-      <c r="B90" s="4">
         <v>0.6626</v>
       </c>
-      <c r="C90" s="4">
+      <c r="B90" s="3">
         <v>0.5599</v>
       </c>
-      <c r="D90" s="4">
+      <c r="C90" s="3">
         <v>0.8944</v>
       </c>
-      <c r="E90" s="4">
+      <c r="D90" s="3">
         <v>0.905</v>
       </c>
-      <c r="F90" s="4">
+      <c r="E90" s="3">
         <v>0.907</v>
       </c>
-      <c r="G90" s="4">
+      <c r="F90" s="3">
         <v>0.9101</v>
       </c>
-      <c r="H90" s="4">
+      <c r="G90" s="3">
         <v>0.9121</v>
       </c>
     </row>
-    <row r="91" ht="19.5" customHeight="1" spans="1:8">
+    <row r="91" ht="19.5" customHeight="1" spans="1:7">
       <c r="A91" s="3">
-        <v>89</v>
-      </c>
-      <c r="B91" s="4">
         <v>0.6579</v>
       </c>
-      <c r="C91" s="4">
+      <c r="B91" s="3">
         <v>0.5565</v>
       </c>
-      <c r="D91" s="4">
+      <c r="C91" s="3">
         <v>0.8996</v>
       </c>
-      <c r="E91" s="4">
+      <c r="D91" s="3">
         <v>0.9046</v>
       </c>
-      <c r="F91" s="4">
+      <c r="E91" s="3">
         <v>0.9048</v>
       </c>
-      <c r="G91" s="4">
+      <c r="F91" s="3">
         <v>0.9115</v>
       </c>
-      <c r="H91" s="4">
+      <c r="G91" s="3">
         <v>0.9129</v>
       </c>
     </row>
-    <row r="92" ht="19.5" customHeight="1" spans="1:8">
+    <row r="92" ht="19.5" customHeight="1" spans="1:7">
       <c r="A92" s="3">
-        <v>90</v>
-      </c>
-      <c r="B92" s="4">
         <v>0.6645</v>
       </c>
-      <c r="C92" s="4">
+      <c r="B92" s="3">
         <v>0.5542</v>
       </c>
-      <c r="D92" s="4">
+      <c r="C92" s="3">
         <v>0.8955</v>
       </c>
-      <c r="E92" s="4">
+      <c r="D92" s="3">
         <v>0.9047</v>
       </c>
-      <c r="F92" s="4">
+      <c r="E92" s="3">
         <v>0.9094</v>
       </c>
-      <c r="G92" s="4">
+      <c r="F92" s="3">
         <v>0.9088</v>
       </c>
-      <c r="H92" s="4">
+      <c r="G92" s="3">
         <v>0.9082</v>
       </c>
     </row>
-    <row r="93" ht="19.5" customHeight="1" spans="1:8">
+    <row r="93" ht="19.5" customHeight="1" spans="1:7">
       <c r="A93" s="3">
-        <v>91</v>
-      </c>
-      <c r="B93" s="4">
         <v>0.6585</v>
       </c>
-      <c r="C93" s="4">
+      <c r="B93" s="3">
         <v>0.5524</v>
       </c>
-      <c r="D93" s="4">
+      <c r="C93" s="3">
         <v>0.8963</v>
       </c>
-      <c r="E93" s="4">
+      <c r="D93" s="3">
         <v>0.908</v>
       </c>
-      <c r="F93" s="4">
+      <c r="E93" s="3">
         <v>0.9047</v>
       </c>
-      <c r="G93" s="4">
+      <c r="F93" s="3">
         <v>0.9105</v>
       </c>
-      <c r="H93" s="4">
+      <c r="G93" s="3">
         <v>0.9094</v>
       </c>
     </row>
-    <row r="94" ht="19.5" customHeight="1" spans="1:8">
+    <row r="94" ht="19.5" customHeight="1" spans="1:7">
       <c r="A94" s="3">
-        <v>92</v>
-      </c>
-      <c r="B94" s="4">
         <v>0.6643</v>
       </c>
-      <c r="C94" s="4">
+      <c r="B94" s="3">
         <v>0.5537</v>
       </c>
-      <c r="D94" s="4">
+      <c r="C94" s="3">
         <v>0.8972</v>
       </c>
-      <c r="E94" s="4">
+      <c r="D94" s="3">
         <v>0.9084</v>
       </c>
-      <c r="F94" s="4">
+      <c r="E94" s="3">
         <v>0.904</v>
       </c>
-      <c r="G94" s="4">
+      <c r="F94" s="3">
         <v>0.9131</v>
       </c>
-      <c r="H94" s="4">
+      <c r="G94" s="3">
         <v>0.9146</v>
       </c>
     </row>
-    <row r="95" ht="19.5" customHeight="1" spans="1:8">
+    <row r="95" ht="19.5" customHeight="1" spans="1:7">
       <c r="A95" s="3">
-        <v>93</v>
-      </c>
-      <c r="B95" s="4">
         <v>0.6588</v>
       </c>
-      <c r="C95" s="4">
+      <c r="B95" s="3">
         <v>0.5586</v>
       </c>
-      <c r="D95" s="4">
+      <c r="C95" s="3">
         <v>0.8946</v>
       </c>
-      <c r="E95" s="4">
+      <c r="D95" s="3">
         <v>0.9084</v>
       </c>
-      <c r="F95" s="4">
+      <c r="E95" s="3">
         <v>0.9083</v>
       </c>
-      <c r="G95" s="4">
+      <c r="F95" s="3">
         <v>0.9087</v>
       </c>
-      <c r="H95" s="4">
+      <c r="G95" s="3">
         <v>0.9169</v>
       </c>
     </row>
-    <row r="96" ht="19.5" customHeight="1" spans="1:8">
+    <row r="96" ht="19.5" customHeight="1" spans="1:7">
       <c r="A96" s="3">
-        <v>94</v>
-      </c>
-      <c r="B96" s="4">
         <v>0.6588</v>
       </c>
-      <c r="C96" s="4">
+      <c r="B96" s="3">
         <v>0.5513</v>
       </c>
-      <c r="D96" s="4">
+      <c r="C96" s="3">
         <v>0.8966</v>
       </c>
-      <c r="E96" s="4">
+      <c r="D96" s="3">
         <v>0.9064</v>
       </c>
-      <c r="F96" s="4">
+      <c r="E96" s="3">
         <v>0.9065</v>
       </c>
-      <c r="G96" s="4">
+      <c r="F96" s="3">
         <v>0.91</v>
       </c>
-      <c r="H96" s="4">
+      <c r="G96" s="3">
         <v>0.9137</v>
       </c>
     </row>
-    <row r="97" ht="19.5" customHeight="1" spans="1:8">
+    <row r="97" ht="19.5" customHeight="1" spans="1:7">
       <c r="A97" s="3">
-        <v>95</v>
-      </c>
-      <c r="B97" s="4">
         <v>0.66</v>
       </c>
-      <c r="C97" s="4">
+      <c r="B97" s="3">
         <v>0.5564</v>
       </c>
-      <c r="D97" s="4">
+      <c r="C97" s="3">
         <v>0.9014</v>
       </c>
-      <c r="E97" s="4">
+      <c r="D97" s="3">
         <v>0.9088</v>
       </c>
-      <c r="F97" s="4">
+      <c r="E97" s="3">
         <v>0.9063</v>
       </c>
-      <c r="G97" s="4">
+      <c r="F97" s="3">
         <v>0.9116</v>
       </c>
-      <c r="H97" s="4">
+      <c r="G97" s="3">
         <v>0.9126</v>
       </c>
     </row>
-    <row r="98" ht="19.5" customHeight="1" spans="1:8">
+    <row r="98" ht="19.5" customHeight="1" spans="1:7">
       <c r="A98" s="3">
-        <v>96</v>
-      </c>
-      <c r="B98" s="4">
         <v>0.6571</v>
       </c>
-      <c r="C98" s="4">
+      <c r="B98" s="3">
         <v>0.5357</v>
       </c>
-      <c r="D98" s="4">
+      <c r="C98" s="3">
         <v>0.8976</v>
       </c>
-      <c r="E98" s="4">
+      <c r="D98" s="3">
         <v>0.9085</v>
       </c>
-      <c r="F98" s="4">
+      <c r="E98" s="3">
         <v>0.9054</v>
       </c>
-      <c r="G98" s="4">
+      <c r="F98" s="3">
         <v>0.9069</v>
       </c>
-      <c r="H98" s="4">
+      <c r="G98" s="3">
         <v>0.916</v>
       </c>
     </row>
-    <row r="99" ht="19.5" customHeight="1" spans="1:8">
+    <row r="99" ht="19.5" customHeight="1" spans="1:7">
       <c r="A99" s="3">
-        <v>97</v>
-      </c>
-      <c r="B99" s="4">
         <v>0.6523</v>
       </c>
-      <c r="C99" s="4">
+      <c r="B99" s="3">
         <v>0.546</v>
       </c>
-      <c r="D99" s="4">
+      <c r="C99" s="3">
         <v>0.8944</v>
       </c>
-      <c r="E99" s="4">
+      <c r="D99" s="3">
         <v>0.9066</v>
       </c>
-      <c r="F99" s="4">
+      <c r="E99" s="3">
         <v>0.9075</v>
       </c>
-      <c r="G99" s="4">
+      <c r="F99" s="3">
         <v>0.9125</v>
       </c>
-      <c r="H99" s="4">
+      <c r="G99" s="3">
         <v>0.9119</v>
       </c>
     </row>
-    <row r="100" ht="19.5" customHeight="1" spans="1:8">
+    <row r="100" ht="19.5" customHeight="1" spans="1:7">
       <c r="A100" s="3">
-        <v>98</v>
-      </c>
-      <c r="B100" s="4">
         <v>0.6561</v>
       </c>
-      <c r="C100" s="4">
+      <c r="B100" s="3">
         <v>0.5522</v>
       </c>
-      <c r="D100" s="4">
+      <c r="C100" s="3">
         <v>0.8937</v>
       </c>
-      <c r="E100" s="4">
+      <c r="D100" s="3">
         <v>0.9083</v>
       </c>
-      <c r="F100" s="4">
+      <c r="E100" s="3">
         <v>0.9033</v>
       </c>
-      <c r="G100" s="4">
+      <c r="F100" s="3">
         <v>0.9091</v>
       </c>
-      <c r="H100" s="4">
+      <c r="G100" s="3">
         <v>0.9181</v>
       </c>
     </row>
-    <row r="101" ht="19.5" customHeight="1" spans="1:8">
+    <row r="101" ht="19.5" customHeight="1" spans="1:7">
       <c r="A101" s="3">
-        <v>99</v>
-      </c>
-      <c r="B101" s="4">
         <v>0.6557</v>
       </c>
-      <c r="C101" s="4">
+      <c r="B101" s="3">
         <v>0.55</v>
       </c>
-      <c r="D101" s="4">
+      <c r="C101" s="3">
         <v>0.9003</v>
       </c>
-      <c r="E101" s="4">
+      <c r="D101" s="3">
         <v>0.9054</v>
       </c>
-      <c r="F101" s="4">
+      <c r="E101" s="3">
         <v>0.9066</v>
       </c>
-      <c r="G101" s="4">
+      <c r="F101" s="3">
         <v>0.9125</v>
       </c>
-      <c r="H101" s="4">
+      <c r="G101" s="3">
         <v>0.9154</v>
       </c>
     </row>
-    <row r="102" ht="19.5" customHeight="1" spans="1:8">
+    <row r="102" ht="19.5" customHeight="1" spans="1:7">
       <c r="A102" s="3">
-        <v>100</v>
-      </c>
-      <c r="B102" s="4">
         <v>0.6528</v>
       </c>
-      <c r="C102" s="4">
+      <c r="B102" s="3">
         <v>0.5523</v>
       </c>
-      <c r="D102" s="4">
+      <c r="C102" s="3">
         <v>0.8994</v>
       </c>
-      <c r="E102" s="4">
+      <c r="D102" s="3">
         <v>0.907</v>
       </c>
-      <c r="F102" s="4">
+      <c r="E102" s="3">
         <v>0.91</v>
       </c>
-      <c r="G102" s="4">
+      <c r="F102" s="3">
         <v>0.9086</v>
       </c>
-      <c r="H102" s="4">
+      <c r="G102" s="3">
         <v>0.912</v>
       </c>
     </row>
-    <row r="103" ht="19.5" customHeight="1" spans="1:8">
+    <row r="103" ht="19.5" customHeight="1" spans="1:7">
       <c r="A103" s="3">
-        <v>101</v>
-      </c>
-      <c r="B103" s="4">
         <v>0.6551</v>
       </c>
-      <c r="C103" s="4">
+      <c r="B103" s="3">
         <v>0.5467</v>
       </c>
-      <c r="D103" s="4">
+      <c r="C103" s="3">
         <v>0.8988</v>
       </c>
-      <c r="E103" s="4">
+      <c r="D103" s="3">
         <v>0.906</v>
       </c>
-      <c r="F103" s="4">
+      <c r="E103" s="3">
         <v>0.907</v>
       </c>
-      <c r="G103" s="4">
+      <c r="F103" s="3">
         <v>0.9097</v>
       </c>
-      <c r="H103" s="4">
+      <c r="G103" s="3">
         <v>0.915</v>
       </c>
     </row>
-    <row r="104" ht="19.5" customHeight="1" spans="1:8">
+    <row r="104" ht="19.5" customHeight="1" spans="1:7">
       <c r="A104" s="3">
-        <v>102</v>
-      </c>
-      <c r="B104" s="4">
         <v>0.6597</v>
       </c>
-      <c r="C104" s="4">
+      <c r="B104" s="3">
         <v>0.5539</v>
       </c>
-      <c r="D104" s="4">
+      <c r="C104" s="3">
         <v>0.8963</v>
       </c>
-      <c r="E104" s="4">
+      <c r="D104" s="3">
         <v>0.9089</v>
       </c>
-      <c r="F104" s="4">
+      <c r="E104" s="3">
         <v>0.9085</v>
       </c>
-      <c r="G104" s="4">
+      <c r="F104" s="3">
         <v>0.9122</v>
       </c>
-      <c r="H104" s="4">
+      <c r="G104" s="3">
         <v>0.9115</v>
       </c>
     </row>
-    <row r="105" ht="19.5" customHeight="1" spans="1:8">
+    <row r="105" ht="19.5" customHeight="1" spans="1:7">
       <c r="A105" s="3">
-        <v>103</v>
-      </c>
-      <c r="B105" s="4">
         <v>0.6529</v>
       </c>
-      <c r="C105" s="4">
+      <c r="B105" s="3">
         <v>0.5482</v>
       </c>
-      <c r="D105" s="4">
+      <c r="C105" s="3">
         <v>0.8994</v>
       </c>
-      <c r="E105" s="4">
+      <c r="D105" s="3">
         <v>0.9065</v>
       </c>
-      <c r="F105" s="4">
+      <c r="E105" s="3">
         <v>0.9078</v>
       </c>
-      <c r="G105" s="4">
+      <c r="F105" s="3">
         <v>0.9098</v>
       </c>
-      <c r="H105" s="4">
+      <c r="G105" s="3">
         <v>0.912</v>
       </c>
     </row>
-    <row r="106" ht="19.5" customHeight="1" spans="1:8">
+    <row r="106" ht="19.5" customHeight="1" spans="1:7">
       <c r="A106" s="3">
-        <v>104</v>
-      </c>
-      <c r="B106" s="4">
         <v>0.6546</v>
       </c>
-      <c r="C106" s="4">
+      <c r="B106" s="3">
         <v>0.5492</v>
       </c>
-      <c r="D106" s="4">
+      <c r="C106" s="3">
         <v>0.8975</v>
       </c>
-      <c r="E106" s="4">
+      <c r="D106" s="3">
         <v>0.9081</v>
       </c>
-      <c r="F106" s="4">
+      <c r="E106" s="3">
         <v>0.9051</v>
       </c>
-      <c r="G106" s="4">
+      <c r="F106" s="3">
         <v>0.9113</v>
       </c>
-      <c r="H106" s="4">
+      <c r="G106" s="3">
         <v>0.9152</v>
       </c>
     </row>
-    <row r="107" ht="19.5" customHeight="1" spans="1:8">
+    <row r="107" ht="19.5" customHeight="1" spans="1:7">
       <c r="A107" s="3">
-        <v>105</v>
-      </c>
-      <c r="B107" s="4">
         <v>0.6509</v>
       </c>
-      <c r="C107" s="4">
+      <c r="B107" s="3">
         <v>0.5491</v>
       </c>
-      <c r="D107" s="4">
+      <c r="C107" s="3">
         <v>0.8995</v>
       </c>
-      <c r="E107" s="4">
+      <c r="D107" s="3">
         <v>0.9099</v>
       </c>
-      <c r="F107" s="4">
+      <c r="E107" s="3">
         <v>0.9056</v>
       </c>
-      <c r="G107" s="4">
+      <c r="F107" s="3">
         <v>0.9109</v>
       </c>
-      <c r="H107" s="4">
+      <c r="G107" s="3">
         <v>0.9143</v>
       </c>
     </row>
-    <row r="108" ht="19.5" customHeight="1" spans="1:8">
+    <row r="108" ht="19.5" customHeight="1" spans="1:7">
       <c r="A108" s="3">
-        <v>106</v>
-      </c>
-      <c r="B108" s="4">
         <v>0.6551</v>
       </c>
-      <c r="C108" s="4">
+      <c r="B108" s="3">
         <v>0.5498</v>
       </c>
-      <c r="D108" s="4">
+      <c r="C108" s="3">
         <v>0.8984</v>
       </c>
-      <c r="E108" s="4">
+      <c r="D108" s="3">
         <v>0.9062</v>
       </c>
-      <c r="F108" s="4">
+      <c r="E108" s="3">
         <v>0.9084</v>
       </c>
-      <c r="G108" s="4">
+      <c r="F108" s="3">
         <v>0.9127</v>
       </c>
-      <c r="H108" s="4">
+      <c r="G108" s="3">
         <v>0.9144</v>
       </c>
     </row>
-    <row r="109" ht="19.5" customHeight="1" spans="1:8">
+    <row r="109" ht="19.5" customHeight="1" spans="1:7">
       <c r="A109" s="3">
-        <v>107</v>
-      </c>
-      <c r="B109" s="4">
         <v>0.6548</v>
       </c>
-      <c r="C109" s="4">
+      <c r="B109" s="3">
         <v>0.5496</v>
       </c>
-      <c r="D109" s="4">
+      <c r="C109" s="3">
         <v>0.8984</v>
       </c>
-      <c r="E109" s="4">
+      <c r="D109" s="3">
         <v>0.9073</v>
       </c>
-      <c r="F109" s="4">
+      <c r="E109" s="3">
         <v>0.9087</v>
       </c>
-      <c r="G109" s="4">
+      <c r="F109" s="3">
         <v>0.9132</v>
       </c>
-      <c r="H109" s="4">
+      <c r="G109" s="3">
         <v>0.9134</v>
       </c>
     </row>
-    <row r="110" ht="19.5" customHeight="1" spans="1:8">
+    <row r="110" ht="19.5" customHeight="1" spans="1:7">
       <c r="A110" s="3">
-        <v>108</v>
-      </c>
-      <c r="B110" s="4">
         <v>0.6508</v>
       </c>
-      <c r="C110" s="4">
+      <c r="B110" s="3">
         <v>0.5511</v>
       </c>
-      <c r="D110" s="4">
+      <c r="C110" s="3">
         <v>0.896</v>
       </c>
-      <c r="E110" s="4">
+      <c r="D110" s="3">
         <v>0.9074</v>
       </c>
-      <c r="F110" s="4">
+      <c r="E110" s="3">
         <v>0.9086</v>
       </c>
-      <c r="G110" s="4">
+      <c r="F110" s="3">
         <v>0.9094</v>
       </c>
-      <c r="H110" s="4">
+      <c r="G110" s="3">
         <v>0.9156</v>
       </c>
     </row>
-    <row r="111" ht="19.5" customHeight="1" spans="1:8">
+    <row r="111" ht="19.5" customHeight="1" spans="1:7">
       <c r="A111" s="3">
-        <v>109</v>
-      </c>
-      <c r="B111" s="4">
         <v>0.6496</v>
       </c>
-      <c r="C111" s="4">
+      <c r="B111" s="3">
         <v>0.5464</v>
       </c>
-      <c r="D111" s="4">
+      <c r="C111" s="3">
         <v>0.9023</v>
       </c>
-      <c r="E111" s="4">
+      <c r="D111" s="3">
         <v>0.9072</v>
       </c>
-      <c r="F111" s="4">
+      <c r="E111" s="3">
         <v>0.9073</v>
       </c>
-      <c r="G111" s="4">
+      <c r="F111" s="3">
         <v>0.9134</v>
       </c>
-      <c r="H111" s="4">
+      <c r="G111" s="3">
         <v>0.9143</v>
       </c>
     </row>
-    <row r="112" ht="19.5" customHeight="1" spans="1:8">
+    <row r="112" ht="19.5" customHeight="1" spans="1:7">
       <c r="A112" s="3">
-        <v>110</v>
-      </c>
-      <c r="B112" s="4">
         <v>0.6503</v>
       </c>
-      <c r="C112" s="4">
+      <c r="B112" s="3">
         <v>0.549</v>
       </c>
-      <c r="D112" s="4">
+      <c r="C112" s="3">
         <v>0.8974</v>
       </c>
-      <c r="E112" s="4">
+      <c r="D112" s="3">
         <v>0.9084</v>
       </c>
-      <c r="F112" s="4">
+      <c r="E112" s="3">
         <v>0.9066</v>
       </c>
-      <c r="G112" s="4">
+      <c r="F112" s="3">
         <v>0.9125</v>
       </c>
-      <c r="H112" s="4">
+      <c r="G112" s="3">
         <v>0.9114</v>
       </c>
     </row>
-    <row r="113" ht="19.5" customHeight="1" spans="1:8">
+    <row r="113" ht="19.5" customHeight="1" spans="1:7">
       <c r="A113" s="3">
-        <v>111</v>
-      </c>
-      <c r="B113" s="4">
         <v>0.6515</v>
       </c>
-      <c r="C113" s="4">
+      <c r="B113" s="3">
         <v>0.5475</v>
       </c>
-      <c r="D113" s="4">
+      <c r="C113" s="3">
         <v>0.9</v>
       </c>
-      <c r="E113" s="4">
+      <c r="D113" s="3">
         <v>0.9061</v>
       </c>
-      <c r="F113" s="4">
+      <c r="E113" s="3">
         <v>0.9101</v>
       </c>
-      <c r="G113" s="4">
+      <c r="F113" s="3">
         <v>0.9091</v>
       </c>
-      <c r="H113" s="4">
+      <c r="G113" s="3">
         <v>0.9148</v>
       </c>
     </row>
-    <row r="114" ht="19.5" customHeight="1" spans="1:8">
+    <row r="114" ht="19.5" customHeight="1" spans="1:7">
       <c r="A114" s="3">
-        <v>112</v>
-      </c>
-      <c r="B114" s="4">
         <v>0.649</v>
       </c>
-      <c r="C114" s="4">
+      <c r="B114" s="3">
         <v>0.5436</v>
       </c>
-      <c r="D114" s="4">
+      <c r="C114" s="3">
         <v>0.8957</v>
       </c>
-      <c r="E114" s="4">
+      <c r="D114" s="3">
         <v>0.9066</v>
       </c>
-      <c r="F114" s="4">
+      <c r="E114" s="3">
         <v>0.9104</v>
       </c>
-      <c r="G114" s="4">
+      <c r="F114" s="3">
         <v>0.9077</v>
       </c>
-      <c r="H114" s="4">
+      <c r="G114" s="3">
         <v>0.9101</v>
       </c>
     </row>
-    <row r="115" ht="19.5" customHeight="1" spans="1:8">
+    <row r="115" ht="19.5" customHeight="1" spans="1:7">
       <c r="A115" s="3">
-        <v>113</v>
-      </c>
-      <c r="B115" s="4">
         <v>0.6488</v>
       </c>
-      <c r="C115" s="4">
+      <c r="B115" s="3">
         <v>0.5469</v>
       </c>
-      <c r="D115" s="4">
+      <c r="C115" s="3">
         <v>0.9007</v>
       </c>
-      <c r="E115" s="4">
+      <c r="D115" s="3">
         <v>0.9067</v>
       </c>
-      <c r="F115" s="4">
+      <c r="E115" s="3">
         <v>0.9048</v>
       </c>
-      <c r="G115" s="4">
+      <c r="F115" s="3">
         <v>0.9124</v>
       </c>
-      <c r="H115" s="4">
+      <c r="G115" s="3">
         <v>0.9112</v>
       </c>
     </row>
-    <row r="116" ht="19.5" customHeight="1" spans="1:8">
+    <row r="116" ht="19.5" customHeight="1" spans="1:7">
       <c r="A116" s="3">
-        <v>114</v>
-      </c>
-      <c r="B116" s="4">
         <v>0.6494</v>
       </c>
-      <c r="C116" s="4">
+      <c r="B116" s="3">
         <v>0.546</v>
       </c>
-      <c r="D116" s="4">
+      <c r="C116" s="3">
         <v>0.8957</v>
       </c>
-      <c r="E116" s="4">
+      <c r="D116" s="3">
         <v>0.906</v>
       </c>
-      <c r="F116" s="4">
+      <c r="E116" s="3">
         <v>0.9051</v>
       </c>
-      <c r="G116" s="4">
+      <c r="F116" s="3">
         <v>0.9128</v>
       </c>
-      <c r="H116" s="4">
+      <c r="G116" s="3">
         <v>0.9177</v>
       </c>
     </row>
-    <row r="117" ht="19.5" customHeight="1" spans="1:8">
+    <row r="117" ht="19.5" customHeight="1" spans="1:7">
       <c r="A117" s="3">
-        <v>115</v>
-      </c>
-      <c r="B117" s="4">
         <v>0.6473</v>
       </c>
-      <c r="C117" s="4">
+      <c r="B117" s="3">
         <v>0.5431</v>
       </c>
-      <c r="D117" s="4">
+      <c r="C117" s="3">
         <v>0.8963</v>
       </c>
-      <c r="E117" s="4">
+      <c r="D117" s="3">
         <v>0.9052</v>
       </c>
-      <c r="F117" s="4">
+      <c r="E117" s="3">
         <v>0.9035</v>
       </c>
-      <c r="G117" s="4">
+      <c r="F117" s="3">
         <v>0.9132</v>
       </c>
-      <c r="H117" s="4">
+      <c r="G117" s="3">
         <v>0.9086</v>
       </c>
     </row>
-    <row r="118" ht="19.5" customHeight="1" spans="1:8">
+    <row r="118" ht="19.5" customHeight="1" spans="1:7">
       <c r="A118" s="3">
-        <v>116</v>
-      </c>
-      <c r="B118" s="4">
         <v>0.6478</v>
       </c>
-      <c r="C118" s="4">
+      <c r="B118" s="3">
         <v>0.5447</v>
       </c>
-      <c r="D118" s="4">
+      <c r="C118" s="3">
         <v>0.8975</v>
       </c>
-      <c r="E118" s="4">
+      <c r="D118" s="3">
         <v>0.9057</v>
       </c>
-      <c r="F118" s="4">
+      <c r="E118" s="3">
         <v>0.9085</v>
       </c>
-      <c r="G118" s="4">
+      <c r="F118" s="3">
         <v>0.9119</v>
       </c>
-      <c r="H118" s="4">
+      <c r="G118" s="3">
         <v>0.9113</v>
       </c>
     </row>
-    <row r="119" ht="19.5" customHeight="1" spans="1:8">
+    <row r="119" ht="19.5" customHeight="1" spans="1:7">
       <c r="A119" s="3">
-        <v>117</v>
-      </c>
-      <c r="B119" s="4">
         <v>0.6435</v>
       </c>
-      <c r="C119" s="4">
+      <c r="B119" s="3">
         <v>0.5447</v>
       </c>
-      <c r="D119" s="4">
+      <c r="C119" s="3">
         <v>0.8964</v>
       </c>
-      <c r="E119" s="4">
+      <c r="D119" s="3">
         <v>0.9048</v>
       </c>
-      <c r="F119" s="4">
+      <c r="E119" s="3">
         <v>0.9054</v>
       </c>
-      <c r="G119" s="4">
+      <c r="F119" s="3">
         <v>0.9096</v>
       </c>
-      <c r="H119" s="4">
+      <c r="G119" s="3">
         <v>0.9138</v>
       </c>
     </row>
-    <row r="120" ht="19.5" customHeight="1" spans="1:8">
+    <row r="120" ht="19.5" customHeight="1" spans="1:7">
       <c r="A120" s="3">
-        <v>118</v>
-      </c>
-      <c r="B120" s="4">
         <v>0.6463</v>
       </c>
-      <c r="C120" s="4">
+      <c r="B120" s="3">
         <v>0.5463</v>
       </c>
-      <c r="D120" s="4">
+      <c r="C120" s="3">
         <v>0.8945</v>
       </c>
-      <c r="E120" s="4">
+      <c r="D120" s="3">
         <v>0.9112</v>
       </c>
-      <c r="F120" s="4">
+      <c r="E120" s="3">
         <v>0.9048</v>
       </c>
-      <c r="G120" s="4">
+      <c r="F120" s="3">
         <v>0.9091</v>
       </c>
-      <c r="H120" s="4">
+      <c r="G120" s="3">
         <v>0.9151</v>
       </c>
     </row>
-    <row r="121" ht="19.5" customHeight="1" spans="1:8">
+    <row r="121" ht="19.5" customHeight="1" spans="1:7">
       <c r="A121" s="3">
-        <v>119</v>
-      </c>
-      <c r="B121" s="4">
         <v>0.645</v>
       </c>
-      <c r="C121" s="4">
+      <c r="B121" s="3">
         <v>0.5412</v>
       </c>
-      <c r="D121" s="4">
+      <c r="C121" s="3">
         <v>0.8931</v>
       </c>
-      <c r="E121" s="4">
+      <c r="D121" s="3">
         <v>0.9084</v>
       </c>
-      <c r="F121" s="4">
+      <c r="E121" s="3">
         <v>0.9091</v>
       </c>
-      <c r="G121" s="4">
+      <c r="F121" s="3">
         <v>0.9098</v>
       </c>
-      <c r="H121" s="4">
+      <c r="G121" s="3">
         <v>0.9146</v>
       </c>
     </row>
-    <row r="122" ht="19.5" customHeight="1" spans="1:8">
+    <row r="122" ht="19.5" customHeight="1" spans="1:7">
       <c r="A122" s="3">
-        <v>120</v>
-      </c>
-      <c r="B122" s="4">
         <v>0.6471</v>
       </c>
-      <c r="C122" s="4">
+      <c r="B122" s="3">
         <v>0.5414</v>
       </c>
-      <c r="D122" s="4">
+      <c r="C122" s="3">
         <v>0.9004</v>
       </c>
-      <c r="E122" s="4">
+      <c r="D122" s="3">
         <v>0.9047</v>
       </c>
-      <c r="F122" s="4">
+      <c r="E122" s="3">
         <v>0.9061</v>
       </c>
-      <c r="G122" s="4">
+      <c r="F122" s="3">
         <v>0.9087</v>
       </c>
-      <c r="H122" s="4">
+      <c r="G122" s="3">
         <v>0.9131</v>
       </c>
     </row>
-    <row r="123" ht="19.5" customHeight="1" spans="1:8">
+    <row r="123" ht="19.5" customHeight="1" spans="1:7">
       <c r="A123" s="3">
-        <v>121</v>
-      </c>
-      <c r="B123" s="4">
         <v>0.6426</v>
       </c>
-      <c r="C123" s="4">
+      <c r="B123" s="3">
         <v>0.5409</v>
       </c>
-      <c r="D123" s="4">
+      <c r="C123" s="3">
         <v>0.9</v>
       </c>
-      <c r="E123" s="4">
+      <c r="D123" s="3">
         <v>0.9091</v>
       </c>
-      <c r="F123" s="4">
+      <c r="E123" s="3">
         <v>0.9087</v>
       </c>
-      <c r="G123" s="4">
+      <c r="F123" s="3">
         <v>0.9075</v>
       </c>
-      <c r="H123" s="4">
+      <c r="G123" s="3">
         <v>0.9078</v>
       </c>
     </row>
-    <row r="124" ht="19.5" customHeight="1" spans="1:8">
+    <row r="124" ht="19.5" customHeight="1" spans="1:7">
       <c r="A124" s="3">
-        <v>122</v>
-      </c>
-      <c r="B124" s="4">
         <v>0.64</v>
       </c>
-      <c r="C124" s="4">
+      <c r="B124" s="3">
         <v>0.5372</v>
       </c>
-      <c r="D124" s="4">
+      <c r="C124" s="3">
         <v>0.8993</v>
       </c>
-      <c r="E124" s="4">
+      <c r="D124" s="3">
         <v>0.9047</v>
       </c>
-      <c r="F124" s="4">
+      <c r="E124" s="3">
         <v>0.9056</v>
       </c>
-      <c r="G124" s="4">
+      <c r="F124" s="3">
         <v>0.9113</v>
       </c>
-      <c r="H124" s="4">
+      <c r="G124" s="3">
         <v>0.915</v>
       </c>
     </row>
-    <row r="125" ht="19.5" customHeight="1" spans="1:8">
+    <row r="125" ht="19.5" customHeight="1" spans="1:7">
       <c r="A125" s="3">
-        <v>123</v>
-      </c>
-      <c r="B125" s="4">
         <v>0.6444</v>
       </c>
-      <c r="C125" s="4">
+      <c r="B125" s="3">
         <v>0.5409</v>
       </c>
-      <c r="D125" s="4">
+      <c r="C125" s="3">
         <v>0.8991</v>
       </c>
-      <c r="E125" s="4">
+      <c r="D125" s="3">
         <v>0.9081</v>
       </c>
-      <c r="F125" s="4">
+      <c r="E125" s="3">
         <v>0.9081</v>
       </c>
-      <c r="G125" s="4">
+      <c r="F125" s="3">
         <v>0.9117</v>
       </c>
-      <c r="H125" s="4">
+      <c r="G125" s="3">
         <v>0.911</v>
       </c>
     </row>
-    <row r="126" ht="19.5" customHeight="1" spans="1:8">
+    <row r="126" ht="19.5" customHeight="1" spans="1:7">
       <c r="A126" s="3">
-        <v>124</v>
-      </c>
-      <c r="B126" s="4">
         <v>0.643</v>
       </c>
-      <c r="C126" s="4">
+      <c r="B126" s="3">
         <v>0.5427</v>
       </c>
-      <c r="D126" s="4">
+      <c r="C126" s="3">
         <v>0.8958</v>
       </c>
-      <c r="E126" s="4">
+      <c r="D126" s="3">
         <v>0.9054</v>
       </c>
-      <c r="F126" s="4">
+      <c r="E126" s="3">
         <v>0.9083</v>
       </c>
-      <c r="G126" s="4">
+      <c r="F126" s="3">
         <v>0.9137</v>
       </c>
-      <c r="H126" s="4">
+      <c r="G126" s="3">
         <v>0.9165</v>
       </c>
     </row>
-    <row r="127" ht="19.5" customHeight="1" spans="1:8">
+    <row r="127" ht="19.5" customHeight="1" spans="1:7">
       <c r="A127" s="3">
-        <v>125</v>
-      </c>
-      <c r="B127" s="4">
         <v>0.6416</v>
       </c>
-      <c r="C127" s="4">
+      <c r="B127" s="3">
         <v>0.5363</v>
       </c>
-      <c r="D127" s="4">
+      <c r="C127" s="3">
         <v>0.8965</v>
       </c>
-      <c r="E127" s="4">
+      <c r="D127" s="3">
         <v>0.9062</v>
       </c>
-      <c r="F127" s="4">
+      <c r="E127" s="3">
         <v>0.906</v>
       </c>
-      <c r="G127" s="4">
+      <c r="F127" s="3">
         <v>0.9114</v>
       </c>
-      <c r="H127" s="4">
+      <c r="G127" s="3">
         <v>0.915</v>
       </c>
     </row>
-    <row r="128" ht="19.5" customHeight="1" spans="1:8">
+    <row r="128" ht="19.5" customHeight="1" spans="1:7">
       <c r="A128" s="3">
-        <v>126</v>
-      </c>
-      <c r="B128" s="4">
         <v>0.646</v>
       </c>
-      <c r="C128" s="4">
+      <c r="B128" s="3">
         <v>0.5411</v>
       </c>
-      <c r="D128" s="4">
+      <c r="C128" s="3">
         <v>0.8979</v>
       </c>
-      <c r="E128" s="4">
+      <c r="D128" s="3">
         <v>0.9048</v>
       </c>
-      <c r="F128" s="4">
+      <c r="E128" s="3">
         <v>0.9065</v>
       </c>
-      <c r="G128" s="4">
+      <c r="F128" s="3">
         <v>0.912</v>
       </c>
-      <c r="H128" s="4">
+      <c r="G128" s="3">
         <v>0.9126</v>
       </c>
     </row>
-    <row r="129" ht="19.5" customHeight="1" spans="1:8">
+    <row r="129" ht="19.5" customHeight="1" spans="1:7">
       <c r="A129" s="3">
-        <v>127</v>
-      </c>
-      <c r="B129" s="4">
         <v>0.6426</v>
       </c>
-      <c r="C129" s="4">
+      <c r="B129" s="3">
         <v>0.5385</v>
       </c>
-      <c r="D129" s="4">
+      <c r="C129" s="3">
         <v>0.8962</v>
       </c>
-      <c r="E129" s="4">
+      <c r="D129" s="3">
         <v>0.9054</v>
       </c>
-      <c r="F129" s="4">
+      <c r="E129" s="3">
         <v>0.9055</v>
       </c>
-      <c r="G129" s="4">
+      <c r="F129" s="3">
         <v>0.9079</v>
       </c>
-      <c r="H129" s="4">
+      <c r="G129" s="3">
         <v>0.9112</v>
       </c>
     </row>
-    <row r="130" ht="19.5" customHeight="1" spans="1:8">
+    <row r="130" ht="19.5" customHeight="1" spans="1:7">
       <c r="A130" s="3">
-        <v>128</v>
-      </c>
-      <c r="B130" s="4">
         <v>0.6397</v>
       </c>
-      <c r="C130" s="4">
+      <c r="B130" s="3">
         <v>0.5366</v>
       </c>
-      <c r="D130" s="4">
+      <c r="C130" s="3">
         <v>0.8929</v>
       </c>
-      <c r="E130" s="4">
+      <c r="D130" s="3">
         <v>0.9061</v>
       </c>
-      <c r="F130" s="4">
+      <c r="E130" s="3">
         <v>0.9071</v>
       </c>
-      <c r="G130" s="4">
+      <c r="F130" s="3">
         <v>0.907</v>
       </c>
-      <c r="H130" s="4">
+      <c r="G130" s="3">
         <v>0.9125</v>
       </c>
     </row>
-    <row r="131" ht="19.5" customHeight="1" spans="1:8">
+    <row r="131" ht="19.5" customHeight="1" spans="1:7">
       <c r="A131" s="3">
-        <v>129</v>
-      </c>
-      <c r="B131" s="4">
         <v>0.6387</v>
       </c>
-      <c r="C131" s="4">
+      <c r="B131" s="3">
         <v>0.5386</v>
       </c>
-      <c r="D131" s="4">
+      <c r="C131" s="3">
         <v>0.8964</v>
       </c>
-      <c r="E131" s="4">
+      <c r="D131" s="3">
         <v>0.9063</v>
       </c>
-      <c r="F131" s="4">
+      <c r="E131" s="3">
         <v>0.9085</v>
       </c>
-      <c r="G131" s="4">
+      <c r="F131" s="3">
         <v>0.9107</v>
       </c>
-      <c r="H131" s="4">
+      <c r="G131" s="3">
         <v>0.9154</v>
       </c>
     </row>
-    <row r="132" ht="19.5" customHeight="1" spans="1:8">
+    <row r="132" ht="19.5" customHeight="1" spans="1:7">
       <c r="A132" s="3">
-        <v>130</v>
-      </c>
-      <c r="B132" s="4">
         <v>0.6454</v>
       </c>
-      <c r="C132" s="4">
+      <c r="B132" s="3">
         <v>0.5353</v>
       </c>
-      <c r="D132" s="4">
+      <c r="C132" s="3">
         <v>0.8965</v>
       </c>
-      <c r="E132" s="4">
+      <c r="D132" s="3">
         <v>0.904</v>
       </c>
-      <c r="F132" s="4">
+      <c r="E132" s="3">
         <v>0.9055</v>
       </c>
-      <c r="G132" s="4">
+      <c r="F132" s="3">
         <v>0.9079</v>
       </c>
-      <c r="H132" s="4">
+      <c r="G132" s="3">
         <v>0.9135</v>
       </c>
     </row>
-    <row r="133" ht="19.5" customHeight="1" spans="1:8">
+    <row r="133" ht="19.5" customHeight="1" spans="1:7">
       <c r="A133" s="3">
-        <v>131</v>
-      </c>
-      <c r="B133" s="4">
         <v>0.6406</v>
       </c>
-      <c r="C133" s="4">
+      <c r="B133" s="3">
         <v>0.5369</v>
       </c>
-      <c r="D133" s="4">
+      <c r="C133" s="3">
         <v>0.894</v>
       </c>
-      <c r="E133" s="4">
+      <c r="D133" s="3">
         <v>0.9039</v>
       </c>
-      <c r="F133" s="4">
+      <c r="E133" s="3">
         <v>0.9026</v>
       </c>
-      <c r="G133" s="4">
+      <c r="F133" s="3">
         <v>0.9135</v>
       </c>
-      <c r="H133" s="4">
+      <c r="G133" s="3">
         <v>0.9142</v>
       </c>
     </row>
-    <row r="134" ht="19.5" customHeight="1" spans="1:8">
+    <row r="134" ht="19.5" customHeight="1" spans="1:7">
       <c r="A134" s="3">
-        <v>132</v>
-      </c>
-      <c r="B134" s="4">
         <v>0.6413</v>
       </c>
-      <c r="C134" s="4">
+      <c r="B134" s="3">
         <v>0.5346</v>
       </c>
-      <c r="D134" s="4">
+      <c r="C134" s="3">
         <v>0.8962</v>
       </c>
-      <c r="E134" s="4">
+      <c r="D134" s="3">
         <v>0.9075</v>
       </c>
-      <c r="F134" s="4">
+      <c r="E134" s="3">
         <v>0.9048</v>
       </c>
-      <c r="G134" s="4">
+      <c r="F134" s="3">
         <v>0.9098</v>
       </c>
-      <c r="H134" s="4">
+      <c r="G134" s="3">
         <v>0.9118</v>
       </c>
     </row>
-    <row r="135" ht="19.5" customHeight="1" spans="1:8">
+    <row r="135" ht="19.5" customHeight="1" spans="1:7">
       <c r="A135" s="3">
-        <v>133</v>
-      </c>
-      <c r="B135" s="4">
         <v>0.6423</v>
       </c>
-      <c r="C135" s="4">
+      <c r="B135" s="3">
         <v>0.5359</v>
       </c>
-      <c r="D135" s="4">
+      <c r="C135" s="3">
         <v>0.8955</v>
       </c>
-      <c r="E135" s="4">
+      <c r="D135" s="3">
         <v>0.9086</v>
       </c>
-      <c r="F135" s="4">
+      <c r="E135" s="3">
         <v>0.9074</v>
       </c>
-      <c r="G135" s="4">
+      <c r="F135" s="3">
         <v>0.9097</v>
       </c>
-      <c r="H135" s="4">
+      <c r="G135" s="3">
         <v>0.9135</v>
       </c>
     </row>
-    <row r="136" ht="19.5" customHeight="1" spans="1:8">
+    <row r="136" ht="19.5" customHeight="1" spans="1:7">
       <c r="A136" s="3">
-        <v>134</v>
-      </c>
-      <c r="B136" s="4">
         <v>0.639</v>
       </c>
-      <c r="C136" s="4">
+      <c r="B136" s="3">
         <v>0.5375</v>
       </c>
-      <c r="D136" s="4">
+      <c r="C136" s="3">
         <v>0.8997</v>
       </c>
-      <c r="E136" s="4">
+      <c r="D136" s="3">
         <v>0.9022</v>
       </c>
-      <c r="F136" s="4">
+      <c r="E136" s="3">
         <v>0.9061</v>
       </c>
-      <c r="G136" s="4">
+      <c r="F136" s="3">
         <v>0.9085</v>
       </c>
-      <c r="H136" s="4">
+      <c r="G136" s="3">
         <v>0.9098</v>
       </c>
     </row>
-    <row r="137" ht="19.5" customHeight="1" spans="1:8">
+    <row r="137" ht="19.5" customHeight="1" spans="1:7">
       <c r="A137" s="3">
-        <v>135</v>
-      </c>
-      <c r="B137" s="4">
         <v>0.6384</v>
       </c>
-      <c r="C137" s="4">
+      <c r="B137" s="3">
         <v>0.5342</v>
       </c>
-      <c r="D137" s="4">
+      <c r="C137" s="3">
         <v>0.897</v>
       </c>
-      <c r="E137" s="4">
+      <c r="D137" s="3">
         <v>0.9065</v>
       </c>
-      <c r="F137" s="4">
+      <c r="E137" s="3">
         <v>0.906</v>
       </c>
-      <c r="G137" s="4">
+      <c r="F137" s="3">
         <v>0.9075</v>
       </c>
-      <c r="H137" s="4">
+      <c r="G137" s="3">
         <v>0.9135</v>
       </c>
     </row>
-    <row r="138" ht="19.5" customHeight="1" spans="1:8">
+    <row r="138" ht="19.5" customHeight="1" spans="1:7">
       <c r="A138" s="3">
-        <v>136</v>
-      </c>
-      <c r="B138" s="4">
         <v>0.6386</v>
       </c>
-      <c r="C138" s="4">
+      <c r="B138" s="3">
         <v>0.5335</v>
       </c>
-      <c r="D138" s="4">
+      <c r="C138" s="3">
         <v>0.894</v>
       </c>
-      <c r="E138" s="4">
+      <c r="D138" s="3">
         <v>0.9049</v>
       </c>
-      <c r="F138" s="4">
+      <c r="E138" s="3">
         <v>0.9075</v>
       </c>
-      <c r="G138" s="4">
+      <c r="F138" s="3">
         <v>0.9092</v>
       </c>
-      <c r="H138" s="4">
+      <c r="G138" s="3">
         <v>0.9097</v>
       </c>
     </row>
-    <row r="139" ht="19.5" customHeight="1" spans="1:8">
+    <row r="139" ht="19.5" customHeight="1" spans="1:7">
       <c r="A139" s="3">
-        <v>137</v>
-      </c>
-      <c r="B139" s="4">
         <v>0.6368</v>
       </c>
-      <c r="C139" s="4">
+      <c r="B139" s="3">
         <v>0.5358</v>
       </c>
-      <c r="D139" s="4">
+      <c r="C139" s="3">
         <v>0.8948</v>
       </c>
-      <c r="E139" s="4">
+      <c r="D139" s="3">
         <v>0.9035</v>
       </c>
-      <c r="F139" s="4">
+      <c r="E139" s="3">
         <v>0.9079</v>
       </c>
-      <c r="G139" s="4">
+      <c r="F139" s="3">
         <v>0.9121</v>
       </c>
-      <c r="H139" s="4">
+      <c r="G139" s="3">
         <v>0.9122</v>
       </c>
     </row>
-    <row r="140" ht="19.5" customHeight="1" spans="1:8">
+    <row r="140" ht="19.5" customHeight="1" spans="1:7">
       <c r="A140" s="3">
-        <v>138</v>
-      </c>
-      <c r="B140" s="4">
         <v>0.6403</v>
       </c>
-      <c r="C140" s="4">
+      <c r="B140" s="3">
         <v>0.5199</v>
       </c>
-      <c r="D140" s="4">
+      <c r="C140" s="3">
         <v>0.8994</v>
       </c>
-      <c r="E140" s="4">
+      <c r="D140" s="3">
         <v>0.9077</v>
       </c>
-      <c r="F140" s="4">
+      <c r="E140" s="3">
         <v>0.9052</v>
       </c>
-      <c r="G140" s="4">
+      <c r="F140" s="3">
         <v>0.9123</v>
       </c>
-      <c r="H140" s="4">
+      <c r="G140" s="3">
         <v>0.9119</v>
       </c>
     </row>
-    <row r="141" ht="19.5" customHeight="1" spans="1:8">
+    <row r="141" ht="19.5" customHeight="1" spans="1:7">
       <c r="A141" s="3">
-        <v>139</v>
-      </c>
-      <c r="B141" s="4">
         <v>0.6352</v>
       </c>
-      <c r="C141" s="4">
+      <c r="B141" s="3">
         <v>0.5311</v>
       </c>
-      <c r="D141" s="4">
+      <c r="C141" s="3">
         <v>0.8962</v>
       </c>
-      <c r="E141" s="4">
+      <c r="D141" s="3">
         <v>0.9048</v>
       </c>
-      <c r="F141" s="4">
+      <c r="E141" s="3">
         <v>0.9071</v>
       </c>
-      <c r="G141" s="4">
+      <c r="F141" s="3">
         <v>0.9085</v>
       </c>
-      <c r="H141" s="4">
+      <c r="G141" s="3">
         <v>0.9123</v>
       </c>
     </row>
-    <row r="142" ht="19.5" customHeight="1" spans="1:8">
+    <row r="142" ht="19.5" customHeight="1" spans="1:7">
       <c r="A142" s="3">
-        <v>140</v>
-      </c>
-      <c r="B142" s="4">
         <v>0.6335</v>
       </c>
-      <c r="C142" s="4">
+      <c r="B142" s="3">
         <v>0.5325</v>
       </c>
-      <c r="D142" s="4">
+      <c r="C142" s="3">
         <v>0.8923</v>
       </c>
-      <c r="E142" s="4">
+      <c r="D142" s="3">
         <v>0.9059</v>
       </c>
-      <c r="F142" s="4">
+      <c r="E142" s="3">
         <v>0.9026</v>
       </c>
-      <c r="G142" s="4">
+      <c r="F142" s="3">
         <v>0.9116</v>
       </c>
-      <c r="H142" s="4">
+      <c r="G142" s="3">
         <v>0.9128</v>
       </c>
     </row>
-    <row r="143" ht="19.5" customHeight="1" spans="1:8">
+    <row r="143" ht="19.5" customHeight="1" spans="1:7">
       <c r="A143" s="3">
-        <v>141</v>
-      </c>
-      <c r="B143" s="4">
         <v>0.6384</v>
       </c>
-      <c r="C143" s="4">
+      <c r="B143" s="3">
         <v>0.5291</v>
       </c>
-      <c r="D143" s="4">
+      <c r="C143" s="3">
         <v>0.8958</v>
       </c>
-      <c r="E143" s="4">
+      <c r="D143" s="3">
         <v>0.903</v>
       </c>
-      <c r="F143" s="4">
+      <c r="E143" s="3">
         <v>0.9042</v>
       </c>
-      <c r="G143" s="4">
+      <c r="F143" s="3">
         <v>0.9077</v>
       </c>
-      <c r="H143" s="4">
+      <c r="G143" s="3">
         <v>0.9141</v>
       </c>
     </row>
-    <row r="144" ht="19.5" customHeight="1" spans="1:8">
+    <row r="144" ht="19.5" customHeight="1" spans="1:7">
       <c r="A144" s="3">
-        <v>142</v>
-      </c>
-      <c r="B144" s="4">
         <v>0.6345</v>
       </c>
-      <c r="C144" s="4">
+      <c r="B144" s="3">
         <v>0.5302</v>
       </c>
-      <c r="D144" s="4">
+      <c r="C144" s="3">
         <v>0.8929</v>
       </c>
-      <c r="E144" s="4">
+      <c r="D144" s="3">
         <v>0.9058</v>
       </c>
-      <c r="F144" s="4">
+      <c r="E144" s="3">
         <v>0.9072</v>
       </c>
-      <c r="G144" s="4">
+      <c r="F144" s="3">
         <v>0.9084</v>
       </c>
-      <c r="H144" s="4">
+      <c r="G144" s="3">
         <v>0.9146</v>
       </c>
     </row>
-    <row r="145" ht="19.5" customHeight="1" spans="1:8">
+    <row r="145" ht="19.5" customHeight="1" spans="1:7">
       <c r="A145" s="3">
-        <v>143</v>
-      </c>
-      <c r="B145" s="4">
         <v>0.6338</v>
       </c>
-      <c r="C145" s="4">
+      <c r="B145" s="3">
         <v>0.5318</v>
       </c>
-      <c r="D145" s="4">
+      <c r="C145" s="3">
         <v>0.8953</v>
       </c>
-      <c r="E145" s="4">
+      <c r="D145" s="3">
         <v>0.9063</v>
       </c>
-      <c r="F145" s="4">
+      <c r="E145" s="3">
         <v>0.9039</v>
       </c>
-      <c r="G145" s="4">
+      <c r="F145" s="3">
         <v>0.9069</v>
       </c>
-      <c r="H145" s="4">
+      <c r="G145" s="3">
         <v>0.9128</v>
       </c>
     </row>
-    <row r="146" ht="19.5" customHeight="1" spans="1:8">
+    <row r="146" ht="19.5" customHeight="1" spans="1:7">
       <c r="A146" s="3">
-        <v>144</v>
-      </c>
-      <c r="B146" s="4">
         <v>0.6353</v>
       </c>
-      <c r="C146" s="4">
+      <c r="B146" s="3">
         <v>0.5279</v>
       </c>
-      <c r="D146" s="4">
+      <c r="C146" s="3">
         <v>0.8966</v>
       </c>
-      <c r="E146" s="4">
+      <c r="D146" s="3">
         <v>0.9014</v>
       </c>
-      <c r="F146" s="4">
+      <c r="E146" s="3">
         <v>0.9048</v>
       </c>
-      <c r="G146" s="4">
+      <c r="F146" s="3">
         <v>0.9096</v>
       </c>
-      <c r="H146" s="4">
+      <c r="G146" s="3">
         <v>0.913</v>
       </c>
     </row>
-    <row r="147" ht="19.5" customHeight="1" spans="1:8">
+    <row r="147" ht="19.5" customHeight="1" spans="1:7">
       <c r="A147" s="3">
-        <v>145</v>
-      </c>
-      <c r="B147" s="4">
         <v>0.6297</v>
       </c>
-      <c r="C147" s="4">
+      <c r="B147" s="3">
         <v>0.5311</v>
       </c>
-      <c r="D147" s="4">
+      <c r="C147" s="3">
         <v>0.8942</v>
       </c>
-      <c r="E147" s="4">
+      <c r="D147" s="3">
         <v>0.9045</v>
       </c>
-      <c r="F147" s="4">
+      <c r="E147" s="3">
         <v>0.904</v>
       </c>
-      <c r="G147" s="4">
+      <c r="F147" s="3">
         <v>0.9088</v>
       </c>
-      <c r="H147" s="4">
+      <c r="G147" s="3">
         <v>0.9127</v>
       </c>
     </row>
-    <row r="148" ht="19.5" customHeight="1" spans="1:8">
+    <row r="148" ht="19.5" customHeight="1" spans="1:7">
       <c r="A148" s="3">
-        <v>146</v>
-      </c>
-      <c r="B148" s="4">
         <v>0.6335</v>
       </c>
-      <c r="C148" s="4">
+      <c r="B148" s="3">
         <v>0.5325</v>
       </c>
-      <c r="D148" s="4">
+      <c r="C148" s="3">
         <v>0.8939</v>
       </c>
-      <c r="E148" s="4">
+      <c r="D148" s="3">
         <v>0.9027</v>
       </c>
-      <c r="F148" s="4">
+      <c r="E148" s="3">
         <v>0.9053</v>
       </c>
-      <c r="G148" s="4">
+      <c r="F148" s="3">
         <v>0.9062</v>
       </c>
-      <c r="H148" s="4">
+      <c r="G148" s="3">
         <v>0.9108</v>
       </c>
     </row>
-    <row r="149" ht="19.5" customHeight="1" spans="1:8">
+    <row r="149" ht="19.5" customHeight="1" spans="1:7">
       <c r="A149" s="3">
-        <v>147</v>
-      </c>
-      <c r="B149" s="4">
         <v>0.63</v>
       </c>
-      <c r="C149" s="4">
+      <c r="B149" s="3">
         <v>0.5322</v>
       </c>
-      <c r="D149" s="4">
+      <c r="C149" s="3">
         <v>0.8939</v>
       </c>
-      <c r="E149" s="4">
+      <c r="D149" s="3">
         <v>0.9033</v>
       </c>
-      <c r="F149" s="4">
+      <c r="E149" s="3">
         <v>0.9054</v>
       </c>
-      <c r="G149" s="4">
+      <c r="F149" s="3">
         <v>0.907</v>
       </c>
-      <c r="H149" s="4">
+      <c r="G149" s="3">
         <v>0.9081</v>
       </c>
     </row>
-    <row r="150" ht="19.5" customHeight="1" spans="1:8">
+    <row r="150" ht="19.5" customHeight="1" spans="1:7">
       <c r="A150" s="3">
-        <v>148</v>
-      </c>
-      <c r="B150" s="4">
         <v>0.6313</v>
       </c>
-      <c r="C150" s="4">
+      <c r="B150" s="3">
         <v>0.5294</v>
       </c>
-      <c r="D150" s="4">
+      <c r="C150" s="3">
         <v>0.896</v>
       </c>
-      <c r="E150" s="4">
+      <c r="D150" s="3">
         <v>0.9063</v>
       </c>
-      <c r="F150" s="4">
+      <c r="E150" s="3">
         <v>0.9069</v>
       </c>
-      <c r="G150" s="4">
+      <c r="F150" s="3">
         <v>0.9078</v>
       </c>
-      <c r="H150" s="4">
+      <c r="G150" s="3">
         <v>0.9099</v>
       </c>
     </row>
-    <row r="151" ht="19.5" customHeight="1" spans="1:8">
+    <row r="151" ht="19.5" customHeight="1" spans="1:7">
       <c r="A151" s="3">
-        <v>149</v>
-      </c>
-      <c r="B151" s="4">
         <v>0.6337</v>
       </c>
-      <c r="C151" s="4">
+      <c r="B151" s="3">
         <v>0.5293</v>
       </c>
-      <c r="D151" s="4">
+      <c r="C151" s="3">
         <v>0.8909</v>
       </c>
-      <c r="E151" s="4">
+      <c r="D151" s="3">
         <v>0.9028</v>
       </c>
-      <c r="F151" s="4">
+      <c r="E151" s="3">
         <v>0.9071</v>
       </c>
-      <c r="G151" s="4">
+      <c r="F151" s="3">
         <v>0.9096</v>
       </c>
-      <c r="H151" s="4">
+      <c r="G151" s="3">
         <v>0.9071</v>
       </c>
     </row>
-    <row r="152" ht="19.5" customHeight="1" spans="1:8">
+    <row r="152" ht="19.5" customHeight="1" spans="1:7">
       <c r="A152" s="3">
-        <v>150</v>
-      </c>
-      <c r="B152" s="4">
         <v>0.6332</v>
       </c>
-      <c r="C152" s="4">
+      <c r="B152" s="3">
         <v>0.5307</v>
       </c>
-      <c r="D152" s="4">
+      <c r="C152" s="3">
         <v>0.8944</v>
       </c>
-      <c r="E152" s="4">
+      <c r="D152" s="3">
         <v>0.9054</v>
       </c>
-      <c r="F152" s="4">
+      <c r="E152" s="3">
         <v>0.9048</v>
       </c>
-      <c r="G152" s="4">
+      <c r="F152" s="3">
         <v>0.9088</v>
       </c>
-      <c r="H152" s="4">
+      <c r="G152" s="3">
         <v>0.9076</v>
       </c>
     </row>
-    <row r="153" ht="19.5" customHeight="1" spans="1:8">
+    <row r="153" ht="19.5" customHeight="1" spans="1:7">
       <c r="A153" s="3">
-        <v>151</v>
-      </c>
-      <c r="B153" s="4">
         <v>0.6316</v>
       </c>
-      <c r="C153" s="4">
+      <c r="B153" s="3">
         <v>0.5304</v>
       </c>
-      <c r="D153" s="4">
+      <c r="C153" s="3">
         <v>0.8961</v>
       </c>
-      <c r="E153" s="4">
+      <c r="D153" s="3">
         <v>0.9057</v>
       </c>
-      <c r="F153" s="4">
+      <c r="E153" s="3">
         <v>0.9078</v>
       </c>
-      <c r="G153" s="4">
+      <c r="F153" s="3">
         <v>0.9111</v>
       </c>
-      <c r="H153" s="4">
+      <c r="G153" s="3">
         <v>0.9092</v>
       </c>
     </row>
-    <row r="154" ht="19.5" customHeight="1" spans="1:8">
+    <row r="154" ht="19.5" customHeight="1" spans="1:7">
       <c r="A154" s="3">
-        <v>152</v>
-      </c>
-      <c r="B154" s="4">
         <v>0.6352</v>
       </c>
-      <c r="C154" s="4">
+      <c r="B154" s="3">
         <v>0.5252</v>
       </c>
-      <c r="D154" s="4">
+      <c r="C154" s="3">
         <v>0.8923</v>
       </c>
-      <c r="E154" s="4">
+      <c r="D154" s="3">
         <v>0.9072</v>
       </c>
-      <c r="F154" s="4">
+      <c r="E154" s="3">
         <v>0.9057</v>
       </c>
-      <c r="G154" s="4">
+      <c r="F154" s="3">
         <v>0.9075</v>
       </c>
-      <c r="H154" s="4">
+      <c r="G154" s="3">
         <v>0.9122</v>
       </c>
     </row>
-    <row r="155" ht="19.5" customHeight="1" spans="1:8">
+    <row r="155" ht="19.5" customHeight="1" spans="1:7">
       <c r="A155" s="3">
-        <v>153</v>
-      </c>
-      <c r="B155" s="4">
         <v>0.6326</v>
       </c>
-      <c r="C155" s="4">
+      <c r="B155" s="3">
         <v>0.5273</v>
       </c>
-      <c r="D155" s="4">
+      <c r="C155" s="3">
         <v>0.8953</v>
       </c>
-      <c r="E155" s="4">
+      <c r="D155" s="3">
         <v>0.9029</v>
       </c>
-      <c r="F155" s="4">
+      <c r="E155" s="3">
         <v>0.9062</v>
       </c>
-      <c r="G155" s="4">
+      <c r="F155" s="3">
         <v>0.9099</v>
       </c>
-      <c r="H155" s="4">
+      <c r="G155" s="3">
         <v>0.9121</v>
       </c>
     </row>
-    <row r="156" ht="19.5" customHeight="1" spans="1:8">
+    <row r="156" ht="19.5" customHeight="1" spans="1:7">
       <c r="A156" s="3">
-        <v>154</v>
-      </c>
-      <c r="B156" s="4">
         <v>0.6286</v>
       </c>
-      <c r="C156" s="4">
+      <c r="B156" s="3">
         <v>0.5275</v>
       </c>
-      <c r="D156" s="4">
+      <c r="C156" s="3">
         <v>0.8966</v>
       </c>
-      <c r="E156" s="4">
+      <c r="D156" s="3">
         <v>0.9058</v>
       </c>
-      <c r="F156" s="4">
+      <c r="E156" s="3">
         <v>0.9045</v>
       </c>
-      <c r="G156" s="4">
+      <c r="F156" s="3">
         <v>0.9095</v>
       </c>
-      <c r="H156" s="4">
+      <c r="G156" s="3">
         <v>0.9099</v>
       </c>
     </row>
-    <row r="157" ht="19.5" customHeight="1" spans="1:8">
+    <row r="157" ht="19.5" customHeight="1" spans="1:7">
       <c r="A157" s="3">
-        <v>155</v>
-      </c>
-      <c r="B157" s="4">
         <v>0.6296</v>
       </c>
-      <c r="C157" s="4">
+      <c r="B157" s="3">
         <v>0.5316</v>
       </c>
-      <c r="D157" s="4">
+      <c r="C157" s="3">
         <v>0.8973</v>
       </c>
-      <c r="E157" s="4">
+      <c r="D157" s="3">
         <v>0.9036</v>
       </c>
-      <c r="F157" s="4">
+      <c r="E157" s="3">
         <v>0.9049</v>
       </c>
-      <c r="G157" s="4">
+      <c r="F157" s="3">
         <v>0.9082</v>
       </c>
-      <c r="H157" s="4">
+      <c r="G157" s="3">
         <v>0.9109</v>
       </c>
     </row>
-    <row r="158" ht="19.5" customHeight="1" spans="1:8">
+    <row r="158" ht="19.5" customHeight="1" spans="1:7">
       <c r="A158" s="3">
-        <v>156</v>
-      </c>
-      <c r="B158" s="4">
         <v>0.6288</v>
       </c>
-      <c r="C158" s="4">
+      <c r="B158" s="3">
         <v>0.5263</v>
       </c>
-      <c r="D158" s="4">
+      <c r="C158" s="3">
         <v>0.8964</v>
       </c>
-      <c r="E158" s="4">
+      <c r="D158" s="3">
         <v>0.9013</v>
       </c>
-      <c r="F158" s="4">
+      <c r="E158" s="3">
         <v>0.9052</v>
       </c>
-      <c r="G158" s="4">
+      <c r="F158" s="3">
         <v>0.9069</v>
       </c>
-      <c r="H158" s="4">
+      <c r="G158" s="3">
         <v>0.9161</v>
       </c>
     </row>
-    <row r="159" ht="19.5" customHeight="1" spans="1:8">
+    <row r="159" ht="19.5" customHeight="1" spans="1:7">
       <c r="A159" s="3">
-        <v>157</v>
-      </c>
-      <c r="B159" s="4">
         <v>0.6251</v>
       </c>
-      <c r="C159" s="4">
+      <c r="B159" s="3">
         <v>0.5265</v>
       </c>
-      <c r="D159" s="4">
+      <c r="C159" s="3">
         <v>0.8908</v>
       </c>
-      <c r="E159" s="4">
+      <c r="D159" s="3">
         <v>0.9012</v>
       </c>
-      <c r="F159" s="4">
+      <c r="E159" s="3">
         <v>0.9025</v>
       </c>
-      <c r="G159" s="4">
+      <c r="F159" s="3">
         <v>0.907</v>
       </c>
-      <c r="H159" s="4">
+      <c r="G159" s="3">
         <v>0.9142</v>
       </c>
     </row>
-    <row r="160" ht="19.5" customHeight="1" spans="1:8">
+    <row r="160" ht="19.5" customHeight="1" spans="1:7">
       <c r="A160" s="3">
-        <v>158</v>
-      </c>
-      <c r="B160" s="4">
         <v>0.6296</v>
       </c>
-      <c r="C160" s="4">
+      <c r="B160" s="3">
         <v>0.5263</v>
       </c>
-      <c r="D160" s="4">
+      <c r="C160" s="3">
         <v>0.8913</v>
       </c>
-      <c r="E160" s="4">
+      <c r="D160" s="3">
         <v>0.9006</v>
       </c>
-      <c r="F160" s="4">
+      <c r="E160" s="3">
         <v>0.9032</v>
       </c>
-      <c r="G160" s="4">
+      <c r="F160" s="3">
         <v>0.9085</v>
       </c>
-      <c r="H160" s="4">
+      <c r="G160" s="3">
         <v>0.9111</v>
       </c>
     </row>
-    <row r="161" ht="19.5" customHeight="1" spans="1:8">
+    <row r="161" ht="19.5" customHeight="1" spans="1:7">
       <c r="A161" s="3">
-        <v>159</v>
-      </c>
-      <c r="B161" s="4">
         <v>0.626</v>
       </c>
-      <c r="C161" s="4">
+      <c r="B161" s="3">
         <v>0.5271</v>
       </c>
-      <c r="D161" s="4">
+      <c r="C161" s="3">
         <v>0.8946</v>
       </c>
-      <c r="E161" s="4">
+      <c r="D161" s="3">
         <v>0.9059</v>
       </c>
-      <c r="F161" s="4">
+      <c r="E161" s="3">
         <v>0.9017</v>
       </c>
-      <c r="G161" s="4">
+      <c r="F161" s="3">
         <v>0.909</v>
       </c>
-      <c r="H161" s="4">
+      <c r="G161" s="3">
         <v>0.9079</v>
       </c>
     </row>
-    <row r="162" ht="19.5" customHeight="1" spans="1:8">
+    <row r="162" ht="19.5" customHeight="1" spans="1:7">
       <c r="A162" s="3">
-        <v>160</v>
-      </c>
-      <c r="B162" s="4">
         <v>0.6276</v>
       </c>
-      <c r="C162" s="4">
+      <c r="B162" s="3">
         <v>0.5291</v>
       </c>
-      <c r="D162" s="4">
+      <c r="C162" s="3">
         <v>0.8919</v>
       </c>
-      <c r="E162" s="4">
+      <c r="D162" s="3">
         <v>0.9027</v>
       </c>
-      <c r="F162" s="4">
+      <c r="E162" s="3">
         <v>0.9044</v>
       </c>
-      <c r="G162" s="4">
+      <c r="F162" s="3">
         <v>0.904</v>
       </c>
-      <c r="H162" s="4">
+      <c r="G162" s="3">
         <v>0.9078</v>
       </c>
     </row>
-    <row r="163" ht="19.5" customHeight="1" spans="1:8">
+    <row r="163" ht="19.5" customHeight="1" spans="1:7">
       <c r="A163" s="3">
-        <v>161</v>
-      </c>
-      <c r="B163" s="4">
         <v>0.6299</v>
       </c>
-      <c r="C163" s="4">
+      <c r="B163" s="3">
         <v>0.5103</v>
       </c>
-      <c r="D163" s="4">
+      <c r="C163" s="3">
         <v>0.8932</v>
       </c>
-      <c r="E163" s="4">
+      <c r="D163" s="3">
         <v>0.9045</v>
       </c>
-      <c r="F163" s="4">
+      <c r="E163" s="3">
         <v>0.9054</v>
       </c>
-      <c r="G163" s="4">
+      <c r="F163" s="3">
         <v>0.9058</v>
       </c>
-      <c r="H163" s="4">
+      <c r="G163" s="3">
         <v>0.9131</v>
       </c>
     </row>
-    <row r="164" ht="19.5" customHeight="1" spans="1:8">
+    <row r="164" ht="19.5" customHeight="1" spans="1:7">
       <c r="A164" s="3">
-        <v>162</v>
-      </c>
-      <c r="B164" s="4">
         <v>0.6252</v>
       </c>
-      <c r="C164" s="4">
+      <c r="B164" s="3">
         <v>0.51</v>
       </c>
-      <c r="D164" s="4">
+      <c r="C164" s="3">
         <v>0.8954</v>
       </c>
-      <c r="E164" s="4">
+      <c r="D164" s="3">
         <v>0.9042</v>
       </c>
-      <c r="F164" s="4">
+      <c r="E164" s="3">
         <v>0.9018</v>
       </c>
-      <c r="G164" s="4">
+      <c r="F164" s="3">
         <v>0.9073</v>
       </c>
-      <c r="H164" s="4">
+      <c r="G164" s="3">
         <v>0.9135</v>
       </c>
     </row>
-    <row r="165" ht="19.5" customHeight="1" spans="1:8">
+    <row r="165" ht="19.5" customHeight="1" spans="1:7">
       <c r="A165" s="3">
-        <v>163</v>
-      </c>
-      <c r="B165" s="4">
         <v>0.6252</v>
       </c>
-      <c r="C165" s="4">
+      <c r="B165" s="3">
         <v>0.5246</v>
       </c>
-      <c r="D165" s="4">
+      <c r="C165" s="3">
         <v>0.8959</v>
       </c>
-      <c r="E165" s="4">
+      <c r="D165" s="3">
         <v>0.9057</v>
       </c>
-      <c r="F165" s="4">
+      <c r="E165" s="3">
         <v>0.9047</v>
       </c>
-      <c r="G165" s="4">
+      <c r="F165" s="3">
         <v>0.9088</v>
       </c>
-      <c r="H165" s="4">
+      <c r="G165" s="3">
         <v>0.9112</v>
       </c>
     </row>
-    <row r="166" ht="19.5" customHeight="1" spans="1:8">
+    <row r="166" ht="19.5" customHeight="1" spans="1:7">
       <c r="A166" s="3">
-        <v>164</v>
-      </c>
-      <c r="B166" s="4">
         <v>0.6263</v>
       </c>
-      <c r="C166" s="4">
+      <c r="B166" s="3">
         <v>0.5242</v>
       </c>
-      <c r="D166" s="4">
+      <c r="C166" s="3">
         <v>0.8947</v>
       </c>
-      <c r="E166" s="4">
+      <c r="D166" s="3">
         <v>0.904</v>
       </c>
-      <c r="F166" s="4">
+      <c r="E166" s="3">
         <v>0.9061</v>
       </c>
-      <c r="G166" s="4">
+      <c r="F166" s="3">
         <v>0.9077</v>
       </c>
-      <c r="H166" s="4">
+      <c r="G166" s="3">
         <v>0.9116</v>
       </c>
     </row>
-    <row r="167" ht="19.5" customHeight="1" spans="1:8">
+    <row r="167" ht="19.5" customHeight="1" spans="1:7">
       <c r="A167" s="3">
-        <v>165</v>
-      </c>
-      <c r="B167" s="4">
         <v>0.6272</v>
       </c>
-      <c r="C167" s="4">
+      <c r="B167" s="3">
         <v>0.5249</v>
       </c>
-      <c r="D167" s="4">
+      <c r="C167" s="3">
         <v>0.8905</v>
       </c>
-      <c r="E167" s="4">
+      <c r="D167" s="3">
         <v>0.9029</v>
       </c>
-      <c r="F167" s="4">
+      <c r="E167" s="3">
         <v>0.9019</v>
       </c>
-      <c r="G167" s="4">
+      <c r="F167" s="3">
         <v>0.9082</v>
       </c>
-      <c r="H167" s="4">
+      <c r="G167" s="3">
         <v>0.9066</v>
       </c>
     </row>
-    <row r="168" ht="19.5" customHeight="1" spans="1:8">
+    <row r="168" ht="19.5" customHeight="1" spans="1:7">
       <c r="A168" s="3">
-        <v>166</v>
-      </c>
-      <c r="B168" s="4">
         <v>0.628</v>
       </c>
-      <c r="C168" s="4">
+      <c r="B168" s="3">
         <v>0.5231</v>
       </c>
-      <c r="D168" s="4">
+      <c r="C168" s="3">
         <v>0.8907</v>
       </c>
-      <c r="E168" s="4">
+      <c r="D168" s="3">
         <v>0.9079</v>
       </c>
-      <c r="F168" s="4">
+      <c r="E168" s="3">
         <v>0.905</v>
       </c>
-      <c r="G168" s="4">
+      <c r="F168" s="3">
         <v>0.9091</v>
       </c>
-      <c r="H168" s="4">
+      <c r="G168" s="3">
         <v>0.9123</v>
       </c>
     </row>
-    <row r="169" ht="19.5" customHeight="1" spans="1:8">
+    <row r="169" ht="19.5" customHeight="1" spans="1:7">
       <c r="A169" s="3">
-        <v>167</v>
-      </c>
-      <c r="B169" s="4">
         <v>0.6288</v>
       </c>
-      <c r="C169" s="4">
+      <c r="B169" s="3">
         <v>0.5254</v>
       </c>
-      <c r="D169" s="4">
+      <c r="C169" s="3">
         <v>0.8925</v>
       </c>
-      <c r="E169" s="4">
+      <c r="D169" s="3">
         <v>0.9058</v>
       </c>
-      <c r="F169" s="4">
+      <c r="E169" s="3">
         <v>0.9068</v>
       </c>
-      <c r="G169" s="4">
+      <c r="F169" s="3">
         <v>0.9076</v>
       </c>
-      <c r="H169" s="4">
+      <c r="G169" s="3">
         <v>0.912</v>
       </c>
     </row>
-    <row r="170" ht="19.5" customHeight="1" spans="1:8">
+    <row r="170" ht="19.5" customHeight="1" spans="1:7">
       <c r="A170" s="3">
-        <v>168</v>
-      </c>
-      <c r="B170" s="4">
         <v>0.6306</v>
       </c>
-      <c r="C170" s="4">
+      <c r="B170" s="3">
         <v>0.5209</v>
       </c>
-      <c r="D170" s="4">
+      <c r="C170" s="3">
         <v>0.8961</v>
       </c>
-      <c r="E170" s="4">
+      <c r="D170" s="3">
         <v>0.9033</v>
       </c>
-      <c r="F170" s="4">
+      <c r="E170" s="3">
         <v>0.9047</v>
       </c>
-      <c r="G170" s="4">
+      <c r="F170" s="3">
         <v>0.9042</v>
       </c>
-      <c r="H170" s="4">
+      <c r="G170" s="3">
         <v>0.9091</v>
       </c>
     </row>
-    <row r="171" ht="19.5" customHeight="1" spans="1:8">
+    <row r="171" ht="19.5" customHeight="1" spans="1:7">
       <c r="A171" s="3">
-        <v>169</v>
-      </c>
-      <c r="B171" s="4">
         <v>0.6284</v>
       </c>
-      <c r="C171" s="4">
+      <c r="B171" s="3">
         <v>0.5259</v>
       </c>
-      <c r="D171" s="4">
+      <c r="C171" s="3">
         <v>0.8969</v>
       </c>
-      <c r="E171" s="4">
+      <c r="D171" s="3">
         <v>0.9051</v>
       </c>
-      <c r="F171" s="4">
+      <c r="E171" s="3">
         <v>0.9051</v>
       </c>
-      <c r="G171" s="4">
+      <c r="F171" s="3">
         <v>0.9071</v>
       </c>
-      <c r="H171" s="4">
+      <c r="G171" s="3">
         <v>0.9091</v>
       </c>
     </row>
-    <row r="172" ht="19.5" customHeight="1" spans="1:8">
+    <row r="172" ht="19.5" customHeight="1" spans="1:7">
       <c r="A172" s="3">
-        <v>170</v>
-      </c>
-      <c r="B172" s="4">
         <v>0.6249</v>
       </c>
-      <c r="C172" s="4">
+      <c r="B172" s="3">
         <v>0.5235</v>
       </c>
-      <c r="D172" s="4">
+      <c r="C172" s="3">
         <v>0.8962</v>
       </c>
-      <c r="E172" s="4">
+      <c r="D172" s="3">
         <v>0.9056</v>
       </c>
-      <c r="F172" s="4">
+      <c r="E172" s="3">
         <v>0.9066</v>
       </c>
-      <c r="G172" s="4">
+      <c r="F172" s="3">
         <v>0.9089</v>
       </c>
-      <c r="H172" s="4">
+      <c r="G172" s="3">
         <v>0.9114</v>
       </c>
     </row>
-    <row r="173" ht="19.5" customHeight="1" spans="1:8">
+    <row r="173" ht="19.5" customHeight="1" spans="1:7">
       <c r="A173" s="3">
-        <v>171</v>
-      </c>
-      <c r="B173" s="4">
         <v>0.6268</v>
       </c>
-      <c r="C173" s="4">
+      <c r="B173" s="3">
         <v>0.5239</v>
       </c>
-      <c r="D173" s="4">
+      <c r="C173" s="3">
         <v>0.8898</v>
       </c>
-      <c r="E173" s="4">
+      <c r="D173" s="3">
         <v>0.9021</v>
       </c>
-      <c r="F173" s="4">
+      <c r="E173" s="3">
         <v>0.9051</v>
       </c>
-      <c r="G173" s="4">
+      <c r="F173" s="3">
         <v>0.9085</v>
       </c>
-      <c r="H173" s="4">
+      <c r="G173" s="3">
         <v>0.9079</v>
       </c>
     </row>
-    <row r="174" ht="19.5" customHeight="1" spans="1:8">
+    <row r="174" ht="19.5" customHeight="1" spans="1:7">
       <c r="A174" s="3">
-        <v>172</v>
-      </c>
-      <c r="B174" s="4">
         <v>0.6285</v>
       </c>
-      <c r="C174" s="4">
+      <c r="B174" s="3">
         <v>0.5222</v>
       </c>
-      <c r="D174" s="4">
+      <c r="C174" s="3">
         <v>0.893</v>
       </c>
-      <c r="E174" s="4">
+      <c r="D174" s="3">
         <v>0.9018</v>
       </c>
-      <c r="F174" s="4">
+      <c r="E174" s="3">
         <v>0.9051</v>
       </c>
-      <c r="G174" s="4">
+      <c r="F174" s="3">
         <v>0.9082</v>
       </c>
-      <c r="H174" s="4">
+      <c r="G174" s="3">
         <v>0.9095</v>
       </c>
     </row>
-    <row r="175" ht="19.5" customHeight="1" spans="1:8">
+    <row r="175" ht="19.5" customHeight="1" spans="1:7">
       <c r="A175" s="3">
-        <v>173</v>
-      </c>
-      <c r="B175" s="4">
         <v>0.6233</v>
       </c>
-      <c r="C175" s="4">
+      <c r="B175" s="3">
         <v>0.5251</v>
       </c>
-      <c r="D175" s="4">
+      <c r="C175" s="3">
         <v>0.8934</v>
       </c>
-      <c r="E175" s="4">
+      <c r="D175" s="3">
         <v>0.9046</v>
       </c>
-      <c r="F175" s="4">
+      <c r="E175" s="3">
         <v>0.9072</v>
       </c>
-      <c r="G175" s="4">
+      <c r="F175" s="3">
         <v>0.9076</v>
       </c>
-      <c r="H175" s="4">
+      <c r="G175" s="3">
         <v>0.909</v>
       </c>
     </row>
-    <row r="176" ht="19.5" customHeight="1" spans="1:8">
+    <row r="176" ht="19.5" customHeight="1" spans="1:7">
       <c r="A176" s="3">
-        <v>174</v>
-      </c>
-      <c r="B176" s="4">
         <v>0.6283</v>
       </c>
-      <c r="C176" s="4">
+      <c r="B176" s="3">
         <v>0.5072</v>
       </c>
-      <c r="D176" s="4">
+      <c r="C176" s="3">
         <v>0.8921</v>
       </c>
-      <c r="E176" s="4">
+      <c r="D176" s="3">
         <v>0.9014</v>
       </c>
-      <c r="F176" s="4">
+      <c r="E176" s="3">
         <v>0.903</v>
       </c>
-      <c r="G176" s="4">
+      <c r="F176" s="3">
         <v>0.9086</v>
       </c>
-      <c r="H176" s="4">
+      <c r="G176" s="3">
         <v>0.9107</v>
       </c>
     </row>
-    <row r="177" ht="19.5" customHeight="1" spans="1:8">
+    <row r="177" ht="19.5" customHeight="1" spans="1:7">
       <c r="A177" s="3">
-        <v>175</v>
-      </c>
-      <c r="B177" s="4">
         <v>0.6214</v>
       </c>
-      <c r="C177" s="4">
+      <c r="B177" s="3">
         <v>0.5217</v>
       </c>
-      <c r="D177" s="4">
+      <c r="C177" s="3">
         <v>0.893</v>
       </c>
-      <c r="E177" s="4">
+      <c r="D177" s="3">
         <v>0.9064</v>
       </c>
-      <c r="F177" s="4">
+      <c r="E177" s="3">
         <v>0.9036</v>
       </c>
-      <c r="G177" s="4">
+      <c r="F177" s="3">
         <v>0.9105</v>
       </c>
-      <c r="H177" s="4">
+      <c r="G177" s="3">
         <v>0.9071</v>
       </c>
     </row>
-    <row r="178" ht="19.5" customHeight="1" spans="1:8">
+    <row r="178" ht="19.5" customHeight="1" spans="1:7">
       <c r="A178" s="3">
-        <v>176</v>
-      </c>
-      <c r="B178" s="4">
         <v>0.6255</v>
       </c>
-      <c r="C178" s="4">
+      <c r="B178" s="3">
         <v>0.5175</v>
       </c>
-      <c r="D178" s="4">
+      <c r="C178" s="3">
         <v>0.8891</v>
       </c>
-      <c r="E178" s="4">
+      <c r="D178" s="3">
         <v>0.9014</v>
       </c>
-      <c r="F178" s="4">
+      <c r="E178" s="3">
         <v>0.9021</v>
       </c>
-      <c r="G178" s="4">
+      <c r="F178" s="3">
         <v>0.9056</v>
       </c>
-      <c r="H178" s="4">
+      <c r="G178" s="3">
         <v>0.913</v>
       </c>
     </row>
-    <row r="179" ht="19.5" customHeight="1" spans="1:8">
+    <row r="179" ht="19.5" customHeight="1" spans="1:7">
       <c r="A179" s="3">
-        <v>177</v>
-      </c>
-      <c r="B179" s="4">
         <v>0.63</v>
       </c>
-      <c r="C179" s="4">
+      <c r="B179" s="3">
         <v>0.52</v>
       </c>
-      <c r="D179" s="4">
+      <c r="C179" s="3">
         <v>0.8955</v>
       </c>
-      <c r="E179" s="4">
+      <c r="D179" s="3">
         <v>0.9063</v>
       </c>
-      <c r="F179" s="4">
+      <c r="E179" s="3">
         <v>0.9014</v>
       </c>
-      <c r="G179" s="4">
+      <c r="F179" s="3">
         <v>0.9054</v>
       </c>
-      <c r="H179" s="4">
+      <c r="G179" s="3">
         <v>0.913</v>
       </c>
     </row>
-    <row r="180" ht="19.5" customHeight="1" spans="1:8">
+    <row r="180" ht="19.5" customHeight="1" spans="1:7">
       <c r="A180" s="3">
-        <v>178</v>
-      </c>
-      <c r="B180" s="4">
         <v>0.6267</v>
       </c>
-      <c r="C180" s="4">
+      <c r="B180" s="3">
         <v>0.5209</v>
       </c>
-      <c r="D180" s="4">
+      <c r="C180" s="3">
         <v>0.8933</v>
       </c>
-      <c r="E180" s="4">
+      <c r="D180" s="3">
         <v>0.9047</v>
       </c>
-      <c r="F180" s="4">
+      <c r="E180" s="3">
         <v>0.9046</v>
       </c>
-      <c r="G180" s="4">
+      <c r="F180" s="3">
         <v>0.904</v>
       </c>
-      <c r="H180" s="4">
+      <c r="G180" s="3">
         <v>0.9127</v>
       </c>
     </row>
-    <row r="181" ht="19.5" customHeight="1" spans="1:8">
+    <row r="181" ht="19.5" customHeight="1" spans="1:7">
       <c r="A181" s="3">
-        <v>179</v>
-      </c>
-      <c r="B181" s="4">
         <v>0.6267</v>
       </c>
-      <c r="C181" s="4">
+      <c r="B181" s="3">
         <v>0.5244</v>
       </c>
-      <c r="D181" s="4">
+      <c r="C181" s="3">
         <v>0.8905</v>
       </c>
-      <c r="E181" s="4">
+      <c r="D181" s="3">
         <v>0.9009</v>
       </c>
-      <c r="F181" s="4">
+      <c r="E181" s="3">
         <v>0.9049</v>
       </c>
-      <c r="G181" s="4">
+      <c r="F181" s="3">
         <v>0.9066</v>
       </c>
-      <c r="H181" s="4">
+      <c r="G181" s="3">
         <v>0.9112</v>
       </c>
     </row>

--- a/correlation/input_data/best_val_acc.xlsx
+++ b/correlation/input_data/best_val_acc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Scale" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
-  <si>
-    <t>Index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>LeNet</t>
   </si>
@@ -694,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -704,12 +701,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1065,1237 +1056,1095 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.1481481481481" style="4" customWidth="1"/>
-    <col min="2" max="8" width="14.1481481481481" style="1" customWidth="1"/>
+    <col min="1" max="7" width="14.1481481481481" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:8">
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:7">
       <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7">
         <v>0.6314</v>
       </c>
-      <c r="C2" s="7">
+      <c r="B2" s="5">
         <v>0.5229</v>
       </c>
-      <c r="D2" s="7">
+      <c r="C2" s="5">
         <v>0.8807</v>
       </c>
-      <c r="E2" s="7">
+      <c r="D2" s="5">
         <v>0.9164</v>
       </c>
-      <c r="F2" s="7">
+      <c r="E2" s="5">
         <v>0.887</v>
       </c>
-      <c r="G2" s="7">
+      <c r="F2" s="5">
         <v>0.8948</v>
       </c>
-      <c r="H2" s="7">
+      <c r="G2" s="5">
         <v>0.8946</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:8">
+    <row r="3" ht="19.5" customHeight="1" spans="1:7">
       <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
         <v>0.6725</v>
       </c>
-      <c r="C3" s="7">
+      <c r="B3" s="5">
         <v>0.5775</v>
       </c>
-      <c r="D3" s="7">
+      <c r="C3" s="5">
         <v>0.8914</v>
       </c>
-      <c r="E3" s="7">
+      <c r="D3" s="5">
         <v>0.9198</v>
       </c>
-      <c r="F3" s="7">
+      <c r="E3" s="5">
         <v>0.9025</v>
       </c>
-      <c r="G3" s="7">
+      <c r="F3" s="5">
         <v>0.9073</v>
       </c>
-      <c r="H3" s="7">
+      <c r="G3" s="5">
         <v>0.907</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:8">
+    <row r="4" ht="19.5" customHeight="1" spans="1:7">
       <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
         <v>0.697</v>
       </c>
-      <c r="C4" s="7">
+      <c r="B4" s="5">
         <v>0.5867</v>
       </c>
-      <c r="D4" s="7">
+      <c r="C4" s="5">
         <v>0.9023</v>
       </c>
-      <c r="E4" s="7">
+      <c r="D4" s="5">
         <v>0.8934</v>
       </c>
-      <c r="F4" s="7">
+      <c r="E4" s="5">
         <v>0.9074</v>
       </c>
-      <c r="G4" s="7">
+      <c r="F4" s="5">
         <v>0.9141</v>
       </c>
-      <c r="H4" s="7">
+      <c r="G4" s="5">
         <v>0.9149</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:8">
+    <row r="5" ht="19.5" customHeight="1" spans="1:7">
       <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
         <v>0.6836</v>
       </c>
-      <c r="C5" s="7">
+      <c r="B5" s="5">
         <v>0.5939</v>
       </c>
-      <c r="D5" s="7">
+      <c r="C5" s="5">
         <v>0.9042</v>
       </c>
-      <c r="E5" s="7">
+      <c r="D5" s="5">
         <v>0.93</v>
       </c>
-      <c r="F5" s="7">
+      <c r="E5" s="5">
         <v>0.9152</v>
       </c>
-      <c r="G5" s="7">
+      <c r="F5" s="5">
         <v>0.9176</v>
       </c>
-      <c r="H5" s="7">
+      <c r="G5" s="5">
         <v>0.9181</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:8">
+    <row r="6" ht="19.5" customHeight="1" spans="1:7">
       <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
         <v>0.7065</v>
       </c>
-      <c r="C6" s="7">
+      <c r="B6" s="5">
         <v>0.586</v>
       </c>
-      <c r="D6" s="7">
+      <c r="C6" s="5">
         <v>0.9099</v>
       </c>
-      <c r="E6" s="7">
+      <c r="D6" s="5">
         <v>0.9306</v>
       </c>
-      <c r="F6" s="7">
+      <c r="E6" s="5">
         <v>0.9192</v>
       </c>
-      <c r="G6" s="7">
+      <c r="F6" s="5">
         <v>0.9206</v>
       </c>
-      <c r="H6" s="7">
+      <c r="G6" s="5">
         <v>0.9201</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:8">
+    <row r="7" ht="19.5" customHeight="1" spans="1:7">
       <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
         <v>0.7161</v>
       </c>
-      <c r="C7" s="7">
+      <c r="B7" s="5">
         <v>0.5926</v>
       </c>
-      <c r="D7" s="7">
+      <c r="C7" s="5">
         <v>0.9156</v>
       </c>
-      <c r="E7" s="7">
+      <c r="D7" s="5">
         <v>0.9355</v>
       </c>
-      <c r="F7" s="7">
+      <c r="E7" s="5">
         <v>0.9231</v>
       </c>
-      <c r="G7" s="7">
+      <c r="F7" s="5">
         <v>0.9236</v>
       </c>
-      <c r="H7" s="7">
+      <c r="G7" s="5">
         <v>0.925</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:8">
+    <row r="8" ht="19.5" customHeight="1" spans="1:7">
       <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
         <v>0.7228</v>
       </c>
-      <c r="C8" s="7">
+      <c r="B8" s="5">
         <v>0.5963</v>
       </c>
-      <c r="D8" s="7">
+      <c r="C8" s="5">
         <v>0.9184</v>
       </c>
-      <c r="E8" s="7">
+      <c r="D8" s="5">
         <v>0.9372</v>
       </c>
-      <c r="F8" s="7">
+      <c r="E8" s="5">
         <v>0.9213</v>
       </c>
-      <c r="G8" s="7">
+      <c r="F8" s="5">
         <v>0.9257</v>
       </c>
-      <c r="H8" s="7">
+      <c r="G8" s="5">
         <v>0.9243</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:8">
+    <row r="9" ht="19.5" customHeight="1" spans="1:7">
       <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7">
         <v>0.726</v>
       </c>
-      <c r="C9" s="7">
+      <c r="B9" s="5">
         <v>0.5972</v>
       </c>
-      <c r="D9" s="7">
+      <c r="C9" s="5">
         <v>0.9238</v>
       </c>
-      <c r="E9" s="7">
+      <c r="D9" s="5">
         <v>0.9357</v>
       </c>
-      <c r="F9" s="7">
+      <c r="E9" s="5">
         <v>0.9317</v>
       </c>
-      <c r="G9" s="7">
+      <c r="F9" s="5">
         <v>0.9269</v>
       </c>
-      <c r="H9" s="7">
+      <c r="G9" s="5">
         <v>0.9348</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:8">
+    <row r="10" ht="19.5" customHeight="1" spans="1:7">
       <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
         <v>0.722</v>
       </c>
-      <c r="C10" s="7">
+      <c r="B10" s="5">
         <v>0.6067</v>
       </c>
-      <c r="D10" s="7">
+      <c r="C10" s="5">
         <v>0.9277</v>
       </c>
-      <c r="E10" s="7">
+      <c r="D10" s="5">
         <v>0.9384</v>
       </c>
-      <c r="F10" s="7">
+      <c r="E10" s="5">
         <v>0.9273</v>
       </c>
-      <c r="G10" s="7">
+      <c r="F10" s="5">
         <v>0.9316</v>
       </c>
-      <c r="H10" s="7">
+      <c r="G10" s="5">
         <v>0.9269</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:8">
+    <row r="11" ht="19.5" customHeight="1" spans="1:7">
       <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7">
         <v>0.7312</v>
       </c>
-      <c r="C11" s="7">
+      <c r="B11" s="5">
         <v>0.5989</v>
       </c>
-      <c r="D11" s="7">
+      <c r="C11" s="5">
         <v>0.9282</v>
       </c>
-      <c r="E11" s="7">
+      <c r="D11" s="5">
         <v>0.9377</v>
       </c>
-      <c r="F11" s="7">
+      <c r="E11" s="5">
         <v>0.934</v>
       </c>
-      <c r="G11" s="7">
+      <c r="F11" s="5">
         <v>0.9371</v>
       </c>
-      <c r="H11" s="7">
+      <c r="G11" s="5">
         <v>0.9353</v>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1" spans="1:8">
+    <row r="12" ht="19.5" customHeight="1" spans="1:7">
       <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7">
         <v>0.719</v>
       </c>
-      <c r="C12" s="7">
+      <c r="B12" s="5">
         <v>0.5991</v>
       </c>
-      <c r="D12" s="7">
+      <c r="C12" s="5">
         <v>0.9315</v>
       </c>
-      <c r="E12" s="7">
+      <c r="D12" s="5">
         <v>0.9353</v>
       </c>
-      <c r="F12" s="7">
+      <c r="E12" s="5">
         <v>0.9287</v>
       </c>
-      <c r="G12" s="7">
+      <c r="F12" s="5">
         <v>0.939</v>
       </c>
-      <c r="H12" s="7">
+      <c r="G12" s="5">
         <v>0.9405</v>
       </c>
     </row>
-    <row r="13" ht="19.5" customHeight="1" spans="1:8">
+    <row r="13" ht="19.5" customHeight="1" spans="1:7">
       <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7">
         <v>0.7246</v>
       </c>
-      <c r="C13" s="7">
+      <c r="B13" s="5">
         <v>0.5975</v>
       </c>
-      <c r="D13" s="7">
+      <c r="C13" s="5">
         <v>0.9312</v>
       </c>
-      <c r="E13" s="7">
+      <c r="D13" s="5">
         <v>0.9383</v>
       </c>
-      <c r="F13" s="7">
+      <c r="E13" s="5">
         <v>0.9287</v>
       </c>
-      <c r="G13" s="7">
+      <c r="F13" s="5">
         <v>0.9386</v>
       </c>
-      <c r="H13" s="7">
+      <c r="G13" s="5">
         <v>0.9293</v>
       </c>
     </row>
-    <row r="14" ht="19.5" customHeight="1" spans="1:8">
+    <row r="14" ht="19.5" customHeight="1" spans="1:7">
       <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7">
         <v>0.7246</v>
       </c>
-      <c r="C14" s="7">
+      <c r="B14" s="5">
         <v>0.596</v>
       </c>
-      <c r="D14" s="7">
+      <c r="C14" s="5">
         <v>0.9225</v>
       </c>
-      <c r="E14" s="7">
+      <c r="D14" s="5">
         <v>0.929</v>
       </c>
-      <c r="F14" s="7">
+      <c r="E14" s="5">
         <v>0.9293</v>
       </c>
-      <c r="G14" s="7">
+      <c r="F14" s="5">
         <v>0.9386</v>
       </c>
-      <c r="H14" s="7">
+      <c r="G14" s="5">
         <v>0.9278</v>
       </c>
     </row>
-    <row r="15" ht="19.5" customHeight="1" spans="1:8">
+    <row r="15" ht="19.5" customHeight="1" spans="1:7">
       <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7">
         <v>0.725</v>
       </c>
-      <c r="C15" s="7">
+      <c r="B15" s="5">
         <v>0.5997</v>
       </c>
-      <c r="D15" s="7">
+      <c r="C15" s="5">
         <v>0.9279</v>
       </c>
-      <c r="E15" s="7">
+      <c r="D15" s="5">
         <v>0.9301</v>
       </c>
-      <c r="F15" s="7">
+      <c r="E15" s="5">
         <v>0.928</v>
       </c>
-      <c r="G15" s="7">
+      <c r="F15" s="5">
         <v>0.9389</v>
       </c>
-      <c r="H15" s="7">
+      <c r="G15" s="5">
         <v>0.9282</v>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1" spans="1:8">
+    <row r="16" ht="19.5" customHeight="1" spans="1:7">
       <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7">
         <v>0.7313</v>
       </c>
-      <c r="C16" s="7">
+      <c r="B16" s="5">
         <v>0.5962</v>
       </c>
-      <c r="D16" s="7">
+      <c r="C16" s="5">
         <v>0.9246</v>
       </c>
-      <c r="E16" s="7">
+      <c r="D16" s="5">
         <v>0.9289</v>
       </c>
-      <c r="F16" s="7">
+      <c r="E16" s="5">
         <v>0.9264</v>
       </c>
-      <c r="G16" s="7">
+      <c r="F16" s="5">
         <v>0.9397</v>
       </c>
-      <c r="H16" s="7">
+      <c r="G16" s="5">
         <v>0.9278</v>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1" spans="1:8">
+    <row r="17" ht="19.5" customHeight="1" spans="1:7">
       <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7">
         <v>0.7271</v>
       </c>
-      <c r="C17" s="7">
+      <c r="B17" s="5">
         <v>0.5946</v>
       </c>
-      <c r="D17" s="7">
+      <c r="C17" s="5">
         <v>0.9254</v>
       </c>
-      <c r="E17" s="7">
+      <c r="D17" s="5">
         <v>0.9301</v>
       </c>
-      <c r="F17" s="7">
+      <c r="E17" s="5">
         <v>0.9273</v>
       </c>
-      <c r="G17" s="7">
+      <c r="F17" s="5">
         <v>0.9265</v>
       </c>
-      <c r="H17" s="7">
+      <c r="G17" s="5">
         <v>0.9267</v>
       </c>
     </row>
-    <row r="18" ht="19.5" customHeight="1" spans="1:8">
+    <row r="18" ht="19.5" customHeight="1" spans="1:7">
       <c r="A18" s="5">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7">
         <v>0.7294</v>
       </c>
-      <c r="C18" s="7">
+      <c r="B18" s="5">
         <v>0.5899</v>
       </c>
-      <c r="D18" s="7">
+      <c r="C18" s="5">
         <v>0.9228</v>
       </c>
-      <c r="E18" s="7">
+      <c r="D18" s="5">
         <v>0.9264</v>
       </c>
-      <c r="F18" s="7">
+      <c r="E18" s="5">
         <v>0.9265</v>
       </c>
-      <c r="G18" s="7">
+      <c r="F18" s="5">
         <v>0.928</v>
       </c>
-      <c r="H18" s="7">
+      <c r="G18" s="5">
         <v>0.9291</v>
       </c>
     </row>
-    <row r="19" ht="19.5" customHeight="1" spans="1:8">
+    <row r="19" ht="19.5" customHeight="1" spans="1:7">
       <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7">
         <v>0.7165</v>
       </c>
-      <c r="C19" s="7">
+      <c r="B19" s="5">
         <v>0.5841</v>
       </c>
-      <c r="D19" s="7">
+      <c r="C19" s="5">
         <v>0.9214</v>
       </c>
-      <c r="E19" s="7">
+      <c r="D19" s="5">
         <v>0.9248</v>
       </c>
-      <c r="F19" s="7">
+      <c r="E19" s="5">
         <v>0.9277</v>
       </c>
-      <c r="G19" s="7">
+      <c r="F19" s="5">
         <v>0.9255</v>
       </c>
-      <c r="H19" s="7">
+      <c r="G19" s="5">
         <v>0.9228</v>
       </c>
     </row>
-    <row r="20" ht="19.5" customHeight="1" spans="1:8">
+    <row r="20" ht="19.5" customHeight="1" spans="1:7">
       <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7">
         <v>0.7188</v>
       </c>
-      <c r="C20" s="7">
+      <c r="B20" s="5">
         <v>0.5847</v>
       </c>
-      <c r="D20" s="7">
+      <c r="C20" s="5">
         <v>0.9207</v>
       </c>
-      <c r="E20" s="7">
+      <c r="D20" s="5">
         <v>0.9244</v>
       </c>
-      <c r="F20" s="7">
+      <c r="E20" s="5">
         <v>0.9266</v>
       </c>
-      <c r="G20" s="7">
+      <c r="F20" s="5">
         <v>0.927</v>
       </c>
-      <c r="H20" s="7">
+      <c r="G20" s="5">
         <v>0.9261</v>
       </c>
     </row>
-    <row r="21" ht="19.5" customHeight="1" spans="1:8">
+    <row r="21" ht="19.5" customHeight="1" spans="1:7">
       <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7">
         <v>0.7157</v>
       </c>
-      <c r="C21" s="7">
+      <c r="B21" s="5">
         <v>0.5809</v>
       </c>
-      <c r="D21" s="7">
+      <c r="C21" s="5">
         <v>0.9194</v>
       </c>
-      <c r="E21" s="7">
+      <c r="D21" s="5">
         <v>0.9245</v>
       </c>
-      <c r="F21" s="7">
+      <c r="E21" s="5">
         <v>0.9236</v>
       </c>
-      <c r="G21" s="7">
+      <c r="F21" s="5">
         <v>0.9239</v>
       </c>
-      <c r="H21" s="7">
+      <c r="G21" s="5">
         <v>0.9222</v>
       </c>
     </row>
-    <row r="22" ht="19.5" customHeight="1" spans="1:8">
+    <row r="22" ht="19.5" customHeight="1" spans="1:7">
       <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7">
         <v>0.7135</v>
       </c>
-      <c r="C22" s="7">
+      <c r="B22" s="5">
         <v>0.5867</v>
       </c>
-      <c r="D22" s="7">
+      <c r="C22" s="5">
         <v>0.9192</v>
       </c>
-      <c r="E22" s="7">
+      <c r="D22" s="5">
         <v>0.9225</v>
       </c>
-      <c r="F22" s="7">
+      <c r="E22" s="5">
         <v>0.9208</v>
       </c>
-      <c r="G22" s="7">
+      <c r="F22" s="5">
         <v>0.9228</v>
       </c>
-      <c r="H22" s="7">
+      <c r="G22" s="5">
         <v>0.9242</v>
       </c>
     </row>
-    <row r="23" ht="19.5" customHeight="1" spans="1:8">
+    <row r="23" ht="19.5" customHeight="1" spans="1:7">
       <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7">
         <v>0.6958</v>
       </c>
-      <c r="C23" s="7">
+      <c r="B23" s="5">
         <v>0.5836</v>
       </c>
-      <c r="D23" s="7">
+      <c r="C23" s="5">
         <v>0.916</v>
       </c>
-      <c r="E23" s="7">
+      <c r="D23" s="5">
         <v>0.9196</v>
       </c>
-      <c r="F23" s="7">
+      <c r="E23" s="5">
         <v>0.9199</v>
       </c>
-      <c r="G23" s="7">
+      <c r="F23" s="5">
         <v>0.9215</v>
       </c>
-      <c r="H23" s="7">
+      <c r="G23" s="5">
         <v>0.9198</v>
       </c>
     </row>
-    <row r="24" ht="19.5" customHeight="1" spans="1:8">
+    <row r="24" ht="19.5" customHeight="1" spans="1:7">
       <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7">
         <v>0.6958</v>
       </c>
-      <c r="C24" s="7">
+      <c r="B24" s="5">
         <v>0.5784</v>
       </c>
-      <c r="D24" s="7">
+      <c r="C24" s="5">
         <v>0.9161</v>
       </c>
-      <c r="E24" s="7">
+      <c r="D24" s="5">
         <v>0.9198</v>
       </c>
-      <c r="F24" s="7">
+      <c r="E24" s="5">
         <v>0.9201</v>
       </c>
-      <c r="G24" s="7">
+      <c r="F24" s="5">
         <v>0.9181</v>
       </c>
-      <c r="H24" s="7">
+      <c r="G24" s="5">
         <v>0.918</v>
       </c>
     </row>
-    <row r="25" ht="19.5" customHeight="1" spans="1:8">
+    <row r="25" ht="19.5" customHeight="1" spans="1:7">
       <c r="A25" s="5">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7">
         <v>0.6966</v>
       </c>
-      <c r="C25" s="7">
+      <c r="B25" s="5">
         <v>0.5643</v>
       </c>
-      <c r="D25" s="7">
+      <c r="C25" s="5">
         <v>0.9115</v>
       </c>
-      <c r="E25" s="7">
+      <c r="D25" s="5">
         <v>0.9156</v>
       </c>
-      <c r="F25" s="7">
+      <c r="E25" s="5">
         <v>0.9217</v>
       </c>
-      <c r="G25" s="7">
+      <c r="F25" s="5">
         <v>0.9165</v>
       </c>
-      <c r="H25" s="7">
+      <c r="G25" s="5">
         <v>0.9148</v>
       </c>
     </row>
-    <row r="26" ht="19.5" customHeight="1" spans="1:8">
+    <row r="26" ht="19.5" customHeight="1" spans="1:7">
       <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7">
         <v>0.6766</v>
       </c>
-      <c r="C26" s="7">
+      <c r="B26" s="5">
         <v>0.5582</v>
       </c>
-      <c r="D26" s="7">
+      <c r="C26" s="5">
         <v>0.9123</v>
       </c>
-      <c r="E26" s="7">
+      <c r="D26" s="5">
         <v>0.9129</v>
       </c>
-      <c r="F26" s="7">
+      <c r="E26" s="5">
         <v>0.9225</v>
       </c>
-      <c r="G26" s="7">
+      <c r="F26" s="5">
         <v>0.914</v>
       </c>
-      <c r="H26" s="7">
+      <c r="G26" s="5">
         <v>0.9135</v>
       </c>
     </row>
-    <row r="27" ht="19.5" customHeight="1" spans="1:8">
+    <row r="27" ht="19.5" customHeight="1" spans="1:7">
       <c r="A27" s="5">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7">
         <v>0.6831</v>
       </c>
-      <c r="C27" s="7">
+      <c r="B27" s="5">
         <v>0.5616</v>
       </c>
-      <c r="D27" s="7">
+      <c r="C27" s="5">
         <v>0.9056</v>
       </c>
-      <c r="E27" s="7">
+      <c r="D27" s="5">
         <v>0.9132</v>
       </c>
-      <c r="F27" s="7">
+      <c r="E27" s="5">
         <v>0.9138</v>
       </c>
-      <c r="G27" s="7">
+      <c r="F27" s="5">
         <v>0.9111</v>
       </c>
-      <c r="H27" s="7">
+      <c r="G27" s="5">
         <v>0.9085</v>
       </c>
     </row>
-    <row r="28" ht="19.5" customHeight="1" spans="1:8">
+    <row r="28" ht="19.5" customHeight="1" spans="1:7">
       <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7">
         <v>0.6705</v>
       </c>
-      <c r="C28" s="7">
+      <c r="B28" s="5">
         <v>0.5466</v>
       </c>
-      <c r="D28" s="7">
+      <c r="C28" s="5">
         <v>0.9078</v>
       </c>
-      <c r="E28" s="7">
+      <c r="D28" s="5">
         <v>0.9097</v>
       </c>
-      <c r="F28" s="7">
+      <c r="E28" s="5">
         <v>0.9176</v>
       </c>
-      <c r="G28" s="7">
+      <c r="F28" s="5">
         <v>0.9084</v>
       </c>
-      <c r="H28" s="7">
+      <c r="G28" s="5">
         <v>0.9049</v>
       </c>
     </row>
-    <row r="29" ht="19.5" customHeight="1" spans="1:8">
+    <row r="29" ht="19.5" customHeight="1" spans="1:7">
       <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="7">
         <v>0.6619</v>
       </c>
-      <c r="C29" s="7">
+      <c r="B29" s="5">
         <v>0.5414</v>
       </c>
-      <c r="D29" s="7">
+      <c r="C29" s="5">
         <v>0.8995</v>
       </c>
-      <c r="E29" s="7">
+      <c r="D29" s="5">
         <v>0.9147</v>
       </c>
-      <c r="F29" s="7">
+      <c r="E29" s="5">
         <v>0.9139</v>
       </c>
-      <c r="G29" s="7">
+      <c r="F29" s="5">
         <v>0.9045</v>
       </c>
-      <c r="H29" s="7">
+      <c r="G29" s="5">
         <v>0.904</v>
       </c>
     </row>
-    <row r="30" ht="19.5" customHeight="1" spans="1:8">
+    <row r="30" ht="19.5" customHeight="1" spans="1:7">
       <c r="A30" s="5">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7">
         <v>0.6547</v>
       </c>
-      <c r="C30" s="7">
+      <c r="B30" s="5">
         <v>0.5361</v>
       </c>
-      <c r="D30" s="7">
+      <c r="C30" s="5">
         <v>0.8956</v>
       </c>
-      <c r="E30" s="7">
+      <c r="D30" s="5">
         <v>0.9016</v>
       </c>
-      <c r="F30" s="7">
+      <c r="E30" s="5">
         <v>0.9008</v>
       </c>
-      <c r="G30" s="7">
+      <c r="F30" s="5">
         <v>0.9022</v>
       </c>
-      <c r="H30" s="7">
+      <c r="G30" s="5">
         <v>0.8998</v>
       </c>
     </row>
-    <row r="31" ht="19.5" customHeight="1" spans="1:8">
+    <row r="31" ht="19.5" customHeight="1" spans="1:7">
       <c r="A31" s="5">
-        <v>29</v>
-      </c>
-      <c r="B31" s="7">
         <v>0.6524</v>
       </c>
-      <c r="C31" s="7">
+      <c r="B31" s="5">
         <v>0.5255</v>
       </c>
-      <c r="D31" s="7">
+      <c r="C31" s="5">
         <v>0.892</v>
       </c>
-      <c r="E31" s="7">
+      <c r="D31" s="5">
         <v>0.8952</v>
       </c>
-      <c r="F31" s="7">
+      <c r="E31" s="5">
         <v>0.8938</v>
       </c>
-      <c r="G31" s="7">
+      <c r="F31" s="5">
         <v>0.8949</v>
       </c>
-      <c r="H31" s="7">
+      <c r="G31" s="5">
         <v>0.8962</v>
       </c>
     </row>
-    <row r="32" ht="19.5" customHeight="1" spans="1:8">
+    <row r="32" ht="19.5" customHeight="1" spans="1:7">
       <c r="A32" s="5">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7">
         <v>0.6446</v>
       </c>
-      <c r="C32" s="7">
+      <c r="B32" s="5">
         <v>0.5161</v>
       </c>
-      <c r="D32" s="7">
+      <c r="C32" s="5">
         <v>0.8895</v>
       </c>
-      <c r="E32" s="7">
+      <c r="D32" s="5">
         <v>0.8923</v>
       </c>
-      <c r="F32" s="7">
+      <c r="E32" s="5">
         <v>0.8889</v>
       </c>
-      <c r="G32" s="7">
+      <c r="F32" s="5">
         <v>0.8912</v>
       </c>
-      <c r="H32" s="7">
+      <c r="G32" s="5">
         <v>0.8931</v>
       </c>
     </row>
-    <row r="33" ht="19.5" customHeight="1" spans="1:8">
+    <row r="33" ht="19.5" customHeight="1" spans="1:7">
       <c r="A33" s="5">
-        <v>31</v>
-      </c>
-      <c r="B33" s="7">
         <v>0.6367</v>
       </c>
-      <c r="C33" s="7">
+      <c r="B33" s="5">
         <v>0.5105</v>
       </c>
-      <c r="D33" s="7">
+      <c r="C33" s="5">
         <v>0.8819</v>
       </c>
-      <c r="E33" s="7">
+      <c r="D33" s="5">
         <v>0.8877</v>
       </c>
-      <c r="F33" s="7">
+      <c r="E33" s="5">
         <v>0.8876</v>
       </c>
-      <c r="G33" s="7">
+      <c r="F33" s="5">
         <v>0.8852</v>
       </c>
-      <c r="H33" s="7">
+      <c r="G33" s="5">
         <v>0.8862</v>
       </c>
     </row>
-    <row r="34" ht="19.5" customHeight="1" spans="1:8">
+    <row r="34" ht="19.5" customHeight="1" spans="1:7">
       <c r="A34" s="5">
-        <v>32</v>
-      </c>
-      <c r="B34" s="7">
         <v>0.6232</v>
       </c>
-      <c r="C34" s="7">
+      <c r="B34" s="5">
         <v>0.5039</v>
       </c>
-      <c r="D34" s="7">
+      <c r="C34" s="5">
         <v>0.8722</v>
       </c>
-      <c r="E34" s="7">
+      <c r="D34" s="5">
         <v>0.8788</v>
       </c>
-      <c r="F34" s="7">
+      <c r="E34" s="5">
         <v>0.8801</v>
       </c>
-      <c r="G34" s="7">
+      <c r="F34" s="5">
         <v>0.8812</v>
       </c>
-      <c r="H34" s="7">
+      <c r="G34" s="5">
         <v>0.8807</v>
       </c>
     </row>
-    <row r="35" ht="19.5" customHeight="1" spans="1:8">
+    <row r="35" ht="19.5" customHeight="1" spans="1:7">
       <c r="A35" s="5">
-        <v>33</v>
-      </c>
-      <c r="B35" s="7">
         <v>0.614</v>
       </c>
-      <c r="C35" s="7">
+      <c r="B35" s="5">
         <v>0.4947</v>
       </c>
-      <c r="D35" s="7">
+      <c r="C35" s="5">
         <v>0.8681</v>
       </c>
-      <c r="E35" s="7">
+      <c r="D35" s="5">
         <v>0.8714</v>
       </c>
-      <c r="F35" s="7">
+      <c r="E35" s="5">
         <v>0.8738</v>
       </c>
-      <c r="G35" s="7">
+      <c r="F35" s="5">
         <v>0.8776</v>
       </c>
-      <c r="H35" s="7">
+      <c r="G35" s="5">
         <v>0.8733</v>
       </c>
     </row>
-    <row r="36" ht="19.5" customHeight="1" spans="1:8">
+    <row r="36" ht="19.5" customHeight="1" spans="1:7">
       <c r="A36" s="5">
-        <v>34</v>
-      </c>
-      <c r="B36" s="7">
         <v>0.603</v>
       </c>
-      <c r="C36" s="7">
+      <c r="B36" s="5">
         <v>0.4816</v>
       </c>
-      <c r="D36" s="7">
+      <c r="C36" s="5">
         <v>0.8586</v>
       </c>
-      <c r="E36" s="7">
+      <c r="D36" s="5">
         <v>0.8655</v>
       </c>
-      <c r="F36" s="7">
+      <c r="E36" s="5">
         <v>0.8652</v>
       </c>
-      <c r="G36" s="7">
+      <c r="F36" s="5">
         <v>0.8669</v>
       </c>
-      <c r="H36" s="7">
+      <c r="G36" s="5">
         <v>0.8649</v>
       </c>
     </row>
-    <row r="37" ht="19.5" customHeight="1" spans="1:8">
+    <row r="37" ht="19.5" customHeight="1" spans="1:7">
       <c r="A37" s="5">
-        <v>35</v>
-      </c>
-      <c r="B37" s="7">
         <v>0.5912</v>
       </c>
-      <c r="C37" s="7">
+      <c r="B37" s="5">
         <v>0.4742</v>
       </c>
-      <c r="D37" s="7">
+      <c r="C37" s="5">
         <v>0.8501</v>
       </c>
-      <c r="E37" s="7">
+      <c r="D37" s="5">
         <v>0.8592</v>
       </c>
-      <c r="F37" s="7">
+      <c r="E37" s="5">
         <v>0.8563</v>
       </c>
-      <c r="G37" s="7">
+      <c r="F37" s="5">
         <v>0.8565</v>
       </c>
-      <c r="H37" s="7">
+      <c r="G37" s="5">
         <v>0.8573</v>
       </c>
     </row>
-    <row r="38" ht="19.5" customHeight="1" spans="1:8">
+    <row r="38" ht="19.5" customHeight="1" spans="1:7">
       <c r="A38" s="5">
-        <v>36</v>
-      </c>
-      <c r="B38" s="7">
         <v>0.5729</v>
       </c>
-      <c r="C38" s="7">
+      <c r="B38" s="5">
         <v>0.4618</v>
       </c>
-      <c r="D38" s="7">
+      <c r="C38" s="5">
         <v>0.8418</v>
       </c>
-      <c r="E38" s="7">
+      <c r="D38" s="5">
         <v>0.8475</v>
       </c>
-      <c r="F38" s="7">
+      <c r="E38" s="5">
         <v>0.8473</v>
       </c>
-      <c r="G38" s="7">
+      <c r="F38" s="5">
         <v>0.8514</v>
       </c>
-      <c r="H38" s="7">
+      <c r="G38" s="5">
         <v>0.8482</v>
       </c>
     </row>
-    <row r="39" ht="19.5" customHeight="1" spans="1:8">
+    <row r="39" ht="19.5" customHeight="1" spans="1:7">
       <c r="A39" s="5">
-        <v>37</v>
-      </c>
-      <c r="B39" s="7">
         <v>0.5651</v>
       </c>
-      <c r="C39" s="7">
+      <c r="B39" s="5">
         <v>0.4523</v>
       </c>
-      <c r="D39" s="7">
+      <c r="C39" s="5">
         <v>0.8316</v>
       </c>
-      <c r="E39" s="7">
+      <c r="D39" s="5">
         <v>0.8388</v>
       </c>
-      <c r="F39" s="7">
+      <c r="E39" s="5">
         <v>0.8361</v>
       </c>
-      <c r="G39" s="7">
+      <c r="F39" s="5">
         <v>0.836</v>
       </c>
-      <c r="H39" s="7">
+      <c r="G39" s="5">
         <v>0.8361</v>
       </c>
     </row>
-    <row r="40" ht="19.5" customHeight="1" spans="1:8">
+    <row r="40" ht="19.5" customHeight="1" spans="1:7">
       <c r="A40" s="5">
-        <v>38</v>
-      </c>
-      <c r="B40" s="7">
         <v>0.5508</v>
       </c>
-      <c r="C40" s="7">
+      <c r="B40" s="5">
         <v>0.4423</v>
       </c>
-      <c r="D40" s="7">
+      <c r="C40" s="5">
         <v>0.8174</v>
       </c>
-      <c r="E40" s="7">
+      <c r="D40" s="5">
         <v>0.8204</v>
       </c>
-      <c r="F40" s="7">
+      <c r="E40" s="5">
         <v>0.8224</v>
       </c>
-      <c r="G40" s="7">
+      <c r="F40" s="5">
         <v>0.8243</v>
       </c>
-      <c r="H40" s="7">
+      <c r="G40" s="5">
         <v>0.8257</v>
       </c>
     </row>
-    <row r="41" ht="19.5" customHeight="1" spans="1:8">
+    <row r="41" ht="19.5" customHeight="1" spans="1:7">
       <c r="A41" s="5">
-        <v>39</v>
-      </c>
-      <c r="B41" s="7">
         <v>0.5323</v>
       </c>
-      <c r="C41" s="7">
+      <c r="B41" s="5">
         <v>0.4325</v>
       </c>
-      <c r="D41" s="7">
+      <c r="C41" s="5">
         <v>0.8013</v>
       </c>
-      <c r="E41" s="7">
+      <c r="D41" s="5">
         <v>0.8074</v>
       </c>
-      <c r="F41" s="7">
+      <c r="E41" s="5">
         <v>0.8084</v>
       </c>
-      <c r="G41" s="7">
+      <c r="F41" s="5">
         <v>0.8072</v>
       </c>
-      <c r="H41" s="7">
+      <c r="G41" s="5">
         <v>0.8075</v>
       </c>
     </row>
-    <row r="42" ht="19.5" customHeight="1" spans="1:8">
+    <row r="42" ht="19.5" customHeight="1" spans="1:7">
       <c r="A42" s="5">
-        <v>40</v>
-      </c>
-      <c r="B42" s="7">
         <v>0.5288</v>
       </c>
-      <c r="C42" s="7">
+      <c r="B42" s="5">
         <v>0.4133</v>
       </c>
-      <c r="D42" s="7">
+      <c r="C42" s="5">
         <v>0.7835</v>
       </c>
-      <c r="E42" s="7">
+      <c r="D42" s="5">
         <v>0.7915</v>
       </c>
-      <c r="F42" s="7">
+      <c r="E42" s="5">
         <v>0.7924</v>
       </c>
-      <c r="G42" s="7">
+      <c r="F42" s="5">
         <v>0.7931</v>
       </c>
-      <c r="H42" s="7">
+      <c r="G42" s="5">
         <v>0.7925</v>
       </c>
     </row>
-    <row r="43" ht="19.5" customHeight="1" spans="1:8">
+    <row r="43" ht="19.5" customHeight="1" spans="1:7">
       <c r="A43" s="5">
-        <v>41</v>
-      </c>
-      <c r="B43" s="7">
         <v>0.5142</v>
       </c>
-      <c r="C43" s="7">
+      <c r="B43" s="5">
         <v>0.4015</v>
       </c>
-      <c r="D43" s="7">
+      <c r="C43" s="5">
         <v>0.7625</v>
       </c>
-      <c r="E43" s="7">
+      <c r="D43" s="5">
         <v>0.7712</v>
       </c>
-      <c r="F43" s="7">
+      <c r="E43" s="5">
         <v>0.7736</v>
       </c>
-      <c r="G43" s="7">
+      <c r="F43" s="5">
         <v>0.7749</v>
       </c>
-      <c r="H43" s="7">
+      <c r="G43" s="5">
         <v>0.7783</v>
       </c>
     </row>
-    <row r="44" ht="19.5" customHeight="1" spans="1:8">
+    <row r="44" ht="19.5" customHeight="1" spans="1:7">
       <c r="A44" s="5">
-        <v>42</v>
-      </c>
-      <c r="B44" s="7">
         <v>0.4925</v>
       </c>
-      <c r="C44" s="7">
+      <c r="B44" s="5">
         <v>0.3825</v>
       </c>
-      <c r="D44" s="7">
+      <c r="C44" s="5">
         <v>0.7385</v>
       </c>
-      <c r="E44" s="7">
+      <c r="D44" s="5">
         <v>0.7449</v>
       </c>
-      <c r="F44" s="7">
+      <c r="E44" s="5">
         <v>0.747</v>
       </c>
-      <c r="G44" s="7">
+      <c r="F44" s="5">
         <v>0.7468</v>
       </c>
-      <c r="H44" s="7">
+      <c r="G44" s="5">
         <v>0.7452</v>
       </c>
     </row>
-    <row r="45" ht="19.5" customHeight="1" spans="1:8">
+    <row r="45" ht="19.5" customHeight="1" spans="1:7">
       <c r="A45" s="5">
-        <v>43</v>
-      </c>
-      <c r="B45" s="7">
         <v>0.4717</v>
       </c>
-      <c r="C45" s="7">
+      <c r="B45" s="5">
         <v>0.3843</v>
       </c>
-      <c r="D45" s="7">
+      <c r="C45" s="5">
         <v>0.7043</v>
       </c>
-      <c r="E45" s="7">
+      <c r="D45" s="5">
         <v>0.721</v>
       </c>
-      <c r="F45" s="7">
+      <c r="E45" s="5">
         <v>0.7177</v>
       </c>
-      <c r="G45" s="7">
+      <c r="F45" s="5">
         <v>0.7128</v>
       </c>
-      <c r="H45" s="7">
+      <c r="G45" s="5">
         <v>0.712</v>
       </c>
     </row>
-    <row r="46" ht="19.5" customHeight="1" spans="1:8">
+    <row r="46" ht="19.5" customHeight="1" spans="1:7">
       <c r="A46" s="5">
-        <v>44</v>
-      </c>
-      <c r="B46" s="7">
         <v>0.4518</v>
       </c>
-      <c r="C46" s="7">
+      <c r="B46" s="5">
         <v>0.3599</v>
       </c>
-      <c r="D46" s="7">
+      <c r="C46" s="5">
         <v>0.6762</v>
       </c>
-      <c r="E46" s="7">
+      <c r="D46" s="5">
         <v>0.6803</v>
       </c>
-      <c r="F46" s="7">
+      <c r="E46" s="5">
         <v>0.6787</v>
       </c>
-      <c r="G46" s="7">
+      <c r="F46" s="5">
         <v>0.6813</v>
       </c>
-      <c r="H46" s="7">
+      <c r="G46" s="5">
         <v>0.6773</v>
       </c>
     </row>
-    <row r="47" ht="19.5" customHeight="1" spans="1:8">
+    <row r="47" ht="19.5" customHeight="1" spans="1:7">
       <c r="A47" s="5">
-        <v>45</v>
-      </c>
-      <c r="B47" s="7">
         <v>0.4338</v>
       </c>
-      <c r="C47" s="7">
+      <c r="B47" s="5">
         <v>0.3423</v>
       </c>
-      <c r="D47" s="7">
+      <c r="C47" s="5">
         <v>0.6293</v>
       </c>
-      <c r="E47" s="7">
+      <c r="D47" s="5">
         <v>0.6369</v>
       </c>
-      <c r="F47" s="7">
+      <c r="E47" s="5">
         <v>0.638</v>
       </c>
-      <c r="G47" s="7">
+      <c r="F47" s="5">
         <v>0.6383</v>
       </c>
-      <c r="H47" s="7">
+      <c r="G47" s="5">
         <v>0.6362</v>
       </c>
     </row>
@@ -2312,7 +2161,7 @@
   </sheetPr>
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -2323,25 +2172,25 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:7">
